--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_31.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1005965.670295634</v>
+        <v>993036.9236043758</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6742609.142433869</v>
+        <v>6742609.142433866</v>
       </c>
     </row>
     <row r="8">
@@ -2081,10 +2081,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>73.00117972968171</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.00117972968175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2172,13 +2172,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>73.00117972968175</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>73.00117972968168</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2220,13 +2220,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
     </row>
     <row r="22">
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>73.0011797296817</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="U22" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>82.88054011090115</v>
+        <v>73.00117972968171</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2333,10 +2333,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.00117972968174</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>73.00117972968171</v>
       </c>
     </row>
     <row r="24">
@@ -2397,16 +2397,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>73.00117972968171</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2454,13 +2454,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>73.00117972968174</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>73.00117972968171</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>73.00117972968175</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="S25" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>73.00117972968171</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2564,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>73.00117972968175</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2609,13 +2609,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>78.67633314568958</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,19 +2682,19 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="T27" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>73.00117972968174</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>82.88054011090115</v>
+        <v>77.20538669489326</v>
       </c>
       <c r="W27" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>74.90369780277223</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2767,19 +2767,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>73.00117972968174</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="Y28" t="n">
-        <v>82.88054011090115</v>
+        <v>80.97802203781062</v>
       </c>
     </row>
     <row r="29">
@@ -2795,22 +2795,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>73.00117972968168</v>
       </c>
       <c r="E29" t="n">
-        <v>73.00117972968174</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="H29" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2919,25 +2919,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>73.00117972968168</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="W30" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>73.00117972968175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>73.00117972968175</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3010,13 +3010,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="X31" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>82.88054011090115</v>
+        <v>73.00117972968171</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3083,19 +3083,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>73.00117972968174</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="X32" t="n">
-        <v>82.88054011090115</v>
+        <v>73.00117972968171</v>
       </c>
       <c r="Y32" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3111,19 +3111,19 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>73.00117972968168</v>
       </c>
       <c r="E33" t="n">
-        <v>73.00117972968175</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3162,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3196,10 +3196,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>8.69762273147043</v>
       </c>
       <c r="G34" t="n">
-        <v>8.697622731470455</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,19 +3235,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>73.00117972968175</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,19 +3311,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="S35" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>73.00117972968171</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>73.00117972968175</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>80.82578795719726</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>75.0559318833856</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="U36" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>73.00117972968171</v>
       </c>
       <c r="H37" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>73.00117972968175</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,19 +3478,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
     </row>
     <row r="38">
@@ -3548,16 +3548,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.00117972968174</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>73.00117972968171</v>
       </c>
       <c r="U38" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3566,10 +3566,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
     </row>
     <row r="39">
@@ -3627,25 +3627,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>80.82578795719726</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="T39" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>75.0559318833856</v>
       </c>
       <c r="W39" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>73.00117972968175</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3658,16 +3658,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>8.697622731470455</v>
+        <v>8.697622731470398</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>64.30355699821131</v>
       </c>
       <c r="R40" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3721,10 +3721,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,19 +3737,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="C41" t="n">
-        <v>73.00117972968174</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>82.88054011090115</v>
+        <v>73.00117972968171</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3797,16 +3797,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="Y41" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,16 +3816,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>73.00117972968171</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3870,22 +3870,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>73.00117972968175</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
     </row>
     <row r="43">
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>73.00117972968175</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3946,16 +3946,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>82.88054011090115</v>
+        <v>73.00117972968168</v>
       </c>
       <c r="T43" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>90.34816049261063</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="C20" t="n">
-        <v>6.630443208872093</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="D20" t="n">
-        <v>6.630443208872093</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="E20" t="n">
-        <v>6.630443208872093</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="F20" t="n">
-        <v>6.630443208872093</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="G20" t="n">
-        <v>6.630443208872093</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="H20" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I20" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J20" t="n">
-        <v>43.6983692857935</v>
+        <v>43.69836928579349</v>
       </c>
       <c r="K20" t="n">
-        <v>43.6983692857935</v>
+        <v>85.36695631422816</v>
       </c>
       <c r="L20" t="n">
-        <v>125.7501039955856</v>
+        <v>167.4186910240203</v>
       </c>
       <c r="M20" t="n">
-        <v>197.1464114380112</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="N20" t="n">
-        <v>279.1981461478034</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="O20" t="n">
-        <v>279.1981461478034</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="P20" t="n">
-        <v>279.1981461478034</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="R20" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="S20" t="n">
-        <v>331.5221604436046</v>
+        <v>247.804443159866</v>
       </c>
       <c r="T20" t="n">
-        <v>331.5221604436046</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="U20" t="n">
-        <v>331.5221604436046</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="V20" t="n">
-        <v>331.5221604436046</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="W20" t="n">
-        <v>247.8044431598661</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="X20" t="n">
-        <v>164.0867258761276</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="Y20" t="n">
-        <v>90.34816049261063</v>
+        <v>174.0658777763491</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>80.36900859238902</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="C21" t="n">
-        <v>80.36900859238902</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="D21" t="n">
-        <v>80.36900859238902</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="E21" t="n">
-        <v>80.36900859238902</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="F21" t="n">
-        <v>80.36900859238902</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="G21" t="n">
-        <v>80.36900859238902</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="H21" t="n">
-        <v>80.36900859238902</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I21" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J21" t="n">
-        <v>6.630443208872093</v>
+        <v>35.01446635656757</v>
       </c>
       <c r="K21" t="n">
-        <v>6.630443208872093</v>
+        <v>35.01446635656757</v>
       </c>
       <c r="L21" t="n">
-        <v>88.68217791866424</v>
+        <v>117.0662010663597</v>
       </c>
       <c r="M21" t="n">
-        <v>170.7339126284564</v>
+        <v>199.1179357761518</v>
       </c>
       <c r="N21" t="n">
-        <v>249.4704257338125</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="O21" t="n">
-        <v>249.4704257338125</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="P21" t="n">
-        <v>249.4704257338125</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="Q21" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="R21" t="n">
-        <v>331.5221604436046</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="S21" t="n">
-        <v>331.5221604436046</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="T21" t="n">
-        <v>331.5221604436046</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="U21" t="n">
-        <v>331.5221604436046</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="V21" t="n">
-        <v>331.5221604436046</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="W21" t="n">
-        <v>247.8044431598661</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="X21" t="n">
-        <v>164.0867258761276</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="Y21" t="n">
-        <v>80.36900859238902</v>
+        <v>90.34816049261062</v>
       </c>
     </row>
     <row r="22">
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>80.36900859238897</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="C22" t="n">
-        <v>80.36900859238897</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="D22" t="n">
-        <v>80.36900859238897</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="E22" t="n">
-        <v>80.36900859238897</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="F22" t="n">
-        <v>80.36900859238897</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="G22" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="H22" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I22" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J22" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="K22" t="n">
         <v>14.60839277571539</v>
       </c>
       <c r="L22" t="n">
-        <v>80.34385611233594</v>
+        <v>80.34385611233593</v>
       </c>
       <c r="M22" t="n">
         <v>160.0418085032467</v>
       </c>
       <c r="N22" t="n">
-        <v>242.0935432130389</v>
+        <v>242.0935432130388</v>
       </c>
       <c r="O22" t="n">
         <v>302.9605787043558</v>
@@ -5938,22 +5938,22 @@
         <v>247.804443159866</v>
       </c>
       <c r="T22" t="n">
-        <v>247.804443159866</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="U22" t="n">
-        <v>164.0867258761275</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="V22" t="n">
-        <v>164.0867258761275</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="W22" t="n">
-        <v>80.36900859238897</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="X22" t="n">
-        <v>80.36900859238897</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="Y22" t="n">
-        <v>80.36900859238897</v>
+        <v>6.630443208872091</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>90.34816049261063</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="C23" t="n">
-        <v>90.34816049261063</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="D23" t="n">
-        <v>90.34816049261063</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="E23" t="n">
-        <v>90.34816049261063</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="F23" t="n">
-        <v>90.34816049261063</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="G23" t="n">
-        <v>90.34816049261063</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="H23" t="n">
-        <v>6.630443208872093</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="I23" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J23" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="K23" t="n">
-        <v>6.630443208872093</v>
+        <v>88.68217791866422</v>
       </c>
       <c r="L23" t="n">
-        <v>6.630443208872093</v>
+        <v>167.4186910240203</v>
       </c>
       <c r="M23" t="n">
-        <v>33.04294201842694</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="N23" t="n">
-        <v>115.0946767282191</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="O23" t="n">
-        <v>197.1464114380112</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="P23" t="n">
-        <v>279.1981461478034</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="R23" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="S23" t="n">
-        <v>257.7835950600877</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="T23" t="n">
-        <v>174.0658777763492</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="U23" t="n">
-        <v>90.34816049261063</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="V23" t="n">
-        <v>90.34816049261063</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="W23" t="n">
-        <v>90.34816049261063</v>
+        <v>247.804443159866</v>
       </c>
       <c r="X23" t="n">
-        <v>90.34816049261063</v>
+        <v>247.804443159866</v>
       </c>
       <c r="Y23" t="n">
-        <v>90.34816049261063</v>
+        <v>174.0658777763491</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>90.34816049261063</v>
+        <v>247.804443159866</v>
       </c>
       <c r="C24" t="n">
-        <v>90.34816049261063</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="D24" t="n">
-        <v>90.34816049261063</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="E24" t="n">
-        <v>90.34816049261063</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="F24" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="G24" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="H24" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I24" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J24" t="n">
-        <v>6.630443208872093</v>
+        <v>35.01446635656757</v>
       </c>
       <c r="K24" t="n">
-        <v>6.630443208872093</v>
+        <v>85.36695631422816</v>
       </c>
       <c r="L24" t="n">
-        <v>6.630443208872093</v>
+        <v>167.4186910240203</v>
       </c>
       <c r="M24" t="n">
-        <v>6.630443208872093</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="N24" t="n">
-        <v>85.3669563142282</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="O24" t="n">
-        <v>167.4186910240203</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="P24" t="n">
-        <v>249.4704257338125</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="Q24" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="R24" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="S24" t="n">
-        <v>331.5221604436046</v>
+        <v>247.804443159866</v>
       </c>
       <c r="T24" t="n">
-        <v>331.5221604436046</v>
+        <v>247.804443159866</v>
       </c>
       <c r="U24" t="n">
-        <v>331.5221604436046</v>
+        <v>247.804443159866</v>
       </c>
       <c r="V24" t="n">
-        <v>257.7835950600877</v>
+        <v>247.804443159866</v>
       </c>
       <c r="W24" t="n">
-        <v>174.0658777763492</v>
+        <v>247.804443159866</v>
       </c>
       <c r="X24" t="n">
-        <v>90.34816049261063</v>
+        <v>247.804443159866</v>
       </c>
       <c r="Y24" t="n">
-        <v>90.34816049261063</v>
+        <v>247.804443159866</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>80.36900859238902</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="C25" t="n">
-        <v>80.36900859238902</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="D25" t="n">
-        <v>80.36900859238902</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="E25" t="n">
-        <v>80.36900859238902</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="F25" t="n">
-        <v>80.36900859238902</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="G25" t="n">
-        <v>80.36900859238902</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="H25" t="n">
-        <v>80.36900859238902</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I25" t="n">
-        <v>80.36900859238902</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J25" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="K25" t="n">
         <v>14.60839277571539</v>
       </c>
       <c r="L25" t="n">
-        <v>80.34385611233594</v>
+        <v>80.34385611233593</v>
       </c>
       <c r="M25" t="n">
-        <v>160.0418085032468</v>
+        <v>160.0418085032467</v>
       </c>
       <c r="N25" t="n">
-        <v>242.0935432130389</v>
+        <v>242.0935432130388</v>
       </c>
       <c r="O25" t="n">
-        <v>302.9605787043559</v>
+        <v>302.9605787043558</v>
       </c>
       <c r="P25" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="Q25" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="R25" t="n">
-        <v>247.8044431598661</v>
+        <v>247.804443159866</v>
       </c>
       <c r="S25" t="n">
-        <v>164.0867258761276</v>
+        <v>247.804443159866</v>
       </c>
       <c r="T25" t="n">
-        <v>80.36900859238902</v>
+        <v>247.804443159866</v>
       </c>
       <c r="U25" t="n">
-        <v>80.36900859238902</v>
+        <v>247.804443159866</v>
       </c>
       <c r="V25" t="n">
-        <v>80.36900859238902</v>
+        <v>247.804443159866</v>
       </c>
       <c r="W25" t="n">
-        <v>80.36900859238902</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="X25" t="n">
-        <v>80.36900859238902</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="Y25" t="n">
-        <v>80.36900859238902</v>
+        <v>164.0867258761275</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>80.36900859238902</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="C26" t="n">
-        <v>80.36900859238902</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="D26" t="n">
-        <v>80.36900859238902</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="E26" t="n">
-        <v>80.36900859238902</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="F26" t="n">
-        <v>80.36900859238902</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="G26" t="n">
-        <v>80.36900859238902</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="H26" t="n">
-        <v>80.36900859238902</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I26" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J26" t="n">
-        <v>43.6983692857935</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="K26" t="n">
-        <v>125.7501039955856</v>
+        <v>88.68217791866422</v>
       </c>
       <c r="L26" t="n">
-        <v>207.8018387053778</v>
+        <v>115.094676728219</v>
       </c>
       <c r="M26" t="n">
-        <v>279.1981461478034</v>
+        <v>197.1464114380112</v>
       </c>
       <c r="N26" t="n">
-        <v>279.1981461478034</v>
+        <v>279.1981461478033</v>
       </c>
       <c r="O26" t="n">
-        <v>279.1981461478034</v>
+        <v>279.1981461478033</v>
       </c>
       <c r="P26" t="n">
-        <v>279.1981461478034</v>
+        <v>279.1981461478033</v>
       </c>
       <c r="Q26" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="R26" t="n">
-        <v>331.5221604436046</v>
+        <v>247.804443159866</v>
       </c>
       <c r="S26" t="n">
-        <v>331.5221604436046</v>
+        <v>247.804443159866</v>
       </c>
       <c r="T26" t="n">
-        <v>331.5221604436046</v>
+        <v>247.804443159866</v>
       </c>
       <c r="U26" t="n">
-        <v>247.8044431598661</v>
+        <v>247.804443159866</v>
       </c>
       <c r="V26" t="n">
-        <v>247.8044431598661</v>
+        <v>247.804443159866</v>
       </c>
       <c r="W26" t="n">
-        <v>164.0867258761276</v>
+        <v>247.804443159866</v>
       </c>
       <c r="X26" t="n">
-        <v>164.0867258761276</v>
+        <v>247.804443159866</v>
       </c>
       <c r="Y26" t="n">
-        <v>164.0867258761276</v>
+        <v>247.804443159866</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6.630443208872093</v>
+        <v>86.10148679037673</v>
       </c>
       <c r="C27" t="n">
-        <v>6.630443208872093</v>
+        <v>86.10148679037673</v>
       </c>
       <c r="D27" t="n">
-        <v>6.630443208872093</v>
+        <v>86.10148679037673</v>
       </c>
       <c r="E27" t="n">
-        <v>6.630443208872093</v>
+        <v>86.10148679037673</v>
       </c>
       <c r="F27" t="n">
-        <v>6.630443208872093</v>
+        <v>86.10148679037673</v>
       </c>
       <c r="G27" t="n">
-        <v>6.630443208872093</v>
+        <v>86.10148679037673</v>
       </c>
       <c r="H27" t="n">
-        <v>6.630443208872093</v>
+        <v>86.10148679037673</v>
       </c>
       <c r="I27" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J27" t="n">
         <v>35.01446635656757</v>
       </c>
       <c r="K27" t="n">
-        <v>85.3669563142282</v>
+        <v>117.0662010663597</v>
       </c>
       <c r="L27" t="n">
-        <v>167.4186910240203</v>
+        <v>199.1179357761518</v>
       </c>
       <c r="M27" t="n">
-        <v>249.4704257338125</v>
+        <v>281.1696704859439</v>
       </c>
       <c r="N27" t="n">
-        <v>249.4704257338125</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="O27" t="n">
-        <v>249.4704257338125</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="P27" t="n">
-        <v>249.4704257338125</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="Q27" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="R27" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="S27" t="n">
-        <v>331.5221604436046</v>
+        <v>247.804443159866</v>
       </c>
       <c r="T27" t="n">
-        <v>247.8044431598661</v>
+        <v>247.804443159866</v>
       </c>
       <c r="U27" t="n">
-        <v>174.0658777763492</v>
+        <v>247.804443159866</v>
       </c>
       <c r="V27" t="n">
-        <v>90.34816049261063</v>
+        <v>169.8192040741152</v>
       </c>
       <c r="W27" t="n">
-        <v>6.630443208872093</v>
+        <v>86.10148679037673</v>
       </c>
       <c r="X27" t="n">
-        <v>6.630443208872093</v>
+        <v>86.10148679037673</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.630443208872093</v>
+        <v>86.10148679037673</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6.630443208872093</v>
+        <v>82.29074401975313</v>
       </c>
       <c r="C28" t="n">
-        <v>6.630443208872093</v>
+        <v>82.29074401975313</v>
       </c>
       <c r="D28" t="n">
-        <v>6.630443208872093</v>
+        <v>82.29074401975313</v>
       </c>
       <c r="E28" t="n">
-        <v>6.630443208872093</v>
+        <v>82.29074401975313</v>
       </c>
       <c r="F28" t="n">
-        <v>6.630443208872093</v>
+        <v>82.29074401975313</v>
       </c>
       <c r="G28" t="n">
-        <v>6.630443208872093</v>
+        <v>82.29074401975313</v>
       </c>
       <c r="H28" t="n">
-        <v>6.630443208872093</v>
+        <v>82.29074401975313</v>
       </c>
       <c r="I28" t="n">
-        <v>6.630443208872093</v>
+        <v>82.29074401975313</v>
       </c>
       <c r="J28" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="K28" t="n">
-        <v>14.60839277571539</v>
+        <v>14.60839277571542</v>
       </c>
       <c r="L28" t="n">
-        <v>80.34385611233594</v>
+        <v>80.34385611233596</v>
       </c>
       <c r="M28" t="n">
-        <v>160.0418085032468</v>
+        <v>160.0418085032467</v>
       </c>
       <c r="N28" t="n">
         <v>242.0935432130389</v>
       </c>
       <c r="O28" t="n">
-        <v>302.9605787043559</v>
+        <v>302.9605787043558</v>
       </c>
       <c r="P28" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="Q28" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="R28" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="S28" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="T28" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="U28" t="n">
-        <v>247.8044431598661</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="V28" t="n">
-        <v>247.8044431598661</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="W28" t="n">
-        <v>174.0658777763492</v>
+        <v>247.804443159866</v>
       </c>
       <c r="X28" t="n">
-        <v>174.0658777763492</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="Y28" t="n">
-        <v>90.34816049261063</v>
+        <v>82.29074401975313</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>247.8044431598661</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="C29" t="n">
-        <v>247.8044431598661</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="D29" t="n">
-        <v>247.8044431598661</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="E29" t="n">
-        <v>174.0658777763492</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="F29" t="n">
-        <v>174.0658777763492</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="G29" t="n">
-        <v>90.34816049261063</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="H29" t="n">
-        <v>6.630443208872093</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="I29" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J29" t="n">
-        <v>6.630443208872093</v>
+        <v>43.69836928579349</v>
       </c>
       <c r="K29" t="n">
-        <v>6.630443208872093</v>
+        <v>125.7501039955856</v>
       </c>
       <c r="L29" t="n">
-        <v>85.3669563142282</v>
+        <v>197.1464114380112</v>
       </c>
       <c r="M29" t="n">
-        <v>167.4186910240203</v>
+        <v>197.1464114380112</v>
       </c>
       <c r="N29" t="n">
-        <v>249.4704257338125</v>
+        <v>197.1464114380112</v>
       </c>
       <c r="O29" t="n">
-        <v>331.5221604436046</v>
+        <v>279.1981461478033</v>
       </c>
       <c r="P29" t="n">
-        <v>331.5221604436046</v>
+        <v>279.1981461478033</v>
       </c>
       <c r="Q29" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="R29" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="S29" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="T29" t="n">
-        <v>247.8044431598661</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="U29" t="n">
-        <v>247.8044431598661</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="V29" t="n">
-        <v>247.8044431598661</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="W29" t="n">
-        <v>247.8044431598661</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="X29" t="n">
-        <v>247.8044431598661</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="Y29" t="n">
-        <v>247.8044431598661</v>
+        <v>331.5221604436045</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>90.34816049261063</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="C30" t="n">
-        <v>90.34816049261063</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="D30" t="n">
-        <v>90.34816049261063</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="E30" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="F30" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="G30" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="H30" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I30" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J30" t="n">
-        <v>35.01446635656757</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="K30" t="n">
-        <v>35.01446635656757</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="L30" t="n">
-        <v>117.0662010663597</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="M30" t="n">
-        <v>167.4186910240203</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="N30" t="n">
-        <v>167.4186910240203</v>
+        <v>88.68217791866422</v>
       </c>
       <c r="O30" t="n">
-        <v>249.4704257338125</v>
+        <v>170.7339126284564</v>
       </c>
       <c r="P30" t="n">
-        <v>331.5221604436046</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="Q30" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="R30" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="S30" t="n">
-        <v>331.5221604436046</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="T30" t="n">
-        <v>331.5221604436046</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="U30" t="n">
-        <v>247.8044431598661</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="V30" t="n">
-        <v>247.8044431598661</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="W30" t="n">
-        <v>164.0867258761276</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="X30" t="n">
-        <v>164.0867258761276</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="Y30" t="n">
-        <v>90.34816049261063</v>
+        <v>6.630443208872091</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>164.0867258761276</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="C31" t="n">
-        <v>90.34816049261063</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="D31" t="n">
-        <v>90.34816049261063</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="E31" t="n">
-        <v>90.34816049261063</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="F31" t="n">
-        <v>90.34816049261063</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="G31" t="n">
-        <v>90.34816049261063</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="H31" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I31" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J31" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="K31" t="n">
         <v>14.60839277571539</v>
       </c>
       <c r="L31" t="n">
-        <v>80.34385611233594</v>
+        <v>80.34385611233593</v>
       </c>
       <c r="M31" t="n">
         <v>160.0418085032467</v>
       </c>
       <c r="N31" t="n">
-        <v>242.0935432130389</v>
+        <v>242.0935432130388</v>
       </c>
       <c r="O31" t="n">
-        <v>302.9605787043559</v>
+        <v>302.9605787043558</v>
       </c>
       <c r="P31" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="Q31" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="R31" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="S31" t="n">
-        <v>331.5221604436046</v>
+        <v>247.804443159866</v>
       </c>
       <c r="T31" t="n">
-        <v>331.5221604436046</v>
+        <v>247.804443159866</v>
       </c>
       <c r="U31" t="n">
-        <v>331.5221604436046</v>
+        <v>247.804443159866</v>
       </c>
       <c r="V31" t="n">
-        <v>331.5221604436046</v>
+        <v>247.804443159866</v>
       </c>
       <c r="W31" t="n">
-        <v>331.5221604436046</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="X31" t="n">
-        <v>247.8044431598661</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="Y31" t="n">
-        <v>164.0867258761276</v>
+        <v>90.34816049261062</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.630443208872093</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="C32" t="n">
-        <v>6.630443208872093</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="D32" t="n">
-        <v>6.630443208872093</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="E32" t="n">
-        <v>6.630443208872093</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="F32" t="n">
-        <v>6.630443208872093</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="G32" t="n">
-        <v>6.630443208872093</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="H32" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I32" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J32" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="K32" t="n">
-        <v>6.630443208872093</v>
+        <v>88.68217791866422</v>
       </c>
       <c r="L32" t="n">
-        <v>6.630443208872093</v>
+        <v>170.7339126284564</v>
       </c>
       <c r="M32" t="n">
-        <v>85.3669563142282</v>
+        <v>197.1464114380112</v>
       </c>
       <c r="N32" t="n">
-        <v>167.4186910240203</v>
+        <v>279.1981461478033</v>
       </c>
       <c r="O32" t="n">
-        <v>249.4704257338125</v>
+        <v>279.1981461478033</v>
       </c>
       <c r="P32" t="n">
-        <v>331.5221604436046</v>
+        <v>279.1981461478033</v>
       </c>
       <c r="Q32" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="R32" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="S32" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="T32" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="U32" t="n">
-        <v>331.5221604436046</v>
+        <v>247.804443159866</v>
       </c>
       <c r="V32" t="n">
-        <v>331.5221604436046</v>
+        <v>247.804443159866</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7835950600877</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="X32" t="n">
-        <v>174.0658777763492</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="Y32" t="n">
-        <v>90.34816049261063</v>
+        <v>90.34816049261062</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>80.36900859238902</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="C33" t="n">
-        <v>80.36900859238902</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="D33" t="n">
-        <v>80.36900859238902</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="E33" t="n">
-        <v>6.630443208872093</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="F33" t="n">
-        <v>6.630443208872093</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="G33" t="n">
-        <v>6.630443208872093</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="H33" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I33" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J33" t="n">
-        <v>6.630443208872093</v>
+        <v>35.01446635656757</v>
       </c>
       <c r="K33" t="n">
-        <v>88.68217791866424</v>
+        <v>35.01446635656757</v>
       </c>
       <c r="L33" t="n">
-        <v>170.7339126284564</v>
+        <v>35.01446635656757</v>
       </c>
       <c r="M33" t="n">
-        <v>252.7856473382485</v>
+        <v>35.01446635656757</v>
       </c>
       <c r="N33" t="n">
-        <v>331.5221604436046</v>
+        <v>85.36695631422816</v>
       </c>
       <c r="O33" t="n">
-        <v>331.5221604436046</v>
+        <v>167.4186910240203</v>
       </c>
       <c r="P33" t="n">
-        <v>331.5221604436046</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="Q33" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="R33" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="S33" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="T33" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="U33" t="n">
-        <v>247.8044431598661</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="V33" t="n">
-        <v>164.0867258761276</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="W33" t="n">
-        <v>80.36900859238902</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="X33" t="n">
-        <v>80.36900859238902</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="Y33" t="n">
-        <v>80.36900859238902</v>
+        <v>331.5221604436045</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15.41592071540791</v>
+        <v>15.41592071540788</v>
       </c>
       <c r="C34" t="n">
-        <v>15.41592071540791</v>
+        <v>15.41592071540788</v>
       </c>
       <c r="D34" t="n">
-        <v>15.41592071540791</v>
+        <v>15.41592071540788</v>
       </c>
       <c r="E34" t="n">
-        <v>15.41592071540791</v>
+        <v>15.41592071540788</v>
       </c>
       <c r="F34" t="n">
-        <v>15.41592071540791</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="G34" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="H34" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I34" t="n">
-        <v>6.630443208872157</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J34" t="n">
-        <v>6.630443208872157</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="K34" t="n">
-        <v>14.60839277571546</v>
+        <v>14.60839277571539</v>
       </c>
       <c r="L34" t="n">
-        <v>80.34385611233601</v>
+        <v>80.34385611233593</v>
       </c>
       <c r="M34" t="n">
-        <v>160.0418085032468</v>
+        <v>160.0418085032467</v>
       </c>
       <c r="N34" t="n">
-        <v>242.0935432130389</v>
+        <v>242.0935432130388</v>
       </c>
       <c r="O34" t="n">
-        <v>302.9605787043559</v>
+        <v>302.9605787043558</v>
       </c>
       <c r="P34" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="Q34" t="n">
-        <v>266.5690725666235</v>
+        <v>266.5690725666234</v>
       </c>
       <c r="R34" t="n">
-        <v>266.5690725666235</v>
+        <v>266.5690725666234</v>
       </c>
       <c r="S34" t="n">
-        <v>182.851355282885</v>
+        <v>266.5690725666234</v>
       </c>
       <c r="T34" t="n">
-        <v>99.13363799914644</v>
+        <v>266.5690725666234</v>
       </c>
       <c r="U34" t="n">
-        <v>15.41592071540791</v>
+        <v>266.5690725666234</v>
       </c>
       <c r="V34" t="n">
-        <v>15.41592071540791</v>
+        <v>182.8513552828849</v>
       </c>
       <c r="W34" t="n">
-        <v>15.41592071540791</v>
+        <v>99.1336379991464</v>
       </c>
       <c r="X34" t="n">
-        <v>15.41592071540791</v>
+        <v>99.1336379991464</v>
       </c>
       <c r="Y34" t="n">
-        <v>15.41592071540791</v>
+        <v>99.1336379991464</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>90.34816049261063</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="C35" t="n">
-        <v>6.630443208872093</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="D35" t="n">
-        <v>6.630443208872093</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="E35" t="n">
-        <v>6.630443208872093</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="F35" t="n">
-        <v>6.630443208872093</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="G35" t="n">
-        <v>6.630443208872093</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="H35" t="n">
-        <v>6.630443208872093</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="I35" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J35" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="K35" t="n">
-        <v>88.68217791866424</v>
+        <v>88.68217791866422</v>
       </c>
       <c r="L35" t="n">
-        <v>170.7339126284564</v>
+        <v>167.4186910240203</v>
       </c>
       <c r="M35" t="n">
-        <v>252.7856473382485</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="N35" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="O35" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="P35" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="Q35" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="R35" t="n">
-        <v>331.5221604436046</v>
+        <v>247.804443159866</v>
       </c>
       <c r="S35" t="n">
-        <v>247.8044431598661</v>
+        <v>247.804443159866</v>
       </c>
       <c r="T35" t="n">
-        <v>247.8044431598661</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="U35" t="n">
-        <v>247.8044431598661</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="V35" t="n">
-        <v>247.8044431598661</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="W35" t="n">
-        <v>247.8044431598661</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="X35" t="n">
-        <v>247.8044431598661</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="Y35" t="n">
-        <v>164.0867258761276</v>
+        <v>90.34816049261062</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>164.0867258761276</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="C36" t="n">
-        <v>80.36900859238902</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="D36" t="n">
-        <v>80.36900859238902</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="E36" t="n">
-        <v>80.36900859238902</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="F36" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="G36" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="H36" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I36" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J36" t="n">
-        <v>35.01446635656757</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="K36" t="n">
-        <v>117.0662010663597</v>
+        <v>88.68217791866422</v>
       </c>
       <c r="L36" t="n">
-        <v>199.1179357761519</v>
+        <v>167.4186910240203</v>
       </c>
       <c r="M36" t="n">
-        <v>249.4704257338125</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="N36" t="n">
-        <v>249.4704257338125</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="O36" t="n">
-        <v>249.4704257338125</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="P36" t="n">
-        <v>249.4704257338125</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="Q36" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="R36" t="n">
-        <v>331.5221604436046</v>
+        <v>249.8799503858295</v>
       </c>
       <c r="S36" t="n">
-        <v>331.5221604436046</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="T36" t="n">
-        <v>331.5221604436046</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="U36" t="n">
-        <v>247.8044431598661</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="V36" t="n">
-        <v>247.8044431598661</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="W36" t="n">
-        <v>164.0867258761276</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="X36" t="n">
-        <v>164.0867258761276</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="Y36" t="n">
-        <v>164.0867258761276</v>
+        <v>6.630443208872091</v>
       </c>
     </row>
     <row r="37">
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>164.0867258761276</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="C37" t="n">
-        <v>164.0867258761276</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="D37" t="n">
-        <v>164.0867258761276</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="E37" t="n">
-        <v>164.0867258761276</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="F37" t="n">
-        <v>164.0867258761276</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="G37" t="n">
-        <v>164.0867258761276</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="H37" t="n">
-        <v>80.36900859238902</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="I37" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J37" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872117</v>
       </c>
       <c r="K37" t="n">
-        <v>14.60839277571539</v>
+        <v>14.60839277571542</v>
       </c>
       <c r="L37" t="n">
-        <v>80.34385611233594</v>
+        <v>80.34385611233596</v>
       </c>
       <c r="M37" t="n">
         <v>160.0418085032467</v>
@@ -7117,28 +7117,28 @@
         <v>331.5221604436045</v>
       </c>
       <c r="R37" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="S37" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="T37" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="U37" t="n">
-        <v>247.8044431598661</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="V37" t="n">
-        <v>247.8044431598661</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="W37" t="n">
-        <v>164.0867258761276</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="X37" t="n">
-        <v>164.0867258761276</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="Y37" t="n">
-        <v>164.0867258761276</v>
+        <v>247.804443159866</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="C38" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="D38" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="E38" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="F38" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="G38" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="H38" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I38" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J38" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="K38" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="L38" t="n">
-        <v>6.630443208872093</v>
+        <v>88.68217791866422</v>
       </c>
       <c r="M38" t="n">
-        <v>33.04294201842694</v>
+        <v>170.7339126284564</v>
       </c>
       <c r="N38" t="n">
-        <v>115.0946767282191</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="O38" t="n">
-        <v>197.1464114380112</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="P38" t="n">
-        <v>279.1981461478034</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="R38" t="n">
-        <v>257.7835950600877</v>
+        <v>247.804443159866</v>
       </c>
       <c r="S38" t="n">
-        <v>257.7835950600877</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="T38" t="n">
-        <v>257.7835950600877</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="U38" t="n">
-        <v>174.0658777763492</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="V38" t="n">
-        <v>174.0658777763492</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="W38" t="n">
-        <v>174.0658777763492</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="X38" t="n">
-        <v>90.34816049261063</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="Y38" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="C39" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="D39" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="E39" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="F39" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="G39" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="H39" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I39" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J39" t="n">
-        <v>35.01446635656757</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="K39" t="n">
-        <v>35.01446635656757</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="L39" t="n">
-        <v>117.0662010663597</v>
+        <v>85.36695631422816</v>
       </c>
       <c r="M39" t="n">
-        <v>199.1179357761519</v>
+        <v>85.36695631422816</v>
       </c>
       <c r="N39" t="n">
-        <v>249.4704257338125</v>
+        <v>85.36695631422816</v>
       </c>
       <c r="O39" t="n">
-        <v>249.4704257338125</v>
+        <v>167.4186910240203</v>
       </c>
       <c r="P39" t="n">
-        <v>249.4704257338125</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="Q39" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="R39" t="n">
-        <v>331.5221604436046</v>
+        <v>249.8799503858295</v>
       </c>
       <c r="S39" t="n">
-        <v>331.5221604436046</v>
+        <v>166.162233102091</v>
       </c>
       <c r="T39" t="n">
-        <v>247.8044431598661</v>
+        <v>166.162233102091</v>
       </c>
       <c r="U39" t="n">
-        <v>164.0867258761276</v>
+        <v>82.4445158183525</v>
       </c>
       <c r="V39" t="n">
-        <v>164.0867258761276</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="W39" t="n">
-        <v>80.36900859238902</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="X39" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="Y39" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
     </row>
     <row r="40">
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6.630443208872093</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="C40" t="n">
-        <v>6.630443208872093</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="D40" t="n">
-        <v>6.630443208872093</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="E40" t="n">
-        <v>6.630443208872093</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="F40" t="n">
-        <v>6.630443208872093</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="G40" t="n">
-        <v>6.630443208872093</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="H40" t="n">
-        <v>6.630443208872093</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="I40" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J40" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="K40" t="n">
         <v>14.60839277571539</v>
@@ -7345,37 +7345,37 @@
         <v>242.0935432130389</v>
       </c>
       <c r="O40" t="n">
-        <v>302.9605787043559</v>
+        <v>302.9605787043558</v>
       </c>
       <c r="P40" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="Q40" t="n">
-        <v>266.5690725666235</v>
+        <v>266.5690725666234</v>
       </c>
       <c r="R40" t="n">
-        <v>182.851355282885</v>
+        <v>266.5690725666234</v>
       </c>
       <c r="S40" t="n">
-        <v>182.851355282885</v>
+        <v>266.5690725666234</v>
       </c>
       <c r="T40" t="n">
-        <v>182.851355282885</v>
+        <v>266.5690725666234</v>
       </c>
       <c r="U40" t="n">
-        <v>182.851355282885</v>
+        <v>266.5690725666234</v>
       </c>
       <c r="V40" t="n">
-        <v>182.851355282885</v>
+        <v>266.5690725666234</v>
       </c>
       <c r="W40" t="n">
-        <v>99.13363799914644</v>
+        <v>266.5690725666234</v>
       </c>
       <c r="X40" t="n">
-        <v>15.41592071540791</v>
+        <v>266.5690725666234</v>
       </c>
       <c r="Y40" t="n">
-        <v>15.41592071540791</v>
+        <v>266.5690725666234</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>247.8044431598661</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="C41" t="n">
-        <v>174.0658777763492</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="D41" t="n">
-        <v>90.34816049261063</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="E41" t="n">
-        <v>90.34816049261063</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="F41" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="G41" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="H41" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I41" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J41" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="K41" t="n">
-        <v>6.630443208872093</v>
+        <v>88.68217791866422</v>
       </c>
       <c r="L41" t="n">
-        <v>88.68217791866424</v>
+        <v>170.7339126284564</v>
       </c>
       <c r="M41" t="n">
         <v>170.7339126284564</v>
@@ -7424,37 +7424,37 @@
         <v>252.7856473382485</v>
       </c>
       <c r="O41" t="n">
-        <v>252.7856473382485</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="P41" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="R41" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="S41" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="T41" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="U41" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="V41" t="n">
-        <v>331.5221604436046</v>
+        <v>247.804443159866</v>
       </c>
       <c r="W41" t="n">
-        <v>331.5221604436046</v>
+        <v>247.804443159866</v>
       </c>
       <c r="X41" t="n">
-        <v>331.5221604436046</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="Y41" t="n">
-        <v>247.8044431598661</v>
+        <v>164.0867258761275</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>6.630443208872093</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="C42" t="n">
-        <v>6.630443208872093</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="D42" t="n">
-        <v>6.630443208872093</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="E42" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="F42" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="G42" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="H42" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I42" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J42" t="n">
         <v>35.01446635656757</v>
@@ -7494,46 +7494,46 @@
         <v>35.01446635656757</v>
       </c>
       <c r="L42" t="n">
-        <v>85.3669563142282</v>
+        <v>85.36695631422816</v>
       </c>
       <c r="M42" t="n">
         <v>167.4186910240203</v>
       </c>
       <c r="N42" t="n">
-        <v>249.4704257338125</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="O42" t="n">
-        <v>249.4704257338125</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="P42" t="n">
-        <v>249.4704257338125</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="Q42" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="R42" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="S42" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="T42" t="n">
-        <v>247.8044431598661</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="U42" t="n">
-        <v>164.0867258761276</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="V42" t="n">
-        <v>90.34816049261063</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="W42" t="n">
-        <v>90.34816049261063</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="X42" t="n">
-        <v>90.34816049261063</v>
+        <v>247.804443159866</v>
       </c>
       <c r="Y42" t="n">
-        <v>90.34816049261063</v>
+        <v>164.0867258761275</v>
       </c>
     </row>
     <row r="43">
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>6.630443208872093</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="C43" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="D43" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="E43" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="F43" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="G43" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="H43" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I43" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J43" t="n">
-        <v>6.630443208872093</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="K43" t="n">
-        <v>14.60839277571539</v>
+        <v>14.60839277571537</v>
       </c>
       <c r="L43" t="n">
-        <v>80.34385611233594</v>
+        <v>80.34385611233593</v>
       </c>
       <c r="M43" t="n">
         <v>160.0418085032467</v>
@@ -7582,37 +7582,37 @@
         <v>242.0935432130389</v>
       </c>
       <c r="O43" t="n">
-        <v>302.9605787043559</v>
+        <v>302.9605787043558</v>
       </c>
       <c r="P43" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="Q43" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="R43" t="n">
-        <v>331.5221604436046</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="S43" t="n">
-        <v>247.8044431598661</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="T43" t="n">
-        <v>164.0867258761276</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="U43" t="n">
-        <v>164.0867258761276</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="V43" t="n">
-        <v>164.0867258761276</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="W43" t="n">
-        <v>164.0867258761276</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="X43" t="n">
-        <v>164.0867258761276</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="Y43" t="n">
-        <v>80.36900859238902</v>
+        <v>90.34816049261062</v>
       </c>
     </row>
     <row r="44">
@@ -8702,7 +8702,7 @@
         <v>125.5756154705403</v>
       </c>
       <c r="O11" t="n">
-        <v>132.0474536396228</v>
+        <v>132.0474536396229</v>
       </c>
       <c r="P11" t="n">
         <v>147.5489424727328</v>
@@ -8766,25 +8766,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>97.42030488819117</v>
+        <v>97.42030488819118</v>
       </c>
       <c r="K12" t="n">
-        <v>87.56255053286914</v>
+        <v>87.56255053286915</v>
       </c>
       <c r="L12" t="n">
-        <v>70.94820947007285</v>
+        <v>70.94820947007287</v>
       </c>
       <c r="M12" t="n">
-        <v>63.24082194752641</v>
+        <v>63.24082194752643</v>
       </c>
       <c r="N12" t="n">
-        <v>50.36043154195549</v>
+        <v>50.36043154195551</v>
       </c>
       <c r="O12" t="n">
-        <v>68.51419372642015</v>
+        <v>68.51419372642016</v>
       </c>
       <c r="P12" t="n">
-        <v>74.5170305241549</v>
+        <v>74.51703052415492</v>
       </c>
       <c r="Q12" t="n">
         <v>100.2360922216349</v>
@@ -8851,16 +8851,16 @@
         <v>98.68523142864919</v>
       </c>
       <c r="L13" t="n">
-        <v>96.07524362577608</v>
+        <v>96.0752436257761</v>
       </c>
       <c r="M13" t="n">
         <v>98.00667869640446</v>
       </c>
       <c r="N13" t="n">
-        <v>87.73940407820888</v>
+        <v>87.73940407820889</v>
       </c>
       <c r="O13" t="n">
-        <v>101.5598123342491</v>
+        <v>101.5598123342492</v>
       </c>
       <c r="P13" t="n">
         <v>106.1564807491434</v>
@@ -8939,7 +8939,7 @@
         <v>125.5756154705403</v>
       </c>
       <c r="O14" t="n">
-        <v>132.0474536396228</v>
+        <v>132.0474536396229</v>
       </c>
       <c r="P14" t="n">
         <v>147.5489424727328</v>
@@ -9003,25 +9003,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>97.42030488819117</v>
+        <v>97.42030488819118</v>
       </c>
       <c r="K15" t="n">
-        <v>87.56255053286914</v>
+        <v>87.56255053286915</v>
       </c>
       <c r="L15" t="n">
-        <v>70.94820947007285</v>
+        <v>70.94820947007287</v>
       </c>
       <c r="M15" t="n">
-        <v>63.24082194752641</v>
+        <v>63.24082194752643</v>
       </c>
       <c r="N15" t="n">
-        <v>50.36043154195549</v>
+        <v>50.36043154195551</v>
       </c>
       <c r="O15" t="n">
-        <v>68.51419372642015</v>
+        <v>68.51419372642016</v>
       </c>
       <c r="P15" t="n">
-        <v>74.5170305241549</v>
+        <v>74.51703052415492</v>
       </c>
       <c r="Q15" t="n">
         <v>100.2360922216349</v>
@@ -9088,16 +9088,16 @@
         <v>98.68523142864919</v>
       </c>
       <c r="L16" t="n">
-        <v>96.07524362577608</v>
+        <v>96.0752436257761</v>
       </c>
       <c r="M16" t="n">
         <v>98.00667869640446</v>
       </c>
       <c r="N16" t="n">
-        <v>87.73940407820888</v>
+        <v>87.73940407820889</v>
       </c>
       <c r="O16" t="n">
-        <v>101.5598123342491</v>
+        <v>101.5598123342492</v>
       </c>
       <c r="P16" t="n">
         <v>106.1564807491434</v>
@@ -9176,7 +9176,7 @@
         <v>125.5756154705403</v>
       </c>
       <c r="O17" t="n">
-        <v>132.0474536396228</v>
+        <v>132.0474536396229</v>
       </c>
       <c r="P17" t="n">
         <v>147.5489424727328</v>
@@ -9240,25 +9240,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>97.42030488819117</v>
+        <v>97.42030488819118</v>
       </c>
       <c r="K18" t="n">
-        <v>87.56255053286914</v>
+        <v>87.56255053286915</v>
       </c>
       <c r="L18" t="n">
-        <v>70.94820947007285</v>
+        <v>70.94820947007287</v>
       </c>
       <c r="M18" t="n">
-        <v>63.24082194752641</v>
+        <v>63.24082194752643</v>
       </c>
       <c r="N18" t="n">
-        <v>50.36043154195549</v>
+        <v>50.36043154195551</v>
       </c>
       <c r="O18" t="n">
-        <v>68.51419372642015</v>
+        <v>68.51419372642016</v>
       </c>
       <c r="P18" t="n">
-        <v>74.5170305241549</v>
+        <v>74.51703052415492</v>
       </c>
       <c r="Q18" t="n">
         <v>100.2360922216349</v>
@@ -9325,16 +9325,16 @@
         <v>98.68523142864919</v>
       </c>
       <c r="L19" t="n">
-        <v>96.07524362577608</v>
+        <v>96.0752436257761</v>
       </c>
       <c r="M19" t="n">
         <v>98.00667869640446</v>
       </c>
       <c r="N19" t="n">
-        <v>87.73940407820888</v>
+        <v>87.73940407820889</v>
       </c>
       <c r="O19" t="n">
-        <v>101.5598123342491</v>
+        <v>101.5598123342492</v>
       </c>
       <c r="P19" t="n">
         <v>106.1564807491434</v>
@@ -9401,25 +9401,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>146.0645877545816</v>
+        <v>188.1540696014853</v>
       </c>
       <c r="L20" t="n">
         <v>226.8120702076072</v>
       </c>
       <c r="M20" t="n">
-        <v>200.2797113828769</v>
+        <v>211.0427692287017</v>
       </c>
       <c r="N20" t="n">
         <v>208.4561555814414</v>
       </c>
       <c r="O20" t="n">
-        <v>132.0474536396228</v>
+        <v>132.0474536396229</v>
       </c>
       <c r="P20" t="n">
         <v>147.5489424727328</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>159.4624509671762</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>97.42030488819117</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>87.56255053286914</v>
+        <v>87.56255053286915</v>
       </c>
       <c r="L21" t="n">
         <v>153.828749580974</v>
@@ -9489,16 +9489,16 @@
         <v>146.1213620584276</v>
       </c>
       <c r="N21" t="n">
-        <v>129.8922629615071</v>
+        <v>101.2215325092894</v>
       </c>
       <c r="O21" t="n">
-        <v>68.51419372642015</v>
+        <v>68.51419372642016</v>
       </c>
       <c r="P21" t="n">
-        <v>74.5170305241549</v>
+        <v>157.3975706350561</v>
       </c>
       <c r="Q21" t="n">
-        <v>183.1166323325361</v>
+        <v>100.2360922216349</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9574,7 +9574,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P22" t="n">
-        <v>135.0065633140411</v>
+        <v>135.0065633140412</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9638,25 +9638,25 @@
         <v>131.6542655994259</v>
       </c>
       <c r="K23" t="n">
-        <v>146.0645877545816</v>
+        <v>228.9451278654827</v>
       </c>
       <c r="L23" t="n">
-        <v>143.9315300967061</v>
+        <v>223.4633615162577</v>
       </c>
       <c r="M23" t="n">
-        <v>154.8415208446236</v>
+        <v>211.0427692287017</v>
       </c>
       <c r="N23" t="n">
-        <v>208.4561555814414</v>
+        <v>125.5756154705403</v>
       </c>
       <c r="O23" t="n">
         <v>214.927993750524</v>
       </c>
       <c r="P23" t="n">
-        <v>230.429482583634</v>
+        <v>147.5489424727328</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>159.4624509671762</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,25 +9714,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>97.42030488819117</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>87.56255053286914</v>
+        <v>138.4236515002031</v>
       </c>
       <c r="L24" t="n">
-        <v>70.94820947007285</v>
+        <v>153.828749580974</v>
       </c>
       <c r="M24" t="n">
-        <v>63.24082194752641</v>
+        <v>146.1213620584276</v>
       </c>
       <c r="N24" t="n">
-        <v>129.8922629615071</v>
+        <v>50.36043154195551</v>
       </c>
       <c r="O24" t="n">
-        <v>151.3947338373213</v>
+        <v>68.51419372642016</v>
       </c>
       <c r="P24" t="n">
-        <v>157.3975706350561</v>
+        <v>74.51703052415492</v>
       </c>
       <c r="Q24" t="n">
         <v>183.1166323325361</v>
@@ -9802,7 +9802,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M25" t="n">
-        <v>178.5096609094457</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N25" t="n">
         <v>170.61994418911</v>
@@ -9811,7 +9811,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P25" t="n">
-        <v>135.0065633140411</v>
+        <v>135.0065633140412</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9872,22 +9872,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>131.6542655994259</v>
       </c>
       <c r="K26" t="n">
         <v>228.9451278654827</v>
       </c>
       <c r="L26" t="n">
-        <v>226.8120702076072</v>
+        <v>170.6108218235291</v>
       </c>
       <c r="M26" t="n">
-        <v>200.2797113828769</v>
+        <v>211.0427692287017</v>
       </c>
       <c r="N26" t="n">
-        <v>125.5756154705403</v>
+        <v>208.4561555814414</v>
       </c>
       <c r="O26" t="n">
-        <v>132.0474536396228</v>
+        <v>132.0474536396229</v>
       </c>
       <c r="P26" t="n">
         <v>147.5489424727328</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>138.4236515002031</v>
+        <v>170.4430906437703</v>
       </c>
       <c r="L27" t="n">
         <v>153.828749580974</v>
@@ -9963,16 +9963,16 @@
         <v>146.1213620584276</v>
       </c>
       <c r="N27" t="n">
-        <v>50.36043154195549</v>
+        <v>101.2215325092895</v>
       </c>
       <c r="O27" t="n">
-        <v>68.51419372642015</v>
+        <v>68.51419372642016</v>
       </c>
       <c r="P27" t="n">
-        <v>74.5170305241549</v>
+        <v>74.51703052415492</v>
       </c>
       <c r="Q27" t="n">
-        <v>183.1166323325361</v>
+        <v>100.2360922216349</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10109,19 +10109,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>131.6542655994259</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>146.0645877545816</v>
+        <v>228.9451278654827</v>
       </c>
       <c r="L29" t="n">
-        <v>223.4633615162577</v>
+        <v>216.0490123617824</v>
       </c>
       <c r="M29" t="n">
-        <v>211.0427692287017</v>
+        <v>128.1622291178006</v>
       </c>
       <c r="N29" t="n">
-        <v>208.4561555814414</v>
+        <v>125.5756154705403</v>
       </c>
       <c r="O29" t="n">
         <v>214.927993750524</v>
@@ -10130,7 +10130,7 @@
         <v>147.5489424727328</v>
       </c>
       <c r="Q29" t="n">
-        <v>159.4624509671762</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>97.42030488819118</v>
       </c>
       <c r="K30" t="n">
-        <v>87.56255053286914</v>
+        <v>87.56255053286915</v>
       </c>
       <c r="L30" t="n">
-        <v>153.828749580974</v>
+        <v>70.94820947007287</v>
       </c>
       <c r="M30" t="n">
-        <v>114.1019229148604</v>
+        <v>63.24082194752643</v>
       </c>
       <c r="N30" t="n">
-        <v>50.36043154195549</v>
+        <v>133.2409716528566</v>
       </c>
       <c r="O30" t="n">
         <v>151.3947338373213</v>
       </c>
       <c r="P30" t="n">
-        <v>157.3975706350561</v>
+        <v>154.0488619437065</v>
       </c>
       <c r="Q30" t="n">
-        <v>100.2360922216349</v>
+        <v>183.1166323325361</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10285,7 +10285,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>135.0065633140411</v>
+        <v>135.0065633140412</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10349,25 +10349,25 @@
         <v>131.6542655994259</v>
       </c>
       <c r="K32" t="n">
-        <v>146.0645877545816</v>
+        <v>228.9451278654827</v>
       </c>
       <c r="L32" t="n">
-        <v>143.9315300967061</v>
+        <v>226.8120702076072</v>
       </c>
       <c r="M32" t="n">
-        <v>207.6940605373522</v>
+        <v>154.8415208446236</v>
       </c>
       <c r="N32" t="n">
         <v>208.4561555814414</v>
       </c>
       <c r="O32" t="n">
-        <v>214.927993750524</v>
+        <v>132.0474536396229</v>
       </c>
       <c r="P32" t="n">
-        <v>230.429482583634</v>
+        <v>147.5489424727328</v>
       </c>
       <c r="Q32" t="n">
-        <v>159.4624509671762</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>97.42030488819117</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>170.4430906437703</v>
+        <v>87.56255053286915</v>
       </c>
       <c r="L33" t="n">
-        <v>153.828749580974</v>
+        <v>70.94820947007287</v>
       </c>
       <c r="M33" t="n">
-        <v>146.1213620584276</v>
+        <v>63.24082194752643</v>
       </c>
       <c r="N33" t="n">
-        <v>129.8922629615071</v>
+        <v>101.2215325092894</v>
       </c>
       <c r="O33" t="n">
-        <v>68.51419372642015</v>
+        <v>151.3947338373213</v>
       </c>
       <c r="P33" t="n">
-        <v>74.5170305241549</v>
+        <v>157.3975706350561</v>
       </c>
       <c r="Q33" t="n">
-        <v>100.2360922216349</v>
+        <v>183.1166323325361</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10522,7 +10522,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
-        <v>135.0065633140411</v>
+        <v>135.0065633140412</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10589,16 +10589,16 @@
         <v>228.9451278654827</v>
       </c>
       <c r="L35" t="n">
-        <v>226.8120702076072</v>
+        <v>223.4633615162577</v>
       </c>
       <c r="M35" t="n">
         <v>211.0427692287017</v>
       </c>
       <c r="N35" t="n">
-        <v>205.1074468900919</v>
+        <v>208.4561555814414</v>
       </c>
       <c r="O35" t="n">
-        <v>132.0474536396228</v>
+        <v>132.0474536396229</v>
       </c>
       <c r="P35" t="n">
         <v>147.5489424727328</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>97.42030488819118</v>
       </c>
       <c r="K36" t="n">
         <v>170.4430906437703</v>
       </c>
       <c r="L36" t="n">
-        <v>153.828749580974</v>
+        <v>150.4800408896244</v>
       </c>
       <c r="M36" t="n">
-        <v>114.1019229148604</v>
+        <v>146.1213620584276</v>
       </c>
       <c r="N36" t="n">
-        <v>50.36043154195549</v>
+        <v>133.2409716528566</v>
       </c>
       <c r="O36" t="n">
-        <v>68.51419372642015</v>
+        <v>68.51419372642016</v>
       </c>
       <c r="P36" t="n">
-        <v>74.5170305241549</v>
+        <v>74.51703052415492</v>
       </c>
       <c r="Q36" t="n">
-        <v>183.1166323325361</v>
+        <v>100.2360922216349</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10826,22 +10826,22 @@
         <v>146.0645877545816</v>
       </c>
       <c r="L38" t="n">
-        <v>143.9315300967061</v>
+        <v>226.8120702076072</v>
       </c>
       <c r="M38" t="n">
-        <v>154.8415208446236</v>
+        <v>211.0427692287017</v>
       </c>
       <c r="N38" t="n">
-        <v>208.4561555814414</v>
+        <v>205.1074468900919</v>
       </c>
       <c r="O38" t="n">
         <v>214.927993750524</v>
       </c>
       <c r="P38" t="n">
-        <v>230.429482583634</v>
+        <v>147.5489424727328</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>159.4624509671762</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,25 +10899,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>97.42030488819118</v>
       </c>
       <c r="K39" t="n">
-        <v>87.56255053286914</v>
+        <v>87.56255053286915</v>
       </c>
       <c r="L39" t="n">
-        <v>153.828749580974</v>
+        <v>150.4800408896244</v>
       </c>
       <c r="M39" t="n">
-        <v>146.1213620584276</v>
+        <v>63.24082194752643</v>
       </c>
       <c r="N39" t="n">
-        <v>101.2215325092895</v>
+        <v>50.36043154195551</v>
       </c>
       <c r="O39" t="n">
-        <v>68.51419372642015</v>
+        <v>151.3947338373213</v>
       </c>
       <c r="P39" t="n">
-        <v>74.5170305241549</v>
+        <v>157.3975706350561</v>
       </c>
       <c r="Q39" t="n">
         <v>183.1166323325361</v>
@@ -10990,7 +10990,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N40" t="n">
-        <v>170.6199441891101</v>
+        <v>170.61994418911</v>
       </c>
       <c r="O40" t="n">
         <v>163.0416663658825</v>
@@ -11060,22 +11060,22 @@
         <v>131.6542655994259</v>
       </c>
       <c r="K41" t="n">
-        <v>146.0645877545816</v>
+        <v>228.9451278654827</v>
       </c>
       <c r="L41" t="n">
         <v>226.8120702076072</v>
       </c>
       <c r="M41" t="n">
-        <v>211.0427692287017</v>
+        <v>128.1622291178006</v>
       </c>
       <c r="N41" t="n">
         <v>208.4561555814414</v>
       </c>
       <c r="O41" t="n">
-        <v>132.0474536396228</v>
+        <v>211.5792850591744</v>
       </c>
       <c r="P41" t="n">
-        <v>227.0807738922844</v>
+        <v>147.5489424727328</v>
       </c>
       <c r="Q41" t="n">
         <v>159.4624509671762</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>87.56255053286914</v>
+        <v>87.56255053286915</v>
       </c>
       <c r="L42" t="n">
         <v>121.8093104374068</v>
@@ -11151,10 +11151,10 @@
         <v>133.2409716528566</v>
       </c>
       <c r="O42" t="n">
-        <v>68.51419372642015</v>
+        <v>68.51419372642016</v>
       </c>
       <c r="P42" t="n">
-        <v>74.5170305241549</v>
+        <v>74.51703052415492</v>
       </c>
       <c r="Q42" t="n">
         <v>183.1166323325361</v>
@@ -11309,7 +11309,7 @@
         <v>125.5756154705403</v>
       </c>
       <c r="O44" t="n">
-        <v>132.0474536396228</v>
+        <v>132.0474536396229</v>
       </c>
       <c r="P44" t="n">
         <v>147.5489424727328</v>
@@ -11373,25 +11373,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>97.42030488819117</v>
+        <v>97.42030488819118</v>
       </c>
       <c r="K45" t="n">
-        <v>87.56255053286914</v>
+        <v>87.56255053286915</v>
       </c>
       <c r="L45" t="n">
-        <v>70.94820947007285</v>
+        <v>70.94820947007287</v>
       </c>
       <c r="M45" t="n">
-        <v>63.24082194752641</v>
+        <v>63.24082194752643</v>
       </c>
       <c r="N45" t="n">
-        <v>50.36043154195549</v>
+        <v>50.36043154195551</v>
       </c>
       <c r="O45" t="n">
-        <v>68.51419372642015</v>
+        <v>68.51419372642016</v>
       </c>
       <c r="P45" t="n">
-        <v>74.5170305241549</v>
+        <v>74.51703052415492</v>
       </c>
       <c r="Q45" t="n">
         <v>100.2360922216349</v>
@@ -11458,16 +11458,16 @@
         <v>98.68523142864919</v>
       </c>
       <c r="L46" t="n">
-        <v>96.07524362577608</v>
+        <v>96.0752436257761</v>
       </c>
       <c r="M46" t="n">
         <v>98.00667869640446</v>
       </c>
       <c r="N46" t="n">
-        <v>87.73940407820888</v>
+        <v>87.73940407820889</v>
       </c>
       <c r="O46" t="n">
-        <v>101.5598123342491</v>
+        <v>101.5598123342492</v>
       </c>
       <c r="P46" t="n">
         <v>106.1564807491434</v>
@@ -23969,10 +23969,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>282.3923516601064</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>271.8025015097818</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23984,7 +23984,7 @@
         <v>414.7207950543947</v>
       </c>
       <c r="H20" t="n">
-        <v>333.5149838897102</v>
+        <v>250.634443778809</v>
       </c>
       <c r="I20" t="n">
         <v>188.040552852714</v>
@@ -24017,10 +24017,10 @@
         <v>113.3136748416693</v>
       </c>
       <c r="S20" t="n">
-        <v>195.7590557621249</v>
+        <v>112.8785156512237</v>
       </c>
       <c r="T20" t="n">
-        <v>220.5483964422405</v>
+        <v>147.5472167125588</v>
       </c>
       <c r="U20" t="n">
         <v>251.2990975109773</v>
@@ -24029,13 +24029,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>266.3604286065118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>286.8505605675679</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>313.2367589263719</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24060,13 +24060,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0321504965985</v>
+        <v>54.15161038569735</v>
       </c>
       <c r="H21" t="n">
         <v>109.2282977457949</v>
       </c>
       <c r="I21" t="n">
-        <v>5.675153416007831</v>
+        <v>78.67633314568958</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,10 +24093,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.82578795719726</v>
+        <v>7.824608227515583</v>
       </c>
       <c r="S21" t="n">
-        <v>165.8996718358445</v>
+        <v>83.01913172494338</v>
       </c>
       <c r="T21" t="n">
         <v>198.9097025254507</v>
@@ -24108,10 +24108,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>168.8144430500184</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>122.8924450925763</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>122.8021556664032</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>94.72876027497367</v>
+        <v>167.7299400046554</v>
       </c>
       <c r="H22" t="n">
         <v>159.9062953436239</v>
@@ -24178,7 +24178,7 @@
         <v>136.5868539147882</v>
       </c>
       <c r="T22" t="n">
-        <v>226.8302394620306</v>
+        <v>143.9496993511295</v>
       </c>
       <c r="U22" t="n">
         <v>203.4242507353823</v>
@@ -24187,7 +24187,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>203.6424582256898</v>
+        <v>213.5218186069093</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24209,7 +24209,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>271.8025015097818</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24221,10 +24221,10 @@
         <v>414.7207950543947</v>
       </c>
       <c r="H23" t="n">
-        <v>250.634443778809</v>
+        <v>333.5149838897102</v>
       </c>
       <c r="I23" t="n">
-        <v>188.040552852714</v>
+        <v>105.1600127418128</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,25 +24254,25 @@
         <v>113.3136748416693</v>
       </c>
       <c r="S23" t="n">
-        <v>122.7578760324431</v>
+        <v>195.7590557621249</v>
       </c>
       <c r="T23" t="n">
-        <v>137.6678563313394</v>
+        <v>220.5483964422405</v>
       </c>
       <c r="U23" t="n">
-        <v>168.4185574000761</v>
+        <v>251.2990975109773</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>266.3604286065118</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>313.2367589263719</v>
       </c>
     </row>
     <row r="24">
@@ -24285,16 +24285,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>99.70731925863403</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>64.56452545373762</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>62.18867228248273</v>
+        <v>62.18867228248274</v>
       </c>
       <c r="G24" t="n">
         <v>137.0321504965985</v>
@@ -24333,7 +24333,7 @@
         <v>80.82578795719726</v>
       </c>
       <c r="S24" t="n">
-        <v>165.8996718358445</v>
+        <v>83.01913172494338</v>
       </c>
       <c r="T24" t="n">
         <v>198.9097025254507</v>
@@ -24342,13 +24342,13 @@
         <v>225.9208974318556</v>
       </c>
       <c r="V24" t="n">
-        <v>159.7994074197435</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>168.8144430500184</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>122.8924450925763</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>96.95144007103616</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.7299400046554</v>
+        <v>94.72876027497365</v>
       </c>
       <c r="H25" t="n">
         <v>159.9062953436239</v>
@@ -24385,7 +24385,7 @@
         <v>147.6003096328796</v>
       </c>
       <c r="J25" t="n">
-        <v>1.902518073090476</v>
+        <v>74.90369780277223</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>64.30355699821131</v>
       </c>
       <c r="R25" t="n">
-        <v>82.67557268525353</v>
+        <v>82.67557268525354</v>
       </c>
       <c r="S25" t="n">
-        <v>136.5868539147882</v>
+        <v>219.4673940256893</v>
       </c>
       <c r="T25" t="n">
-        <v>143.9496993511294</v>
+        <v>226.8302394620306</v>
       </c>
       <c r="U25" t="n">
         <v>286.3047908462834</v>
@@ -24424,7 +24424,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>203.6424582256899</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24443,7 +24443,7 @@
         <v>299.8533015525794</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>292.2717120413258</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,7 +24452,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>323.9955056308103</v>
       </c>
       <c r="G26" t="n">
         <v>414.7207950543947</v>
@@ -24461,7 +24461,7 @@
         <v>333.5149838897102</v>
       </c>
       <c r="I26" t="n">
-        <v>115.0393731230322</v>
+        <v>188.040552852714</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>113.3136748416693</v>
+        <v>30.43313473076819</v>
       </c>
       <c r="S26" t="n">
         <v>195.7590557621249</v>
@@ -24497,13 +24497,13 @@
         <v>220.5483964422405</v>
       </c>
       <c r="U26" t="n">
-        <v>168.4185574000761</v>
+        <v>251.2990975109773</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>266.3604286065118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24540,7 +24540,7 @@
         <v>109.2282977457949</v>
       </c>
       <c r="I27" t="n">
-        <v>78.67633314568958</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24570,19 +24570,19 @@
         <v>80.82578795719726</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8996718358445</v>
+        <v>83.01913172494338</v>
       </c>
       <c r="T27" t="n">
-        <v>116.0291624145495</v>
+        <v>198.9097025254507</v>
       </c>
       <c r="U27" t="n">
-        <v>152.9197177021738</v>
+        <v>225.9208974318556</v>
       </c>
       <c r="V27" t="n">
-        <v>149.9200470385241</v>
+        <v>155.595200454532</v>
       </c>
       <c r="W27" t="n">
-        <v>168.8144430500184</v>
+        <v>168.8144430500185</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>96.95144007103615</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24622,7 +24622,7 @@
         <v>147.6003096328796</v>
       </c>
       <c r="J28" t="n">
-        <v>74.90369780277223</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24655,19 +24655,19 @@
         <v>226.8302394620306</v>
       </c>
       <c r="U28" t="n">
-        <v>203.4242507353823</v>
+        <v>286.3047908462834</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>213.5218186069093</v>
+        <v>203.6424582256899</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>142.829115278136</v>
       </c>
       <c r="Y28" t="n">
-        <v>135.7041132411936</v>
+        <v>137.6066313142842</v>
       </c>
     </row>
     <row r="29">
@@ -24683,10 +24683,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>281.6818618910013</v>
       </c>
       <c r="E29" t="n">
-        <v>308.9291903425801</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24698,7 +24698,7 @@
         <v>250.634443778809</v>
       </c>
       <c r="I29" t="n">
-        <v>188.040552852714</v>
+        <v>105.1600127418128</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,7 +24731,7 @@
         <v>195.7590557621249</v>
       </c>
       <c r="T29" t="n">
-        <v>137.6678563313394</v>
+        <v>220.5483964422405</v>
       </c>
       <c r="U29" t="n">
         <v>251.2990975109773</v>
@@ -24765,7 +24765,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>74.76454034449979</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24807,7 +24807,7 @@
         <v>80.82578795719726</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8996718358445</v>
+        <v>92.89849210616283</v>
       </c>
       <c r="T30" t="n">
         <v>198.9097025254507</v>
@@ -24816,16 +24816,16 @@
         <v>143.0403573209545</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>149.9200470385241</v>
       </c>
       <c r="W30" t="n">
-        <v>168.8144430500184</v>
+        <v>168.8144430500185</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>132.6815160476226</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24838,7 +24838,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>94.24564136894608</v>
+        <v>84.3662809877267</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24853,7 +24853,7 @@
         <v>167.7299400046554</v>
       </c>
       <c r="H31" t="n">
-        <v>77.02575523272272</v>
+        <v>159.9062953436239</v>
       </c>
       <c r="I31" t="n">
         <v>147.6003096328796</v>
@@ -24886,7 +24886,7 @@
         <v>165.5561127961547</v>
       </c>
       <c r="S31" t="n">
-        <v>219.4673940256893</v>
+        <v>136.5868539147882</v>
       </c>
       <c r="T31" t="n">
         <v>226.8302394620306</v>
@@ -24898,13 +24898,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>203.6424582256899</v>
       </c>
       <c r="X31" t="n">
-        <v>142.829115278136</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>135.7041132411936</v>
+        <v>145.5834736224131</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>299.8533015525794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24932,7 +24932,7 @@
         <v>414.7207950543947</v>
       </c>
       <c r="H32" t="n">
-        <v>333.5149838897102</v>
+        <v>250.634443778809</v>
       </c>
       <c r="I32" t="n">
         <v>188.040552852714</v>
@@ -24971,19 +24971,19 @@
         <v>220.5483964422405</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2990975109773</v>
+        <v>168.4185574000761</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>276.2397889877313</v>
+        <v>266.3604286065118</v>
       </c>
       <c r="X32" t="n">
-        <v>286.8505605675679</v>
+        <v>296.7299209487873</v>
       </c>
       <c r="Y32" t="n">
-        <v>303.3573985451524</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24999,19 +24999,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>74.44388583495707</v>
       </c>
       <c r="E33" t="n">
-        <v>84.64390072571919</v>
+        <v>74.76454034449981</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>62.18867228248274</v>
       </c>
       <c r="G33" t="n">
         <v>137.0321504965985</v>
       </c>
       <c r="H33" t="n">
-        <v>109.2282977457949</v>
+        <v>26.34775763489372</v>
       </c>
       <c r="I33" t="n">
         <v>78.67633314568958</v>
@@ -25050,13 +25050,13 @@
         <v>198.9097025254507</v>
       </c>
       <c r="U33" t="n">
-        <v>143.0403573209545</v>
+        <v>225.9208974318556</v>
       </c>
       <c r="V33" t="n">
-        <v>149.9200470385241</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>168.8144430500184</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>96.95144007103616</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25084,10 +25084,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>136.7234252914608</v>
       </c>
       <c r="G34" t="n">
-        <v>159.0323172731849</v>
+        <v>167.7299400046554</v>
       </c>
       <c r="H34" t="n">
         <v>159.9062953436239</v>
@@ -25123,19 +25123,19 @@
         <v>165.5561127961547</v>
       </c>
       <c r="S34" t="n">
-        <v>136.5868539147882</v>
+        <v>219.4673940256893</v>
       </c>
       <c r="T34" t="n">
-        <v>143.9496993511294</v>
+        <v>226.8302394620306</v>
       </c>
       <c r="U34" t="n">
-        <v>203.4242507353823</v>
+        <v>286.3047908462834</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>169.2571032129269</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>203.6424582256899</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,10 +25151,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>309.7326619337988</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>282.3923516601064</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25172,7 +25172,7 @@
         <v>333.5149838897102</v>
       </c>
       <c r="I35" t="n">
-        <v>188.040552852714</v>
+        <v>105.1600127418128</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,19 +25199,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>113.3136748416693</v>
+        <v>30.43313473076819</v>
       </c>
       <c r="S35" t="n">
-        <v>112.8785156512237</v>
+        <v>195.7590557621249</v>
       </c>
       <c r="T35" t="n">
-        <v>220.5483964422405</v>
+        <v>147.5472167125588</v>
       </c>
       <c r="U35" t="n">
         <v>251.2990975109773</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>244.8717183592338</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25220,7 +25220,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>303.3573985451524</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25233,7 +25233,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>89.82795887741459</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25242,7 +25242,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>72.06803266370213</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.0321504965985</v>
@@ -25278,13 +25278,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>80.82578795719726</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>165.8996718358445</v>
+        <v>90.84373995245892</v>
       </c>
       <c r="T36" t="n">
-        <v>198.9097025254507</v>
+        <v>116.0291624145495</v>
       </c>
       <c r="U36" t="n">
         <v>143.0403573209545</v>
@@ -25293,7 +25293,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>168.8144430500184</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>96.95144007103616</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.7299400046554</v>
+        <v>94.72876027497365</v>
       </c>
       <c r="H37" t="n">
-        <v>77.02575523272272</v>
+        <v>159.9062953436239</v>
       </c>
       <c r="I37" t="n">
-        <v>74.59912990319785</v>
+        <v>64.71976952197846</v>
       </c>
       <c r="J37" t="n">
         <v>74.90369780277223</v>
@@ -25366,19 +25366,19 @@
         <v>226.8302394620306</v>
       </c>
       <c r="U37" t="n">
-        <v>203.4242507353823</v>
+        <v>286.3047908462834</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>203.6424582256898</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>135.7041132411937</v>
       </c>
     </row>
     <row r="38">
@@ -25436,16 +25436,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>40.31249511198759</v>
+        <v>30.43313473076819</v>
       </c>
       <c r="S38" t="n">
-        <v>195.7590557621249</v>
+        <v>112.8785156512237</v>
       </c>
       <c r="T38" t="n">
-        <v>220.5483964422405</v>
+        <v>147.5472167125588</v>
       </c>
       <c r="U38" t="n">
-        <v>168.4185574000761</v>
+        <v>251.2990975109773</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25454,10 +25454,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>286.8505605675679</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>303.3573985451524</v>
+        <v>303.3573985451525</v>
       </c>
     </row>
     <row r="39">
@@ -25515,25 +25515,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.82578795719726</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>165.8996718358445</v>
+        <v>83.01913172494338</v>
       </c>
       <c r="T39" t="n">
-        <v>116.0291624145495</v>
+        <v>198.9097025254507</v>
       </c>
       <c r="U39" t="n">
         <v>143.0403573209545</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>157.7446552660397</v>
       </c>
       <c r="W39" t="n">
-        <v>168.8144430500184</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>132.7718054737957</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25546,16 +25546,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>171.1343574504668</v>
+        <v>171.1343574504669</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>65.73493290731122</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>63.55342253566803</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25567,7 +25567,7 @@
         <v>159.9062953436239</v>
       </c>
       <c r="I40" t="n">
-        <v>147.6003096328796</v>
+        <v>64.71976952197846</v>
       </c>
       <c r="J40" t="n">
         <v>74.90369780277223</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>82.67557268525353</v>
+        <v>165.5561127961547</v>
       </c>
       <c r="S40" t="n">
         <v>219.4673940256893</v>
@@ -25609,10 +25609,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>203.6424582256898</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>142.829115278136</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25625,19 +25625,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>299.8533015525794</v>
       </c>
       <c r="C41" t="n">
-        <v>292.2717120413258</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>271.8025015097818</v>
+        <v>281.6818618910012</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>323.9955056308103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>414.7207950543947</v>
@@ -25685,16 +25685,16 @@
         <v>251.2990975109773</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>244.8717183592338</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>286.8505605675679</v>
       </c>
       <c r="Y41" t="n">
-        <v>303.3573985451524</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,16 +25704,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>83.65264353896619</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>89.8279588774146</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>84.64390072571923</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25758,22 +25758,22 @@
         <v>165.8996718358445</v>
       </c>
       <c r="T42" t="n">
-        <v>116.0291624145495</v>
+        <v>198.9097025254507</v>
       </c>
       <c r="U42" t="n">
-        <v>143.0403573209545</v>
+        <v>225.9208974318556</v>
       </c>
       <c r="V42" t="n">
-        <v>159.7994074197435</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>122.8924450925763</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>122.8021556664032</v>
       </c>
     </row>
     <row r="43">
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>106.8308004522555</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>84.3662809877267</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25834,16 +25834,16 @@
         <v>165.5561127961547</v>
       </c>
       <c r="S43" t="n">
-        <v>136.5868539147882</v>
+        <v>146.4662142960076</v>
       </c>
       <c r="T43" t="n">
-        <v>143.9496993511294</v>
+        <v>143.9496993511295</v>
       </c>
       <c r="U43" t="n">
         <v>286.3047908462834</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>169.2571032129269</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>135.7041132411936</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>351336.7650462184</v>
+        <v>351336.7650462182</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>351336.7650462184</v>
+        <v>351336.7650462182</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>351336.7650462183</v>
+        <v>351336.7650462181</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>351336.7650462182</v>
+        <v>351336.7650462181</v>
       </c>
     </row>
     <row r="16">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>634939.1625057047</v>
+      </c>
+      <c r="C2" t="n">
         <v>634939.1625057049</v>
       </c>
-      <c r="C2" t="n">
-        <v>634939.1625057048</v>
-      </c>
       <c r="D2" t="n">
-        <v>634939.1625057048</v>
+        <v>634939.1625057047</v>
       </c>
       <c r="E2" t="n">
         <v>176096.4605162491</v>
@@ -26332,22 +26332,22 @@
         <v>212490.343343308</v>
       </c>
       <c r="I2" t="n">
-        <v>212490.3433433079</v>
+        <v>212490.343343308</v>
       </c>
       <c r="J2" t="n">
         <v>212490.3433433079</v>
       </c>
       <c r="K2" t="n">
-        <v>212490.343343308</v>
+        <v>212490.3433433079</v>
       </c>
       <c r="L2" t="n">
-        <v>212490.343343308</v>
+        <v>212490.3433433079</v>
       </c>
       <c r="M2" t="n">
-        <v>212490.343343308</v>
+        <v>212490.3433433079</v>
       </c>
       <c r="N2" t="n">
-        <v>212490.343343308</v>
+        <v>212490.3433433079</v>
       </c>
       <c r="O2" t="n">
         <v>212490.343343308</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>116299.1617980601</v>
+        <v>116299.16179806</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>22361.91564678213</v>
+        <v>22361.91564678212</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>439830.3974941829</v>
+        <v>441649.2499958206</v>
       </c>
       <c r="C4" t="n">
-        <v>439830.3974941829</v>
+        <v>441649.2499958206</v>
       </c>
       <c r="D4" t="n">
-        <v>439830.3974941829</v>
+        <v>441649.2499958206</v>
       </c>
       <c r="E4" t="n">
-        <v>61275.27469950925</v>
+        <v>62449.20828580427</v>
       </c>
       <c r="F4" t="n">
-        <v>61275.27469950925</v>
+        <v>62449.20828580427</v>
       </c>
       <c r="G4" t="n">
-        <v>61275.27469950925</v>
+        <v>62449.20828580427</v>
       </c>
       <c r="H4" t="n">
-        <v>82502.83225117833</v>
+        <v>84082.07405186119</v>
       </c>
       <c r="I4" t="n">
-        <v>82502.83225117835</v>
+        <v>84082.07405186116</v>
       </c>
       <c r="J4" t="n">
-        <v>82502.83225117833</v>
+        <v>84082.07405186119</v>
       </c>
       <c r="K4" t="n">
-        <v>82502.83225117836</v>
+        <v>84082.07405186119</v>
       </c>
       <c r="L4" t="n">
-        <v>82502.83225117835</v>
+        <v>84082.07405186117</v>
       </c>
       <c r="M4" t="n">
-        <v>82502.83225117833</v>
+        <v>84082.07405186119</v>
       </c>
       <c r="N4" t="n">
-        <v>82502.83225117835</v>
+        <v>84082.07405186117</v>
       </c>
       <c r="O4" t="n">
-        <v>82502.83225117835</v>
+        <v>84082.07405186119</v>
       </c>
       <c r="P4" t="n">
-        <v>61275.27469950925</v>
+        <v>62449.20828580427</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26476,13 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>3155.728478979677</v>
+        <v>3155.728478979676</v>
       </c>
       <c r="F5" t="n">
-        <v>3155.728478979677</v>
+        <v>3155.728478979676</v>
       </c>
       <c r="G5" t="n">
-        <v>3155.728478979677</v>
+        <v>3155.728478979676</v>
       </c>
       <c r="H5" t="n">
         <v>8194.865317722466</v>
@@ -26509,7 +26509,7 @@
         <v>8194.865317722466</v>
       </c>
       <c r="P5" t="n">
-        <v>3155.728478979677</v>
+        <v>3155.728478979676</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>161481.165011522</v>
+        <v>159662.3125098841</v>
       </c>
       <c r="C6" t="n">
-        <v>161481.1650115219</v>
+        <v>159662.3125098844</v>
       </c>
       <c r="D6" t="n">
-        <v>161481.1650115219</v>
+        <v>159662.3125098841</v>
       </c>
       <c r="E6" t="n">
-        <v>-4633.704460299859</v>
+        <v>-5807.638046594853</v>
       </c>
       <c r="F6" t="n">
-        <v>111665.4573377602</v>
+        <v>110491.5237514652</v>
       </c>
       <c r="G6" t="n">
-        <v>111665.4573377602</v>
+        <v>110491.5237514652</v>
       </c>
       <c r="H6" t="n">
-        <v>99430.73012762502</v>
+        <v>97851.4883269422</v>
       </c>
       <c r="I6" t="n">
-        <v>121792.6457744071</v>
+        <v>120213.4039737243</v>
       </c>
       <c r="J6" t="n">
-        <v>121792.6457744071</v>
+        <v>120213.4039737243</v>
       </c>
       <c r="K6" t="n">
-        <v>121792.6457744071</v>
+        <v>120213.4039737243</v>
       </c>
       <c r="L6" t="n">
-        <v>121792.6457744072</v>
+        <v>120213.4039737243</v>
       </c>
       <c r="M6" t="n">
-        <v>121792.6457744072</v>
+        <v>120213.4039737243</v>
       </c>
       <c r="N6" t="n">
-        <v>121792.6457744072</v>
+        <v>120213.4039737243</v>
       </c>
       <c r="O6" t="n">
-        <v>121792.6457744072</v>
+        <v>120213.4039737243</v>
       </c>
       <c r="P6" t="n">
-        <v>111665.4573377602</v>
+        <v>110491.5237514652</v>
       </c>
     </row>
   </sheetData>
@@ -26805,28 +26805,28 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="I4" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="J4" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="K4" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="L4" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="M4" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="N4" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="O4" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27027,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090112</v>
       </c>
     </row>
   </sheetData>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5819424607403392</v>
+        <v>0.5819424607403391</v>
       </c>
       <c r="H11" t="n">
-        <v>5.959818226057</v>
+        <v>5.959818226056999</v>
       </c>
       <c r="I11" t="n">
-        <v>22.43533671769195</v>
+        <v>22.43533671769194</v>
       </c>
       <c r="J11" t="n">
-        <v>49.39163892726041</v>
+        <v>49.3916389272604</v>
       </c>
       <c r="K11" t="n">
-        <v>74.02526329039898</v>
+        <v>74.02526329039897</v>
       </c>
       <c r="L11" t="n">
-        <v>91.83488487328115</v>
+        <v>91.83488487328114</v>
       </c>
       <c r="M11" t="n">
-        <v>102.1840041094722</v>
+        <v>102.1840041094721</v>
       </c>
       <c r="N11" t="n">
-        <v>103.8374481260507</v>
+        <v>103.8374481260506</v>
       </c>
       <c r="O11" t="n">
-        <v>98.0507577820639</v>
+        <v>98.05075778206388</v>
       </c>
       <c r="P11" t="n">
-        <v>83.68405328253677</v>
+        <v>83.68405328253675</v>
       </c>
       <c r="Q11" t="n">
-        <v>62.84323890727335</v>
+        <v>62.84323890727333</v>
       </c>
       <c r="R11" t="n">
         <v>36.55544309948036</v>
@@ -31792,7 +31792,7 @@
         <v>2.547453121890836</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04655539685922713</v>
+        <v>0.04655539685922712</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,25 +31838,25 @@
         <v>10.72029970572549</v>
       </c>
       <c r="J12" t="n">
-        <v>29.41732177847552</v>
+        <v>29.41732177847551</v>
       </c>
       <c r="K12" t="n">
         <v>50.27888844148985</v>
       </c>
       <c r="L12" t="n">
-        <v>67.60617030980133</v>
+        <v>67.60617030980131</v>
       </c>
       <c r="M12" t="n">
-        <v>78.8932119744919</v>
+        <v>78.89321197449189</v>
       </c>
       <c r="N12" t="n">
-        <v>80.98128054137781</v>
+        <v>80.9812805413778</v>
       </c>
       <c r="O12" t="n">
-        <v>74.08205071802429</v>
+        <v>74.08205071802428</v>
       </c>
       <c r="P12" t="n">
-        <v>59.45737689017534</v>
+        <v>59.45737689017533</v>
       </c>
       <c r="Q12" t="n">
         <v>39.74568186438658</v>
@@ -31865,7 +31865,7 @@
         <v>19.33204619544587</v>
       </c>
       <c r="S12" t="n">
-        <v>5.783499267993302</v>
+        <v>5.7834992679933</v>
       </c>
       <c r="T12" t="n">
         <v>1.25502616937092</v>
@@ -31911,43 +31911,43 @@
         <v>0.2610393538034023</v>
       </c>
       <c r="H13" t="n">
-        <v>2.320877163815706</v>
+        <v>2.320877163815705</v>
       </c>
       <c r="I13" t="n">
-        <v>7.850165294378683</v>
+        <v>7.850165294378681</v>
       </c>
       <c r="J13" t="n">
         <v>18.45548231390054</v>
       </c>
       <c r="K13" t="n">
-        <v>30.32802674188619</v>
+        <v>30.32802674188618</v>
       </c>
       <c r="L13" t="n">
         <v>38.8094326554622</v>
       </c>
       <c r="M13" t="n">
-        <v>40.9191052512006</v>
+        <v>40.91910525120058</v>
       </c>
       <c r="N13" t="n">
-        <v>39.94614038702431</v>
+        <v>39.9461403870243</v>
       </c>
       <c r="O13" t="n">
         <v>36.89672611759364</v>
       </c>
       <c r="P13" t="n">
-        <v>31.57152330000421</v>
+        <v>31.5715233000042</v>
       </c>
       <c r="Q13" t="n">
         <v>21.85848625348308</v>
       </c>
       <c r="R13" t="n">
-        <v>11.7372785810148</v>
+        <v>11.73727858101479</v>
       </c>
       <c r="S13" t="n">
-        <v>4.549204011282928</v>
+        <v>4.549204011282927</v>
       </c>
       <c r="T13" t="n">
-        <v>1.115349966250901</v>
+        <v>1.1153499662509</v>
       </c>
       <c r="U13" t="n">
         <v>0.01423851020745832</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5819424607403392</v>
+        <v>0.5819424607403391</v>
       </c>
       <c r="H14" t="n">
-        <v>5.959818226057</v>
+        <v>5.959818226056999</v>
       </c>
       <c r="I14" t="n">
-        <v>22.43533671769195</v>
+        <v>22.43533671769194</v>
       </c>
       <c r="J14" t="n">
-        <v>49.39163892726041</v>
+        <v>49.3916389272604</v>
       </c>
       <c r="K14" t="n">
-        <v>74.02526329039898</v>
+        <v>74.02526329039897</v>
       </c>
       <c r="L14" t="n">
-        <v>91.83488487328115</v>
+        <v>91.83488487328114</v>
       </c>
       <c r="M14" t="n">
-        <v>102.1840041094722</v>
+        <v>102.1840041094721</v>
       </c>
       <c r="N14" t="n">
-        <v>103.8374481260507</v>
+        <v>103.8374481260506</v>
       </c>
       <c r="O14" t="n">
-        <v>98.0507577820639</v>
+        <v>98.05075778206388</v>
       </c>
       <c r="P14" t="n">
-        <v>83.68405328253677</v>
+        <v>83.68405328253675</v>
       </c>
       <c r="Q14" t="n">
-        <v>62.84323890727335</v>
+        <v>62.84323890727333</v>
       </c>
       <c r="R14" t="n">
         <v>36.55544309948036</v>
@@ -32029,7 +32029,7 @@
         <v>2.547453121890836</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04655539685922713</v>
+        <v>0.04655539685922712</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,25 +32075,25 @@
         <v>10.72029970572549</v>
       </c>
       <c r="J15" t="n">
-        <v>29.41732177847552</v>
+        <v>29.41732177847551</v>
       </c>
       <c r="K15" t="n">
         <v>50.27888844148985</v>
       </c>
       <c r="L15" t="n">
-        <v>67.60617030980133</v>
+        <v>67.60617030980131</v>
       </c>
       <c r="M15" t="n">
-        <v>78.8932119744919</v>
+        <v>78.89321197449189</v>
       </c>
       <c r="N15" t="n">
-        <v>80.98128054137781</v>
+        <v>80.9812805413778</v>
       </c>
       <c r="O15" t="n">
-        <v>74.08205071802429</v>
+        <v>74.08205071802428</v>
       </c>
       <c r="P15" t="n">
-        <v>59.45737689017534</v>
+        <v>59.45737689017533</v>
       </c>
       <c r="Q15" t="n">
         <v>39.74568186438658</v>
@@ -32102,7 +32102,7 @@
         <v>19.33204619544587</v>
       </c>
       <c r="S15" t="n">
-        <v>5.783499267993302</v>
+        <v>5.7834992679933</v>
       </c>
       <c r="T15" t="n">
         <v>1.25502616937092</v>
@@ -32148,43 +32148,43 @@
         <v>0.2610393538034023</v>
       </c>
       <c r="H16" t="n">
-        <v>2.320877163815706</v>
+        <v>2.320877163815705</v>
       </c>
       <c r="I16" t="n">
-        <v>7.850165294378683</v>
+        <v>7.850165294378681</v>
       </c>
       <c r="J16" t="n">
         <v>18.45548231390054</v>
       </c>
       <c r="K16" t="n">
-        <v>30.32802674188619</v>
+        <v>30.32802674188618</v>
       </c>
       <c r="L16" t="n">
         <v>38.8094326554622</v>
       </c>
       <c r="M16" t="n">
-        <v>40.9191052512006</v>
+        <v>40.91910525120058</v>
       </c>
       <c r="N16" t="n">
-        <v>39.94614038702431</v>
+        <v>39.9461403870243</v>
       </c>
       <c r="O16" t="n">
         <v>36.89672611759364</v>
       </c>
       <c r="P16" t="n">
-        <v>31.57152330000421</v>
+        <v>31.5715233000042</v>
       </c>
       <c r="Q16" t="n">
         <v>21.85848625348308</v>
       </c>
       <c r="R16" t="n">
-        <v>11.7372785810148</v>
+        <v>11.73727858101479</v>
       </c>
       <c r="S16" t="n">
-        <v>4.549204011282928</v>
+        <v>4.549204011282927</v>
       </c>
       <c r="T16" t="n">
-        <v>1.115349966250901</v>
+        <v>1.1153499662509</v>
       </c>
       <c r="U16" t="n">
         <v>0.01423851020745832</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5819424607403392</v>
+        <v>0.5819424607403391</v>
       </c>
       <c r="H17" t="n">
-        <v>5.959818226057</v>
+        <v>5.959818226056999</v>
       </c>
       <c r="I17" t="n">
-        <v>22.43533671769195</v>
+        <v>22.43533671769194</v>
       </c>
       <c r="J17" t="n">
-        <v>49.39163892726041</v>
+        <v>49.3916389272604</v>
       </c>
       <c r="K17" t="n">
-        <v>74.02526329039898</v>
+        <v>74.02526329039897</v>
       </c>
       <c r="L17" t="n">
-        <v>91.83488487328115</v>
+        <v>91.83488487328114</v>
       </c>
       <c r="M17" t="n">
-        <v>102.1840041094722</v>
+        <v>102.1840041094721</v>
       </c>
       <c r="N17" t="n">
-        <v>103.8374481260507</v>
+        <v>103.8374481260506</v>
       </c>
       <c r="O17" t="n">
-        <v>98.0507577820639</v>
+        <v>98.05075778206388</v>
       </c>
       <c r="P17" t="n">
-        <v>83.68405328253677</v>
+        <v>83.68405328253675</v>
       </c>
       <c r="Q17" t="n">
-        <v>62.84323890727335</v>
+        <v>62.84323890727333</v>
       </c>
       <c r="R17" t="n">
         <v>36.55544309948036</v>
@@ -32266,7 +32266,7 @@
         <v>2.547453121890836</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04655539685922713</v>
+        <v>0.04655539685922712</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,25 +32312,25 @@
         <v>10.72029970572549</v>
       </c>
       <c r="J18" t="n">
-        <v>29.41732177847552</v>
+        <v>29.41732177847551</v>
       </c>
       <c r="K18" t="n">
         <v>50.27888844148985</v>
       </c>
       <c r="L18" t="n">
-        <v>67.60617030980133</v>
+        <v>67.60617030980131</v>
       </c>
       <c r="M18" t="n">
-        <v>78.8932119744919</v>
+        <v>78.89321197449189</v>
       </c>
       <c r="N18" t="n">
-        <v>80.98128054137781</v>
+        <v>80.9812805413778</v>
       </c>
       <c r="O18" t="n">
-        <v>74.08205071802429</v>
+        <v>74.08205071802428</v>
       </c>
       <c r="P18" t="n">
-        <v>59.45737689017534</v>
+        <v>59.45737689017533</v>
       </c>
       <c r="Q18" t="n">
         <v>39.74568186438658</v>
@@ -32339,7 +32339,7 @@
         <v>19.33204619544587</v>
       </c>
       <c r="S18" t="n">
-        <v>5.783499267993302</v>
+        <v>5.7834992679933</v>
       </c>
       <c r="T18" t="n">
         <v>1.25502616937092</v>
@@ -32385,43 +32385,43 @@
         <v>0.2610393538034023</v>
       </c>
       <c r="H19" t="n">
-        <v>2.320877163815706</v>
+        <v>2.320877163815705</v>
       </c>
       <c r="I19" t="n">
-        <v>7.850165294378683</v>
+        <v>7.850165294378681</v>
       </c>
       <c r="J19" t="n">
         <v>18.45548231390054</v>
       </c>
       <c r="K19" t="n">
-        <v>30.32802674188619</v>
+        <v>30.32802674188618</v>
       </c>
       <c r="L19" t="n">
         <v>38.8094326554622</v>
       </c>
       <c r="M19" t="n">
-        <v>40.9191052512006</v>
+        <v>40.91910525120058</v>
       </c>
       <c r="N19" t="n">
-        <v>39.94614038702431</v>
+        <v>39.9461403870243</v>
       </c>
       <c r="O19" t="n">
         <v>36.89672611759364</v>
       </c>
       <c r="P19" t="n">
-        <v>31.57152330000421</v>
+        <v>31.5715233000042</v>
       </c>
       <c r="Q19" t="n">
         <v>21.85848625348308</v>
       </c>
       <c r="R19" t="n">
-        <v>11.7372785810148</v>
+        <v>11.73727858101479</v>
       </c>
       <c r="S19" t="n">
-        <v>4.549204011282928</v>
+        <v>4.549204011282927</v>
       </c>
       <c r="T19" t="n">
-        <v>1.115349966250901</v>
+        <v>1.1153499662509</v>
       </c>
       <c r="U19" t="n">
         <v>0.01423851020745832</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5819424607403392</v>
+        <v>0.5819424607403391</v>
       </c>
       <c r="H20" t="n">
-        <v>5.959818226057</v>
+        <v>5.959818226056999</v>
       </c>
       <c r="I20" t="n">
-        <v>22.43533671769195</v>
+        <v>22.43533671769194</v>
       </c>
       <c r="J20" t="n">
-        <v>49.39163892726041</v>
+        <v>49.3916389272604</v>
       </c>
       <c r="K20" t="n">
-        <v>74.02526329039898</v>
+        <v>74.02526329039897</v>
       </c>
       <c r="L20" t="n">
-        <v>91.83488487328115</v>
+        <v>91.83488487328114</v>
       </c>
       <c r="M20" t="n">
-        <v>102.1840041094722</v>
+        <v>102.1840041094721</v>
       </c>
       <c r="N20" t="n">
-        <v>103.8374481260507</v>
+        <v>103.8374481260506</v>
       </c>
       <c r="O20" t="n">
-        <v>98.0507577820639</v>
+        <v>98.05075778206388</v>
       </c>
       <c r="P20" t="n">
-        <v>83.68405328253677</v>
+        <v>83.68405328253675</v>
       </c>
       <c r="Q20" t="n">
-        <v>62.84323890727335</v>
+        <v>62.84323890727333</v>
       </c>
       <c r="R20" t="n">
         <v>36.55544309948036</v>
@@ -32503,7 +32503,7 @@
         <v>2.547453121890836</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04655539685922713</v>
+        <v>0.04655539685922712</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,25 +32549,25 @@
         <v>10.72029970572549</v>
       </c>
       <c r="J21" t="n">
-        <v>29.41732177847552</v>
+        <v>29.41732177847551</v>
       </c>
       <c r="K21" t="n">
         <v>50.27888844148985</v>
       </c>
       <c r="L21" t="n">
-        <v>67.60617030980133</v>
+        <v>67.60617030980131</v>
       </c>
       <c r="M21" t="n">
-        <v>78.8932119744919</v>
+        <v>78.89321197449189</v>
       </c>
       <c r="N21" t="n">
-        <v>80.98128054137781</v>
+        <v>80.9812805413778</v>
       </c>
       <c r="O21" t="n">
-        <v>74.08205071802429</v>
+        <v>74.08205071802428</v>
       </c>
       <c r="P21" t="n">
-        <v>59.45737689017534</v>
+        <v>59.45737689017533</v>
       </c>
       <c r="Q21" t="n">
         <v>39.74568186438658</v>
@@ -32576,7 +32576,7 @@
         <v>19.33204619544587</v>
       </c>
       <c r="S21" t="n">
-        <v>5.783499267993302</v>
+        <v>5.7834992679933</v>
       </c>
       <c r="T21" t="n">
         <v>1.25502616937092</v>
@@ -32622,43 +32622,43 @@
         <v>0.2610393538034023</v>
       </c>
       <c r="H22" t="n">
-        <v>2.320877163815706</v>
+        <v>2.320877163815705</v>
       </c>
       <c r="I22" t="n">
-        <v>7.850165294378683</v>
+        <v>7.850165294378681</v>
       </c>
       <c r="J22" t="n">
         <v>18.45548231390054</v>
       </c>
       <c r="K22" t="n">
-        <v>30.32802674188619</v>
+        <v>30.32802674188618</v>
       </c>
       <c r="L22" t="n">
         <v>38.8094326554622</v>
       </c>
       <c r="M22" t="n">
-        <v>40.9191052512006</v>
+        <v>40.91910525120058</v>
       </c>
       <c r="N22" t="n">
-        <v>39.94614038702431</v>
+        <v>39.9461403870243</v>
       </c>
       <c r="O22" t="n">
         <v>36.89672611759364</v>
       </c>
       <c r="P22" t="n">
-        <v>31.57152330000421</v>
+        <v>31.5715233000042</v>
       </c>
       <c r="Q22" t="n">
         <v>21.85848625348308</v>
       </c>
       <c r="R22" t="n">
-        <v>11.7372785810148</v>
+        <v>11.73727858101479</v>
       </c>
       <c r="S22" t="n">
-        <v>4.549204011282928</v>
+        <v>4.549204011282927</v>
       </c>
       <c r="T22" t="n">
-        <v>1.115349966250901</v>
+        <v>1.1153499662509</v>
       </c>
       <c r="U22" t="n">
         <v>0.01423851020745832</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5819424607403392</v>
+        <v>0.5819424607403391</v>
       </c>
       <c r="H23" t="n">
-        <v>5.959818226057</v>
+        <v>5.959818226056999</v>
       </c>
       <c r="I23" t="n">
-        <v>22.43533671769195</v>
+        <v>22.43533671769194</v>
       </c>
       <c r="J23" t="n">
-        <v>49.39163892726041</v>
+        <v>49.3916389272604</v>
       </c>
       <c r="K23" t="n">
-        <v>74.02526329039898</v>
+        <v>74.02526329039897</v>
       </c>
       <c r="L23" t="n">
-        <v>91.83488487328115</v>
+        <v>91.83488487328114</v>
       </c>
       <c r="M23" t="n">
-        <v>102.1840041094722</v>
+        <v>102.1840041094721</v>
       </c>
       <c r="N23" t="n">
-        <v>103.8374481260507</v>
+        <v>103.8374481260506</v>
       </c>
       <c r="O23" t="n">
-        <v>98.0507577820639</v>
+        <v>98.05075778206388</v>
       </c>
       <c r="P23" t="n">
-        <v>83.68405328253677</v>
+        <v>83.68405328253675</v>
       </c>
       <c r="Q23" t="n">
-        <v>62.84323890727335</v>
+        <v>62.84323890727333</v>
       </c>
       <c r="R23" t="n">
         <v>36.55544309948036</v>
@@ -32740,7 +32740,7 @@
         <v>2.547453121890836</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04655539685922713</v>
+        <v>0.04655539685922712</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32786,25 +32786,25 @@
         <v>10.72029970572549</v>
       </c>
       <c r="J24" t="n">
-        <v>29.41732177847552</v>
+        <v>29.41732177847551</v>
       </c>
       <c r="K24" t="n">
         <v>50.27888844148985</v>
       </c>
       <c r="L24" t="n">
-        <v>67.60617030980133</v>
+        <v>67.60617030980131</v>
       </c>
       <c r="M24" t="n">
-        <v>78.8932119744919</v>
+        <v>78.89321197449189</v>
       </c>
       <c r="N24" t="n">
-        <v>80.98128054137781</v>
+        <v>80.9812805413778</v>
       </c>
       <c r="O24" t="n">
-        <v>74.08205071802429</v>
+        <v>74.08205071802428</v>
       </c>
       <c r="P24" t="n">
-        <v>59.45737689017534</v>
+        <v>59.45737689017533</v>
       </c>
       <c r="Q24" t="n">
         <v>39.74568186438658</v>
@@ -32813,7 +32813,7 @@
         <v>19.33204619544587</v>
       </c>
       <c r="S24" t="n">
-        <v>5.783499267993302</v>
+        <v>5.7834992679933</v>
       </c>
       <c r="T24" t="n">
         <v>1.25502616937092</v>
@@ -32859,43 +32859,43 @@
         <v>0.2610393538034023</v>
       </c>
       <c r="H25" t="n">
-        <v>2.320877163815706</v>
+        <v>2.320877163815705</v>
       </c>
       <c r="I25" t="n">
-        <v>7.850165294378683</v>
+        <v>7.850165294378681</v>
       </c>
       <c r="J25" t="n">
         <v>18.45548231390054</v>
       </c>
       <c r="K25" t="n">
-        <v>30.32802674188619</v>
+        <v>30.32802674188618</v>
       </c>
       <c r="L25" t="n">
         <v>38.8094326554622</v>
       </c>
       <c r="M25" t="n">
-        <v>40.9191052512006</v>
+        <v>40.91910525120058</v>
       </c>
       <c r="N25" t="n">
-        <v>39.94614038702431</v>
+        <v>39.9461403870243</v>
       </c>
       <c r="O25" t="n">
         <v>36.89672611759364</v>
       </c>
       <c r="P25" t="n">
-        <v>31.57152330000421</v>
+        <v>31.5715233000042</v>
       </c>
       <c r="Q25" t="n">
         <v>21.85848625348308</v>
       </c>
       <c r="R25" t="n">
-        <v>11.7372785810148</v>
+        <v>11.73727858101479</v>
       </c>
       <c r="S25" t="n">
-        <v>4.549204011282928</v>
+        <v>4.549204011282927</v>
       </c>
       <c r="T25" t="n">
-        <v>1.115349966250901</v>
+        <v>1.1153499662509</v>
       </c>
       <c r="U25" t="n">
         <v>0.01423851020745832</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5819424607403392</v>
+        <v>0.5819424607403391</v>
       </c>
       <c r="H26" t="n">
-        <v>5.959818226057</v>
+        <v>5.959818226056999</v>
       </c>
       <c r="I26" t="n">
-        <v>22.43533671769195</v>
+        <v>22.43533671769194</v>
       </c>
       <c r="J26" t="n">
-        <v>49.39163892726041</v>
+        <v>49.3916389272604</v>
       </c>
       <c r="K26" t="n">
-        <v>74.02526329039898</v>
+        <v>74.02526329039897</v>
       </c>
       <c r="L26" t="n">
-        <v>91.83488487328115</v>
+        <v>91.83488487328114</v>
       </c>
       <c r="M26" t="n">
-        <v>102.1840041094722</v>
+        <v>102.1840041094721</v>
       </c>
       <c r="N26" t="n">
-        <v>103.8374481260507</v>
+        <v>103.8374481260506</v>
       </c>
       <c r="O26" t="n">
-        <v>98.0507577820639</v>
+        <v>98.05075778206388</v>
       </c>
       <c r="P26" t="n">
-        <v>83.68405328253677</v>
+        <v>83.68405328253675</v>
       </c>
       <c r="Q26" t="n">
-        <v>62.84323890727335</v>
+        <v>62.84323890727333</v>
       </c>
       <c r="R26" t="n">
         <v>36.55544309948036</v>
@@ -32977,7 +32977,7 @@
         <v>2.547453121890836</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04655539685922713</v>
+        <v>0.04655539685922712</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33023,25 +33023,25 @@
         <v>10.72029970572549</v>
       </c>
       <c r="J27" t="n">
-        <v>29.41732177847552</v>
+        <v>29.41732177847551</v>
       </c>
       <c r="K27" t="n">
         <v>50.27888844148985</v>
       </c>
       <c r="L27" t="n">
-        <v>67.60617030980133</v>
+        <v>67.60617030980131</v>
       </c>
       <c r="M27" t="n">
-        <v>78.8932119744919</v>
+        <v>78.89321197449189</v>
       </c>
       <c r="N27" t="n">
-        <v>80.98128054137781</v>
+        <v>80.9812805413778</v>
       </c>
       <c r="O27" t="n">
-        <v>74.08205071802429</v>
+        <v>74.08205071802428</v>
       </c>
       <c r="P27" t="n">
-        <v>59.45737689017534</v>
+        <v>59.45737689017533</v>
       </c>
       <c r="Q27" t="n">
         <v>39.74568186438658</v>
@@ -33050,7 +33050,7 @@
         <v>19.33204619544587</v>
       </c>
       <c r="S27" t="n">
-        <v>5.783499267993302</v>
+        <v>5.7834992679933</v>
       </c>
       <c r="T27" t="n">
         <v>1.25502616937092</v>
@@ -33096,43 +33096,43 @@
         <v>0.2610393538034023</v>
       </c>
       <c r="H28" t="n">
-        <v>2.320877163815706</v>
+        <v>2.320877163815705</v>
       </c>
       <c r="I28" t="n">
-        <v>7.850165294378683</v>
+        <v>7.850165294378681</v>
       </c>
       <c r="J28" t="n">
         <v>18.45548231390054</v>
       </c>
       <c r="K28" t="n">
-        <v>30.32802674188619</v>
+        <v>30.32802674188618</v>
       </c>
       <c r="L28" t="n">
         <v>38.8094326554622</v>
       </c>
       <c r="M28" t="n">
-        <v>40.9191052512006</v>
+        <v>40.91910525120058</v>
       </c>
       <c r="N28" t="n">
-        <v>39.94614038702431</v>
+        <v>39.9461403870243</v>
       </c>
       <c r="O28" t="n">
         <v>36.89672611759364</v>
       </c>
       <c r="P28" t="n">
-        <v>31.57152330000421</v>
+        <v>31.5715233000042</v>
       </c>
       <c r="Q28" t="n">
         <v>21.85848625348308</v>
       </c>
       <c r="R28" t="n">
-        <v>11.7372785810148</v>
+        <v>11.73727858101479</v>
       </c>
       <c r="S28" t="n">
-        <v>4.549204011282928</v>
+        <v>4.549204011282927</v>
       </c>
       <c r="T28" t="n">
-        <v>1.115349966250901</v>
+        <v>1.1153499662509</v>
       </c>
       <c r="U28" t="n">
         <v>0.01423851020745832</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5819424607403392</v>
+        <v>0.5819424607403391</v>
       </c>
       <c r="H29" t="n">
-        <v>5.959818226057</v>
+        <v>5.959818226056999</v>
       </c>
       <c r="I29" t="n">
-        <v>22.43533671769195</v>
+        <v>22.43533671769194</v>
       </c>
       <c r="J29" t="n">
-        <v>49.39163892726041</v>
+        <v>49.3916389272604</v>
       </c>
       <c r="K29" t="n">
-        <v>74.02526329039898</v>
+        <v>74.02526329039897</v>
       </c>
       <c r="L29" t="n">
-        <v>91.83488487328115</v>
+        <v>91.83488487328114</v>
       </c>
       <c r="M29" t="n">
-        <v>102.1840041094722</v>
+        <v>102.1840041094721</v>
       </c>
       <c r="N29" t="n">
-        <v>103.8374481260507</v>
+        <v>103.8374481260506</v>
       </c>
       <c r="O29" t="n">
-        <v>98.0507577820639</v>
+        <v>98.05075778206388</v>
       </c>
       <c r="P29" t="n">
-        <v>83.68405328253677</v>
+        <v>83.68405328253675</v>
       </c>
       <c r="Q29" t="n">
-        <v>62.84323890727335</v>
+        <v>62.84323890727333</v>
       </c>
       <c r="R29" t="n">
         <v>36.55544309948036</v>
@@ -33214,7 +33214,7 @@
         <v>2.547453121890836</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04655539685922713</v>
+        <v>0.04655539685922712</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33260,25 +33260,25 @@
         <v>10.72029970572549</v>
       </c>
       <c r="J30" t="n">
-        <v>29.41732177847552</v>
+        <v>29.41732177847551</v>
       </c>
       <c r="K30" t="n">
         <v>50.27888844148985</v>
       </c>
       <c r="L30" t="n">
-        <v>67.60617030980133</v>
+        <v>67.60617030980131</v>
       </c>
       <c r="M30" t="n">
-        <v>78.8932119744919</v>
+        <v>78.89321197449189</v>
       </c>
       <c r="N30" t="n">
-        <v>80.98128054137781</v>
+        <v>80.9812805413778</v>
       </c>
       <c r="O30" t="n">
-        <v>74.08205071802429</v>
+        <v>74.08205071802428</v>
       </c>
       <c r="P30" t="n">
-        <v>59.45737689017534</v>
+        <v>59.45737689017533</v>
       </c>
       <c r="Q30" t="n">
         <v>39.74568186438658</v>
@@ -33287,7 +33287,7 @@
         <v>19.33204619544587</v>
       </c>
       <c r="S30" t="n">
-        <v>5.783499267993302</v>
+        <v>5.7834992679933</v>
       </c>
       <c r="T30" t="n">
         <v>1.25502616937092</v>
@@ -33333,43 +33333,43 @@
         <v>0.2610393538034023</v>
       </c>
       <c r="H31" t="n">
-        <v>2.320877163815706</v>
+        <v>2.320877163815705</v>
       </c>
       <c r="I31" t="n">
-        <v>7.850165294378683</v>
+        <v>7.850165294378681</v>
       </c>
       <c r="J31" t="n">
         <v>18.45548231390054</v>
       </c>
       <c r="K31" t="n">
-        <v>30.32802674188619</v>
+        <v>30.32802674188618</v>
       </c>
       <c r="L31" t="n">
         <v>38.8094326554622</v>
       </c>
       <c r="M31" t="n">
-        <v>40.9191052512006</v>
+        <v>40.91910525120058</v>
       </c>
       <c r="N31" t="n">
-        <v>39.94614038702431</v>
+        <v>39.9461403870243</v>
       </c>
       <c r="O31" t="n">
         <v>36.89672611759364</v>
       </c>
       <c r="P31" t="n">
-        <v>31.57152330000421</v>
+        <v>31.5715233000042</v>
       </c>
       <c r="Q31" t="n">
         <v>21.85848625348308</v>
       </c>
       <c r="R31" t="n">
-        <v>11.7372785810148</v>
+        <v>11.73727858101479</v>
       </c>
       <c r="S31" t="n">
-        <v>4.549204011282928</v>
+        <v>4.549204011282927</v>
       </c>
       <c r="T31" t="n">
-        <v>1.115349966250901</v>
+        <v>1.1153499662509</v>
       </c>
       <c r="U31" t="n">
         <v>0.01423851020745832</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5819424607403392</v>
+        <v>0.5819424607403391</v>
       </c>
       <c r="H32" t="n">
-        <v>5.959818226057</v>
+        <v>5.959818226056999</v>
       </c>
       <c r="I32" t="n">
-        <v>22.43533671769195</v>
+        <v>22.43533671769194</v>
       </c>
       <c r="J32" t="n">
-        <v>49.39163892726041</v>
+        <v>49.3916389272604</v>
       </c>
       <c r="K32" t="n">
-        <v>74.02526329039898</v>
+        <v>74.02526329039897</v>
       </c>
       <c r="L32" t="n">
-        <v>91.83488487328115</v>
+        <v>91.83488487328114</v>
       </c>
       <c r="M32" t="n">
-        <v>102.1840041094722</v>
+        <v>102.1840041094721</v>
       </c>
       <c r="N32" t="n">
-        <v>103.8374481260507</v>
+        <v>103.8374481260506</v>
       </c>
       <c r="O32" t="n">
-        <v>98.0507577820639</v>
+        <v>98.05075778206388</v>
       </c>
       <c r="P32" t="n">
-        <v>83.68405328253677</v>
+        <v>83.68405328253675</v>
       </c>
       <c r="Q32" t="n">
-        <v>62.84323890727335</v>
+        <v>62.84323890727333</v>
       </c>
       <c r="R32" t="n">
         <v>36.55544309948036</v>
@@ -33451,7 +33451,7 @@
         <v>2.547453121890836</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04655539685922713</v>
+        <v>0.04655539685922712</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33497,25 +33497,25 @@
         <v>10.72029970572549</v>
       </c>
       <c r="J33" t="n">
-        <v>29.41732177847552</v>
+        <v>29.41732177847551</v>
       </c>
       <c r="K33" t="n">
         <v>50.27888844148985</v>
       </c>
       <c r="L33" t="n">
-        <v>67.60617030980133</v>
+        <v>67.60617030980131</v>
       </c>
       <c r="M33" t="n">
-        <v>78.8932119744919</v>
+        <v>78.89321197449189</v>
       </c>
       <c r="N33" t="n">
-        <v>80.98128054137781</v>
+        <v>80.9812805413778</v>
       </c>
       <c r="O33" t="n">
-        <v>74.08205071802429</v>
+        <v>74.08205071802428</v>
       </c>
       <c r="P33" t="n">
-        <v>59.45737689017534</v>
+        <v>59.45737689017533</v>
       </c>
       <c r="Q33" t="n">
         <v>39.74568186438658</v>
@@ -33524,7 +33524,7 @@
         <v>19.33204619544587</v>
       </c>
       <c r="S33" t="n">
-        <v>5.783499267993302</v>
+        <v>5.7834992679933</v>
       </c>
       <c r="T33" t="n">
         <v>1.25502616937092</v>
@@ -33570,43 +33570,43 @@
         <v>0.2610393538034023</v>
       </c>
       <c r="H34" t="n">
-        <v>2.320877163815706</v>
+        <v>2.320877163815705</v>
       </c>
       <c r="I34" t="n">
-        <v>7.850165294378683</v>
+        <v>7.850165294378681</v>
       </c>
       <c r="J34" t="n">
         <v>18.45548231390054</v>
       </c>
       <c r="K34" t="n">
-        <v>30.32802674188619</v>
+        <v>30.32802674188618</v>
       </c>
       <c r="L34" t="n">
         <v>38.8094326554622</v>
       </c>
       <c r="M34" t="n">
-        <v>40.9191052512006</v>
+        <v>40.91910525120058</v>
       </c>
       <c r="N34" t="n">
-        <v>39.94614038702431</v>
+        <v>39.9461403870243</v>
       </c>
       <c r="O34" t="n">
         <v>36.89672611759364</v>
       </c>
       <c r="P34" t="n">
-        <v>31.57152330000421</v>
+        <v>31.5715233000042</v>
       </c>
       <c r="Q34" t="n">
         <v>21.85848625348308</v>
       </c>
       <c r="R34" t="n">
-        <v>11.7372785810148</v>
+        <v>11.73727858101479</v>
       </c>
       <c r="S34" t="n">
-        <v>4.549204011282928</v>
+        <v>4.549204011282927</v>
       </c>
       <c r="T34" t="n">
-        <v>1.115349966250901</v>
+        <v>1.1153499662509</v>
       </c>
       <c r="U34" t="n">
         <v>0.01423851020745832</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5819424607403392</v>
+        <v>0.5819424607403391</v>
       </c>
       <c r="H35" t="n">
-        <v>5.959818226057</v>
+        <v>5.959818226056999</v>
       </c>
       <c r="I35" t="n">
-        <v>22.43533671769195</v>
+        <v>22.43533671769194</v>
       </c>
       <c r="J35" t="n">
-        <v>49.39163892726041</v>
+        <v>49.3916389272604</v>
       </c>
       <c r="K35" t="n">
-        <v>74.02526329039898</v>
+        <v>74.02526329039897</v>
       </c>
       <c r="L35" t="n">
-        <v>91.83488487328115</v>
+        <v>91.83488487328114</v>
       </c>
       <c r="M35" t="n">
-        <v>102.1840041094722</v>
+        <v>102.1840041094721</v>
       </c>
       <c r="N35" t="n">
-        <v>103.8374481260507</v>
+        <v>103.8374481260506</v>
       </c>
       <c r="O35" t="n">
-        <v>98.0507577820639</v>
+        <v>98.05075778206388</v>
       </c>
       <c r="P35" t="n">
-        <v>83.68405328253677</v>
+        <v>83.68405328253675</v>
       </c>
       <c r="Q35" t="n">
-        <v>62.84323890727335</v>
+        <v>62.84323890727333</v>
       </c>
       <c r="R35" t="n">
         <v>36.55544309948036</v>
@@ -33688,7 +33688,7 @@
         <v>2.547453121890836</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04655539685922713</v>
+        <v>0.04655539685922712</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,25 +33734,25 @@
         <v>10.72029970572549</v>
       </c>
       <c r="J36" t="n">
-        <v>29.41732177847552</v>
+        <v>29.41732177847551</v>
       </c>
       <c r="K36" t="n">
         <v>50.27888844148985</v>
       </c>
       <c r="L36" t="n">
-        <v>67.60617030980133</v>
+        <v>67.60617030980131</v>
       </c>
       <c r="M36" t="n">
-        <v>78.8932119744919</v>
+        <v>78.89321197449189</v>
       </c>
       <c r="N36" t="n">
-        <v>80.98128054137781</v>
+        <v>80.9812805413778</v>
       </c>
       <c r="O36" t="n">
-        <v>74.08205071802429</v>
+        <v>74.08205071802428</v>
       </c>
       <c r="P36" t="n">
-        <v>59.45737689017534</v>
+        <v>59.45737689017533</v>
       </c>
       <c r="Q36" t="n">
         <v>39.74568186438658</v>
@@ -33761,7 +33761,7 @@
         <v>19.33204619544587</v>
       </c>
       <c r="S36" t="n">
-        <v>5.783499267993302</v>
+        <v>5.7834992679933</v>
       </c>
       <c r="T36" t="n">
         <v>1.25502616937092</v>
@@ -33807,43 +33807,43 @@
         <v>0.2610393538034023</v>
       </c>
       <c r="H37" t="n">
-        <v>2.320877163815706</v>
+        <v>2.320877163815705</v>
       </c>
       <c r="I37" t="n">
-        <v>7.850165294378683</v>
+        <v>7.850165294378681</v>
       </c>
       <c r="J37" t="n">
         <v>18.45548231390054</v>
       </c>
       <c r="K37" t="n">
-        <v>30.32802674188619</v>
+        <v>30.32802674188618</v>
       </c>
       <c r="L37" t="n">
         <v>38.8094326554622</v>
       </c>
       <c r="M37" t="n">
-        <v>40.9191052512006</v>
+        <v>40.91910525120058</v>
       </c>
       <c r="N37" t="n">
-        <v>39.94614038702431</v>
+        <v>39.9461403870243</v>
       </c>
       <c r="O37" t="n">
         <v>36.89672611759364</v>
       </c>
       <c r="P37" t="n">
-        <v>31.57152330000421</v>
+        <v>31.5715233000042</v>
       </c>
       <c r="Q37" t="n">
         <v>21.85848625348308</v>
       </c>
       <c r="R37" t="n">
-        <v>11.7372785810148</v>
+        <v>11.73727858101479</v>
       </c>
       <c r="S37" t="n">
-        <v>4.549204011282928</v>
+        <v>4.549204011282927</v>
       </c>
       <c r="T37" t="n">
-        <v>1.115349966250901</v>
+        <v>1.1153499662509</v>
       </c>
       <c r="U37" t="n">
         <v>0.01423851020745832</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5819424607403392</v>
+        <v>0.5819424607403391</v>
       </c>
       <c r="H38" t="n">
-        <v>5.959818226057</v>
+        <v>5.959818226056999</v>
       </c>
       <c r="I38" t="n">
-        <v>22.43533671769195</v>
+        <v>22.43533671769194</v>
       </c>
       <c r="J38" t="n">
-        <v>49.39163892726041</v>
+        <v>49.3916389272604</v>
       </c>
       <c r="K38" t="n">
-        <v>74.02526329039898</v>
+        <v>74.02526329039897</v>
       </c>
       <c r="L38" t="n">
-        <v>91.83488487328115</v>
+        <v>91.83488487328114</v>
       </c>
       <c r="M38" t="n">
-        <v>102.1840041094722</v>
+        <v>102.1840041094721</v>
       </c>
       <c r="N38" t="n">
-        <v>103.8374481260507</v>
+        <v>103.8374481260506</v>
       </c>
       <c r="O38" t="n">
-        <v>98.0507577820639</v>
+        <v>98.05075778206388</v>
       </c>
       <c r="P38" t="n">
-        <v>83.68405328253677</v>
+        <v>83.68405328253675</v>
       </c>
       <c r="Q38" t="n">
-        <v>62.84323890727335</v>
+        <v>62.84323890727333</v>
       </c>
       <c r="R38" t="n">
         <v>36.55544309948036</v>
@@ -33925,7 +33925,7 @@
         <v>2.547453121890836</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04655539685922713</v>
+        <v>0.04655539685922712</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33971,25 +33971,25 @@
         <v>10.72029970572549</v>
       </c>
       <c r="J39" t="n">
-        <v>29.41732177847552</v>
+        <v>29.41732177847551</v>
       </c>
       <c r="K39" t="n">
         <v>50.27888844148985</v>
       </c>
       <c r="L39" t="n">
-        <v>67.60617030980133</v>
+        <v>67.60617030980131</v>
       </c>
       <c r="M39" t="n">
-        <v>78.8932119744919</v>
+        <v>78.89321197449189</v>
       </c>
       <c r="N39" t="n">
-        <v>80.98128054137781</v>
+        <v>80.9812805413778</v>
       </c>
       <c r="O39" t="n">
-        <v>74.08205071802429</v>
+        <v>74.08205071802428</v>
       </c>
       <c r="P39" t="n">
-        <v>59.45737689017534</v>
+        <v>59.45737689017533</v>
       </c>
       <c r="Q39" t="n">
         <v>39.74568186438658</v>
@@ -33998,7 +33998,7 @@
         <v>19.33204619544587</v>
       </c>
       <c r="S39" t="n">
-        <v>5.783499267993302</v>
+        <v>5.7834992679933</v>
       </c>
       <c r="T39" t="n">
         <v>1.25502616937092</v>
@@ -34044,43 +34044,43 @@
         <v>0.2610393538034023</v>
       </c>
       <c r="H40" t="n">
-        <v>2.320877163815706</v>
+        <v>2.320877163815705</v>
       </c>
       <c r="I40" t="n">
-        <v>7.850165294378683</v>
+        <v>7.850165294378681</v>
       </c>
       <c r="J40" t="n">
         <v>18.45548231390054</v>
       </c>
       <c r="K40" t="n">
-        <v>30.32802674188619</v>
+        <v>30.32802674188618</v>
       </c>
       <c r="L40" t="n">
         <v>38.8094326554622</v>
       </c>
       <c r="M40" t="n">
-        <v>40.9191052512006</v>
+        <v>40.91910525120058</v>
       </c>
       <c r="N40" t="n">
-        <v>39.94614038702431</v>
+        <v>39.9461403870243</v>
       </c>
       <c r="O40" t="n">
         <v>36.89672611759364</v>
       </c>
       <c r="P40" t="n">
-        <v>31.57152330000421</v>
+        <v>31.5715233000042</v>
       </c>
       <c r="Q40" t="n">
         <v>21.85848625348308</v>
       </c>
       <c r="R40" t="n">
-        <v>11.7372785810148</v>
+        <v>11.73727858101479</v>
       </c>
       <c r="S40" t="n">
-        <v>4.549204011282928</v>
+        <v>4.549204011282927</v>
       </c>
       <c r="T40" t="n">
-        <v>1.115349966250901</v>
+        <v>1.1153499662509</v>
       </c>
       <c r="U40" t="n">
         <v>0.01423851020745832</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5819424607403392</v>
+        <v>0.5819424607403391</v>
       </c>
       <c r="H41" t="n">
-        <v>5.959818226057</v>
+        <v>5.959818226056999</v>
       </c>
       <c r="I41" t="n">
-        <v>22.43533671769195</v>
+        <v>22.43533671769194</v>
       </c>
       <c r="J41" t="n">
-        <v>49.39163892726041</v>
+        <v>49.3916389272604</v>
       </c>
       <c r="K41" t="n">
-        <v>74.02526329039898</v>
+        <v>74.02526329039897</v>
       </c>
       <c r="L41" t="n">
-        <v>91.83488487328115</v>
+        <v>91.83488487328114</v>
       </c>
       <c r="M41" t="n">
-        <v>102.1840041094722</v>
+        <v>102.1840041094721</v>
       </c>
       <c r="N41" t="n">
-        <v>103.8374481260507</v>
+        <v>103.8374481260506</v>
       </c>
       <c r="O41" t="n">
-        <v>98.0507577820639</v>
+        <v>98.05075778206388</v>
       </c>
       <c r="P41" t="n">
-        <v>83.68405328253677</v>
+        <v>83.68405328253675</v>
       </c>
       <c r="Q41" t="n">
-        <v>62.84323890727335</v>
+        <v>62.84323890727333</v>
       </c>
       <c r="R41" t="n">
         <v>36.55544309948036</v>
@@ -34162,7 +34162,7 @@
         <v>2.547453121890836</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04655539685922713</v>
+        <v>0.04655539685922712</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,25 +34208,25 @@
         <v>10.72029970572549</v>
       </c>
       <c r="J42" t="n">
-        <v>29.41732177847552</v>
+        <v>29.41732177847551</v>
       </c>
       <c r="K42" t="n">
         <v>50.27888844148985</v>
       </c>
       <c r="L42" t="n">
-        <v>67.60617030980133</v>
+        <v>67.60617030980131</v>
       </c>
       <c r="M42" t="n">
-        <v>78.8932119744919</v>
+        <v>78.89321197449189</v>
       </c>
       <c r="N42" t="n">
-        <v>80.98128054137781</v>
+        <v>80.9812805413778</v>
       </c>
       <c r="O42" t="n">
-        <v>74.08205071802429</v>
+        <v>74.08205071802428</v>
       </c>
       <c r="P42" t="n">
-        <v>59.45737689017534</v>
+        <v>59.45737689017533</v>
       </c>
       <c r="Q42" t="n">
         <v>39.74568186438658</v>
@@ -34235,7 +34235,7 @@
         <v>19.33204619544587</v>
       </c>
       <c r="S42" t="n">
-        <v>5.783499267993302</v>
+        <v>5.7834992679933</v>
       </c>
       <c r="T42" t="n">
         <v>1.25502616937092</v>
@@ -34281,43 +34281,43 @@
         <v>0.2610393538034023</v>
       </c>
       <c r="H43" t="n">
-        <v>2.320877163815706</v>
+        <v>2.320877163815705</v>
       </c>
       <c r="I43" t="n">
-        <v>7.850165294378683</v>
+        <v>7.850165294378681</v>
       </c>
       <c r="J43" t="n">
         <v>18.45548231390054</v>
       </c>
       <c r="K43" t="n">
-        <v>30.32802674188619</v>
+        <v>30.32802674188618</v>
       </c>
       <c r="L43" t="n">
         <v>38.8094326554622</v>
       </c>
       <c r="M43" t="n">
-        <v>40.9191052512006</v>
+        <v>40.91910525120058</v>
       </c>
       <c r="N43" t="n">
-        <v>39.94614038702431</v>
+        <v>39.9461403870243</v>
       </c>
       <c r="O43" t="n">
         <v>36.89672611759364</v>
       </c>
       <c r="P43" t="n">
-        <v>31.57152330000421</v>
+        <v>31.5715233000042</v>
       </c>
       <c r="Q43" t="n">
         <v>21.85848625348308</v>
       </c>
       <c r="R43" t="n">
-        <v>11.7372785810148</v>
+        <v>11.73727858101479</v>
       </c>
       <c r="S43" t="n">
-        <v>4.549204011282928</v>
+        <v>4.549204011282927</v>
       </c>
       <c r="T43" t="n">
-        <v>1.115349966250901</v>
+        <v>1.1153499662509</v>
       </c>
       <c r="U43" t="n">
         <v>0.01423851020745832</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5819424607403392</v>
+        <v>0.5819424607403391</v>
       </c>
       <c r="H44" t="n">
-        <v>5.959818226057</v>
+        <v>5.959818226056999</v>
       </c>
       <c r="I44" t="n">
-        <v>22.43533671769195</v>
+        <v>22.43533671769194</v>
       </c>
       <c r="J44" t="n">
-        <v>49.39163892726041</v>
+        <v>49.3916389272604</v>
       </c>
       <c r="K44" t="n">
-        <v>74.02526329039898</v>
+        <v>74.02526329039897</v>
       </c>
       <c r="L44" t="n">
-        <v>91.83488487328115</v>
+        <v>91.83488487328114</v>
       </c>
       <c r="M44" t="n">
-        <v>102.1840041094722</v>
+        <v>102.1840041094721</v>
       </c>
       <c r="N44" t="n">
-        <v>103.8374481260507</v>
+        <v>103.8374481260506</v>
       </c>
       <c r="O44" t="n">
-        <v>98.0507577820639</v>
+        <v>98.05075778206388</v>
       </c>
       <c r="P44" t="n">
-        <v>83.68405328253677</v>
+        <v>83.68405328253675</v>
       </c>
       <c r="Q44" t="n">
-        <v>62.84323890727335</v>
+        <v>62.84323890727333</v>
       </c>
       <c r="R44" t="n">
         <v>36.55544309948036</v>
@@ -34399,7 +34399,7 @@
         <v>2.547453121890836</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04655539685922713</v>
+        <v>0.04655539685922712</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,25 +34445,25 @@
         <v>10.72029970572549</v>
       </c>
       <c r="J45" t="n">
-        <v>29.41732177847552</v>
+        <v>29.41732177847551</v>
       </c>
       <c r="K45" t="n">
         <v>50.27888844148985</v>
       </c>
       <c r="L45" t="n">
-        <v>67.60617030980133</v>
+        <v>67.60617030980131</v>
       </c>
       <c r="M45" t="n">
-        <v>78.8932119744919</v>
+        <v>78.89321197449189</v>
       </c>
       <c r="N45" t="n">
-        <v>80.98128054137781</v>
+        <v>80.9812805413778</v>
       </c>
       <c r="O45" t="n">
-        <v>74.08205071802429</v>
+        <v>74.08205071802428</v>
       </c>
       <c r="P45" t="n">
-        <v>59.45737689017534</v>
+        <v>59.45737689017533</v>
       </c>
       <c r="Q45" t="n">
         <v>39.74568186438658</v>
@@ -34472,7 +34472,7 @@
         <v>19.33204619544587</v>
       </c>
       <c r="S45" t="n">
-        <v>5.783499267993302</v>
+        <v>5.7834992679933</v>
       </c>
       <c r="T45" t="n">
         <v>1.25502616937092</v>
@@ -34518,43 +34518,43 @@
         <v>0.2610393538034023</v>
       </c>
       <c r="H46" t="n">
-        <v>2.320877163815706</v>
+        <v>2.320877163815705</v>
       </c>
       <c r="I46" t="n">
-        <v>7.850165294378683</v>
+        <v>7.850165294378681</v>
       </c>
       <c r="J46" t="n">
         <v>18.45548231390054</v>
       </c>
       <c r="K46" t="n">
-        <v>30.32802674188619</v>
+        <v>30.32802674188618</v>
       </c>
       <c r="L46" t="n">
         <v>38.8094326554622</v>
       </c>
       <c r="M46" t="n">
-        <v>40.9191052512006</v>
+        <v>40.91910525120058</v>
       </c>
       <c r="N46" t="n">
-        <v>39.94614038702431</v>
+        <v>39.9461403870243</v>
       </c>
       <c r="O46" t="n">
         <v>36.89672611759364</v>
       </c>
       <c r="P46" t="n">
-        <v>31.57152330000421</v>
+        <v>31.5715233000042</v>
       </c>
       <c r="Q46" t="n">
         <v>21.85848625348308</v>
       </c>
       <c r="R46" t="n">
-        <v>11.7372785810148</v>
+        <v>11.73727858101479</v>
       </c>
       <c r="S46" t="n">
-        <v>4.549204011282928</v>
+        <v>4.549204011282927</v>
       </c>
       <c r="T46" t="n">
-        <v>1.115349966250901</v>
+        <v>1.1153499662509</v>
       </c>
       <c r="U46" t="n">
         <v>0.01423851020745832</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>37.44234957264789</v>
+        <v>37.44234957264788</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>42.08948184690371</v>
       </c>
       <c r="L20" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="M20" t="n">
-        <v>72.11748226507635</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="N20" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>52.85253969272854</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>28.67073045221765</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="M21" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="N21" t="n">
-        <v>79.53183141955161</v>
+        <v>50.86110096733393</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.058534916003335</v>
+        <v>8.058534916003332</v>
       </c>
       <c r="L22" t="n">
-        <v>66.39945791577834</v>
+        <v>66.39945791577833</v>
       </c>
       <c r="M22" t="n">
         <v>80.50298221304118</v>
       </c>
       <c r="N22" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="O22" t="n">
-        <v>61.48185403163332</v>
+        <v>61.48185403163331</v>
       </c>
       <c r="P22" t="n">
-        <v>28.8500825648977</v>
+        <v>28.85008256489774</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36358,25 +36358,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>79.53183141955158</v>
       </c>
       <c r="M23" t="n">
-        <v>26.67929172682308</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="N23" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="P23" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>52.85253969272854</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>28.67073045221765</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>50.86110096733393</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="N24" t="n">
-        <v>79.53183141955162</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>8.058534916003335</v>
+        <v>8.058534916003332</v>
       </c>
       <c r="L25" t="n">
-        <v>66.39945791577834</v>
+        <v>66.39945791577833</v>
       </c>
       <c r="M25" t="n">
-        <v>80.50298221304125</v>
+        <v>80.50298221304118</v>
       </c>
       <c r="N25" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="O25" t="n">
-        <v>61.48185403163332</v>
+        <v>61.48185403163331</v>
       </c>
       <c r="P25" t="n">
-        <v>28.8500825648977</v>
+        <v>28.85008256489774</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>37.44234957264789</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="L26" t="n">
-        <v>82.88054011090115</v>
+        <v>26.67929172682305</v>
       </c>
       <c r="M26" t="n">
-        <v>72.11748226507632</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -36613,7 +36613,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>52.85253969272854</v>
+        <v>52.85253969272853</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>28.67073045221766</v>
+        <v>28.67073045221765</v>
       </c>
       <c r="K27" t="n">
-        <v>50.86110096733397</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="L27" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="M27" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>50.86110096733396</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,7 +36692,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,22 +36753,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>8.058534916003335</v>
+        <v>8.058534916003358</v>
       </c>
       <c r="L28" t="n">
-        <v>66.39945791577834</v>
+        <v>66.39945791577833</v>
       </c>
       <c r="M28" t="n">
         <v>80.50298221304118</v>
       </c>
       <c r="N28" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="O28" t="n">
-        <v>61.48185403163332</v>
+        <v>61.48185403163331</v>
       </c>
       <c r="P28" t="n">
-        <v>28.8500825648977</v>
+        <v>28.85008256489769</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>37.44234957264788</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="L29" t="n">
-        <v>79.53183141955162</v>
+        <v>72.11748226507632</v>
       </c>
       <c r="M29" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>52.85253969272853</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>28.67073045221766</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>50.86110096733396</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="O30" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="P30" t="n">
-        <v>82.88054011090115</v>
+        <v>79.53183141955158</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,22 +36990,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>8.058534916003335</v>
+        <v>8.058534916003332</v>
       </c>
       <c r="L31" t="n">
-        <v>66.39945791577834</v>
+        <v>66.39945791577833</v>
       </c>
       <c r="M31" t="n">
         <v>80.50298221304118</v>
       </c>
       <c r="N31" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="O31" t="n">
-        <v>61.48185403163332</v>
+        <v>61.48185403163331</v>
       </c>
       <c r="P31" t="n">
-        <v>28.8500825648977</v>
+        <v>28.85008256489774</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37069,25 +37069,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="M32" t="n">
-        <v>79.53183141955162</v>
+        <v>26.67929172682305</v>
       </c>
       <c r="N32" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="O32" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>52.85253969272853</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>28.67073045221765</v>
       </c>
       <c r="K33" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>79.53183141955161</v>
+        <v>50.86110096733393</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,22 +37227,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>8.058534916003335</v>
+        <v>8.058534916003332</v>
       </c>
       <c r="L34" t="n">
-        <v>66.39945791577834</v>
+        <v>66.39945791577833</v>
       </c>
       <c r="M34" t="n">
         <v>80.50298221304118</v>
       </c>
       <c r="N34" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="O34" t="n">
-        <v>61.48185403163332</v>
+        <v>61.48185403163331</v>
       </c>
       <c r="P34" t="n">
-        <v>28.8500825648977</v>
+        <v>28.85008256489774</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37306,16 +37306,16 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="L35" t="n">
-        <v>82.88054011090115</v>
+        <v>79.53183141955158</v>
       </c>
       <c r="M35" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="N35" t="n">
-        <v>79.53183141955161</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>28.67073045221766</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="L36" t="n">
-        <v>82.88054011090115</v>
+        <v>79.53183141955158</v>
       </c>
       <c r="M36" t="n">
-        <v>50.86110096733396</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>8.058534916003335</v>
+        <v>8.058534916003332</v>
       </c>
       <c r="L37" t="n">
-        <v>66.39945791577834</v>
+        <v>66.39945791577833</v>
       </c>
       <c r="M37" t="n">
         <v>80.50298221304118</v>
       </c>
       <c r="N37" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="O37" t="n">
-        <v>61.48185403163332</v>
+        <v>61.48185403163331</v>
       </c>
       <c r="P37" t="n">
-        <v>28.8500825648977</v>
+        <v>28.85008256489769</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37546,22 +37546,22 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="M38" t="n">
-        <v>26.67929172682308</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="N38" t="n">
-        <v>82.88054011090115</v>
+        <v>79.53183141955158</v>
       </c>
       <c r="O38" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="P38" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>52.85253969272854</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>28.67073045221766</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>82.88054011090115</v>
+        <v>79.53183141955158</v>
       </c>
       <c r="M39" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>50.86110096733396</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="Q39" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>8.058534916003335</v>
+        <v>8.058534916003332</v>
       </c>
       <c r="L40" t="n">
-        <v>66.39945791577834</v>
+        <v>66.39945791577833</v>
       </c>
       <c r="M40" t="n">
         <v>80.50298221304118</v>
       </c>
       <c r="N40" t="n">
-        <v>82.88054011090119</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="O40" t="n">
-        <v>61.48185403163332</v>
+        <v>61.48185403163331</v>
       </c>
       <c r="P40" t="n">
-        <v>28.8500825648977</v>
+        <v>28.85008256489769</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37780,22 +37780,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="L41" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="M41" t="n">
-        <v>82.88054011090115</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>79.53183141955158</v>
       </c>
       <c r="P41" t="n">
-        <v>79.53183141955161</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>28.67073045221766</v>
+        <v>28.67073045221765</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>50.86110096733397</v>
+        <v>50.86110096733393</v>
       </c>
       <c r="M42" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="N42" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>8.058534916003335</v>
+        <v>8.058534916003332</v>
       </c>
       <c r="L43" t="n">
-        <v>66.39945791577834</v>
+        <v>66.39945791577833</v>
       </c>
       <c r="M43" t="n">
         <v>80.50298221304118</v>
       </c>
       <c r="N43" t="n">
-        <v>82.88054011090115</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="O43" t="n">
-        <v>61.48185403163338</v>
+        <v>61.48185403163331</v>
       </c>
       <c r="P43" t="n">
-        <v>28.8500825648977</v>
+        <v>28.85008256489769</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>993036.9236043758</v>
+        <v>1005091.421417109</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6742609.142433866</v>
+        <v>8041589.773721423</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16888659.67207651</v>
+        <v>17785260.94054101</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5421519.485744094</v>
+        <v>5016500.118145468</v>
       </c>
     </row>
     <row r="11">
@@ -2084,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2096,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>73.00117972968171</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2172,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>73.00117972968168</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2226,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2287,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>73.00117972968171</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2321,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2378,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.00117972968171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,16 +2399,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>73.00117972968171</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2445,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>73.00117972968171</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2536,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>73.00117972968171</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2564,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2652,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>78.67633314568958</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2691,10 +2693,10 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>77.20538669489326</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2734,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.90369780277223</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2773,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>80.97802203781062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>73.00117972968168</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2804,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2919,19 +2921,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>73.00117972968168</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2950,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3010,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>73.00117972968171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3083,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>73.00117972968171</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3111,19 +3113,19 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>73.00117972968168</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3196,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>8.69762273147043</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3229,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.30355699821131</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3244,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>73.00117972968171</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3390,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>80.82578795719726</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>75.0559318833856</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3436,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>73.00117972968171</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3548,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>73.00117972968171</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3627,19 +3629,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.82578795719726</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>75.0559318833856</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3658,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>8.697622731470398</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3703,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.30355699821131</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>73.00117972968171</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3797,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3819,13 +3821,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>73.00117972968171</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3882,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3898,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3946,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>73.00117972968168</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>43.69836928579349</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>85.36695631422816</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>167.4186910240203</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>35.01446635656757</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>35.01446635656757</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>117.0662010663597</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>199.1179357761518</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>257.7835950600877</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>14.60839277571539</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>80.34385611233593</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>160.0418085032467</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>242.0935432130388</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>302.9605787043558</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>164.0867258761275</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>80.36900859238898</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>80.36900859238898</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>88.68217791866422</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>167.4186910240203</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>35.01446635656757</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>85.36695631422816</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>167.4186910240203</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>80.36900859238898</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>80.36900859238898</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>80.36900859238898</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>80.36900859238898</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>80.36900859238898</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>14.60839277571539</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>80.34385611233593</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>160.0418085032467</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>242.0935432130388</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>302.9605787043558</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>164.0867258761275</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>164.0867258761275</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>164.0867258761275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>164.0867258761275</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>88.68217791866422</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>115.094676728219</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>197.1464114380112</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>279.1981461478033</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>279.1981461478033</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>279.1981461478033</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>86.10148679037673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>86.10148679037673</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>86.10148679037673</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>86.10148679037673</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>86.10148679037673</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>86.10148679037673</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>86.10148679037673</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>35.01446635656757</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>117.0662010663597</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>199.1179357761518</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>281.1696704859439</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>169.8192040741152</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>86.10148679037673</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>86.10148679037673</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>86.10148679037673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>82.29074401975313</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>82.29074401975313</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>82.29074401975313</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>82.29074401975313</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>82.29074401975313</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>82.29074401975313</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>82.29074401975313</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>82.29074401975313</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>14.60839277571542</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>80.34385611233596</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>160.0418085032467</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>242.0935432130389</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>302.9605787043558</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>164.0867258761275</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>82.29074401975313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>257.7835950600877</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>257.7835950600877</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>257.7835950600877</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>43.69836928579349</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>125.7501039955856</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>197.1464114380112</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>197.1464114380112</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>197.1464114380112</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>279.1981461478033</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>279.1981461478033</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>88.68217791866422</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>170.7339126284564</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>257.7835950600877</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>257.7835950600877</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>14.60839277571539</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>80.34385611233593</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>160.0418085032467</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>242.0935432130388</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>302.9605787043558</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>164.0867258761275</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>164.0867258761275</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>88.68217791866422</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>170.7339126284564</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>197.1464114380112</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>279.1981461478033</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>279.1981461478033</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>279.1981461478033</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>164.0867258761275</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>257.7835950600877</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>35.01446635656757</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>35.01446635656757</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>35.01446635656757</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>35.01446635656757</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>85.36695631422816</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>167.4186910240203</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15.41592071540788</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>15.41592071540788</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>15.41592071540788</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>15.41592071540788</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>14.60839277571539</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>80.34385611233593</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>160.0418085032467</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>242.0935432130388</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>302.9605787043558</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>266.5690725666234</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>266.5690725666234</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>266.5690725666234</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>266.5690725666234</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>266.5690725666234</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>182.8513552828849</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>99.1336379991464</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>99.1336379991464</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>99.1336379991464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>88.68217791866422</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>167.4186910240203</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>88.68217791866422</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>167.4186910240203</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>249.8799503858295</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>164.0867258761275</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>164.0867258761275</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.0867258761275</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.0867258761275</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>164.0867258761275</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>6.630443208872117</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>14.60839277571542</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>80.34385611233596</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>160.0418085032467</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>242.0935432130389</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>302.9605787043558</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>88.68217791866422</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>170.7339126284564</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>164.0867258761275</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>85.36695631422816</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>85.36695631422816</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>85.36695631422816</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>167.4186910240203</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>249.8799503858295</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>166.162233102091</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>166.162233102091</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>82.4445158183525</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>257.7835950600877</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>257.7835950600877</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>14.60839277571539</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>80.34385611233594</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>160.0418085032467</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>242.0935432130389</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>302.9605787043558</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>266.5690725666234</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>266.5690725666234</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>266.5690725666234</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>266.5690725666234</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>266.5690725666234</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>266.5690725666234</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>266.5690725666234</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>266.5690725666234</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>266.5690725666234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>80.36900859238898</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>80.36900859238898</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>88.68217791866422</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>170.7339126284564</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>170.7339126284564</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>252.7856473382485</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>164.0867258761275</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>164.0867258761275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>164.0867258761275</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>80.36900859238898</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>80.36900859238898</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>35.01446635656757</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>35.01446635656757</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>85.36695631422816</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>167.4186910240203</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>164.0867258761275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>6.630443208872091</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>14.60839277571537</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>80.34385611233593</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>160.0418085032467</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>242.0935432130389</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>302.9605787043558</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>257.7835950600877</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.34816049261062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>131.6542655994259</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K11" t="n">
-        <v>146.0645877545816</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L11" t="n">
-        <v>143.9315300967061</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M11" t="n">
-        <v>128.1622291178006</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N11" t="n">
-        <v>125.5756154705403</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O11" t="n">
-        <v>132.0474536396229</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P11" t="n">
-        <v>147.5489424727328</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q11" t="n">
-        <v>159.4624509671762</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>97.42030488819118</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K12" t="n">
-        <v>87.56255053286915</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L12" t="n">
-        <v>70.94820947007287</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M12" t="n">
-        <v>63.24082194752643</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N12" t="n">
-        <v>50.36043154195551</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O12" t="n">
-        <v>68.51419372642016</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P12" t="n">
-        <v>74.51703052415492</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q12" t="n">
-        <v>100.2360922216349</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8848,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>98.68523142864919</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L13" t="n">
-        <v>96.0752436257761</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M13" t="n">
-        <v>98.00667869640446</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N13" t="n">
-        <v>87.73940407820889</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O13" t="n">
-        <v>101.5598123342492</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P13" t="n">
-        <v>106.1564807491434</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>131.6542655994259</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K14" t="n">
-        <v>146.0645877545816</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L14" t="n">
-        <v>143.9315300967061</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M14" t="n">
-        <v>128.1622291178006</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N14" t="n">
-        <v>125.5756154705403</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O14" t="n">
-        <v>132.0474536396229</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P14" t="n">
-        <v>147.5489424727328</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q14" t="n">
-        <v>159.4624509671762</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>97.42030488819118</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K15" t="n">
-        <v>87.56255053286915</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L15" t="n">
-        <v>70.94820947007287</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M15" t="n">
-        <v>63.24082194752643</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N15" t="n">
-        <v>50.36043154195551</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O15" t="n">
-        <v>68.51419372642016</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P15" t="n">
-        <v>74.51703052415492</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q15" t="n">
-        <v>100.2360922216349</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9085,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>98.68523142864919</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L16" t="n">
-        <v>96.0752436257761</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M16" t="n">
-        <v>98.00667869640446</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N16" t="n">
-        <v>87.73940407820889</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O16" t="n">
-        <v>101.5598123342492</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P16" t="n">
-        <v>106.1564807491434</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>131.6542655994259</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K17" t="n">
-        <v>146.0645877545816</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L17" t="n">
-        <v>143.9315300967061</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M17" t="n">
-        <v>128.1622291178006</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N17" t="n">
-        <v>125.5756154705403</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O17" t="n">
-        <v>132.0474536396229</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P17" t="n">
-        <v>147.5489424727328</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q17" t="n">
-        <v>159.4624509671762</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>97.42030488819118</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K18" t="n">
-        <v>87.56255053286915</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L18" t="n">
-        <v>70.94820947007287</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M18" t="n">
-        <v>63.24082194752643</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N18" t="n">
-        <v>50.36043154195551</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O18" t="n">
-        <v>68.51419372642016</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P18" t="n">
-        <v>74.51703052415492</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q18" t="n">
-        <v>100.2360922216349</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9322,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>98.68523142864919</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L19" t="n">
-        <v>96.0752436257761</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M19" t="n">
-        <v>98.00667869640446</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N19" t="n">
-        <v>87.73940407820889</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O19" t="n">
-        <v>101.5598123342492</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P19" t="n">
-        <v>106.1564807491434</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
-        <v>188.1540696014853</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L20" t="n">
-        <v>226.8120702076072</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M20" t="n">
-        <v>211.0427692287017</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N20" t="n">
-        <v>208.4561555814414</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O20" t="n">
-        <v>132.0474536396229</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P20" t="n">
-        <v>147.5489424727328</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q20" t="n">
-        <v>159.4624509671762</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K21" t="n">
-        <v>87.56255053286915</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L21" t="n">
-        <v>153.828749580974</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M21" t="n">
-        <v>146.1213620584276</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N21" t="n">
-        <v>101.2215325092894</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O21" t="n">
-        <v>68.51419372642016</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P21" t="n">
-        <v>157.3975706350561</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q21" t="n">
-        <v>100.2360922216349</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9559,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L22" t="n">
-        <v>162.4747015415544</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M22" t="n">
-        <v>178.5096609094456</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N22" t="n">
-        <v>170.61994418911</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O22" t="n">
-        <v>163.0416663658825</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P22" t="n">
-        <v>135.0065633140412</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>131.6542655994259</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
-        <v>228.9451278654827</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
-        <v>223.4633615162577</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M23" t="n">
-        <v>211.0427692287017</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N23" t="n">
-        <v>125.5756154705403</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
-        <v>214.927993750524</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P23" t="n">
-        <v>147.5489424727328</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
-        <v>159.4624509671762</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K24" t="n">
-        <v>138.4236515002031</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L24" t="n">
-        <v>153.828749580974</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M24" t="n">
-        <v>146.1213620584276</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N24" t="n">
-        <v>50.36043154195551</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
-        <v>68.51419372642016</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P24" t="n">
-        <v>74.51703052415492</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
-        <v>183.1166323325361</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9796,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L25" t="n">
-        <v>162.4747015415544</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M25" t="n">
-        <v>178.5096609094456</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N25" t="n">
-        <v>170.61994418911</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O25" t="n">
-        <v>163.0416663658825</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
-        <v>135.0065633140412</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>131.6542655994259</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
-        <v>228.9451278654827</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L26" t="n">
-        <v>170.6108218235291</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
-        <v>211.0427692287017</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N26" t="n">
-        <v>208.4561555814414</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
-        <v>132.0474536396229</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P26" t="n">
-        <v>147.5489424727328</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K27" t="n">
-        <v>170.4430906437703</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L27" t="n">
-        <v>153.828749580974</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M27" t="n">
-        <v>146.1213620584276</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N27" t="n">
-        <v>101.2215325092895</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O27" t="n">
-        <v>68.51419372642016</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P27" t="n">
-        <v>74.51703052415492</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
-        <v>100.2360922216349</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10033,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L28" t="n">
-        <v>162.4747015415544</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M28" t="n">
-        <v>178.5096609094456</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N28" t="n">
-        <v>170.61994418911</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O28" t="n">
-        <v>163.0416663658825</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P28" t="n">
-        <v>135.0065633140411</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K29" t="n">
-        <v>228.9451278654827</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
-        <v>216.0490123617824</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M29" t="n">
-        <v>128.1622291178006</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N29" t="n">
-        <v>125.5756154705403</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
-        <v>214.927993750524</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
-        <v>147.5489424727328</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>97.42030488819118</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K30" t="n">
-        <v>87.56255053286915</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L30" t="n">
-        <v>70.94820947007287</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M30" t="n">
-        <v>63.24082194752643</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N30" t="n">
-        <v>133.2409716528566</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O30" t="n">
-        <v>151.3947338373213</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P30" t="n">
-        <v>154.0488619437065</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q30" t="n">
-        <v>183.1166323325361</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10270,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L31" t="n">
-        <v>162.4747015415544</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M31" t="n">
-        <v>178.5096609094456</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N31" t="n">
-        <v>170.61994418911</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O31" t="n">
-        <v>163.0416663658825</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P31" t="n">
-        <v>135.0065633140412</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>131.6542655994259</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K32" t="n">
-        <v>228.9451278654827</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L32" t="n">
-        <v>226.8120702076072</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M32" t="n">
-        <v>154.8415208446236</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N32" t="n">
-        <v>208.4561555814414</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O32" t="n">
-        <v>132.0474536396229</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P32" t="n">
-        <v>147.5489424727328</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K33" t="n">
-        <v>87.56255053286915</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L33" t="n">
-        <v>70.94820947007287</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M33" t="n">
-        <v>63.24082194752643</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N33" t="n">
-        <v>101.2215325092894</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O33" t="n">
-        <v>151.3947338373213</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P33" t="n">
-        <v>157.3975706350561</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q33" t="n">
-        <v>183.1166323325361</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10507,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L34" t="n">
-        <v>162.4747015415544</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M34" t="n">
-        <v>178.5096609094456</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N34" t="n">
-        <v>170.61994418911</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O34" t="n">
-        <v>163.0416663658825</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P34" t="n">
-        <v>135.0065633140412</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>131.6542655994259</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K35" t="n">
-        <v>228.9451278654827</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L35" t="n">
-        <v>223.4633615162577</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M35" t="n">
-        <v>211.0427692287017</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N35" t="n">
-        <v>208.4561555814414</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O35" t="n">
-        <v>132.0474536396229</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P35" t="n">
-        <v>147.5489424727328</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
-        <v>159.4624509671762</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>97.42030488819118</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K36" t="n">
-        <v>170.4430906437703</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L36" t="n">
-        <v>150.4800408896244</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M36" t="n">
-        <v>146.1213620584276</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N36" t="n">
-        <v>133.2409716528566</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O36" t="n">
-        <v>68.51419372642016</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P36" t="n">
-        <v>74.51703052415492</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q36" t="n">
-        <v>100.2360922216349</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10744,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L37" t="n">
-        <v>162.4747015415544</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M37" t="n">
-        <v>178.5096609094456</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N37" t="n">
-        <v>170.61994418911</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O37" t="n">
-        <v>163.0416663658825</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P37" t="n">
-        <v>135.0065633140411</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>131.6542655994259</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
-        <v>146.0645877545816</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L38" t="n">
-        <v>226.8120702076072</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M38" t="n">
-        <v>211.0427692287017</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N38" t="n">
-        <v>205.1074468900919</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O38" t="n">
-        <v>214.927993750524</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P38" t="n">
-        <v>147.5489424727328</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q38" t="n">
-        <v>159.4624509671762</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>97.42030488819118</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K39" t="n">
-        <v>87.56255053286915</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L39" t="n">
-        <v>150.4800408896244</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M39" t="n">
-        <v>63.24082194752643</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N39" t="n">
-        <v>50.36043154195551</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O39" t="n">
-        <v>151.3947338373213</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P39" t="n">
-        <v>157.3975706350561</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q39" t="n">
-        <v>183.1166323325361</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10981,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L40" t="n">
-        <v>162.4747015415544</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M40" t="n">
-        <v>178.5096609094456</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N40" t="n">
-        <v>170.61994418911</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O40" t="n">
-        <v>163.0416663658825</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P40" t="n">
-        <v>135.0065633140411</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>131.6542655994259</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
-        <v>228.9451278654827</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L41" t="n">
-        <v>226.8120702076072</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M41" t="n">
-        <v>128.1622291178006</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N41" t="n">
-        <v>208.4561555814414</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O41" t="n">
-        <v>211.5792850591744</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P41" t="n">
-        <v>147.5489424727328</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q41" t="n">
-        <v>159.4624509671762</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
-        <v>87.56255053286915</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L42" t="n">
-        <v>121.8093104374068</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M42" t="n">
-        <v>146.1213620584276</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N42" t="n">
-        <v>133.2409716528566</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O42" t="n">
-        <v>68.51419372642016</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P42" t="n">
-        <v>74.51703052415492</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q42" t="n">
-        <v>183.1166323325361</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11218,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L43" t="n">
-        <v>162.4747015415544</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M43" t="n">
-        <v>178.5096609094456</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N43" t="n">
-        <v>170.61994418911</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O43" t="n">
-        <v>163.0416663658825</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P43" t="n">
-        <v>135.0065633140411</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>131.6542655994259</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
-        <v>146.0645877545816</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L44" t="n">
-        <v>143.9315300967061</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M44" t="n">
-        <v>128.1622291178006</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N44" t="n">
-        <v>125.5756154705403</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O44" t="n">
-        <v>132.0474536396229</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P44" t="n">
-        <v>147.5489424727328</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q44" t="n">
-        <v>159.4624509671762</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>97.42030488819118</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
-        <v>87.56255053286915</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L45" t="n">
-        <v>70.94820947007287</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M45" t="n">
-        <v>63.24082194752643</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N45" t="n">
-        <v>50.36043154195551</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O45" t="n">
-        <v>68.51419372642016</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P45" t="n">
-        <v>74.51703052415492</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q45" t="n">
-        <v>100.2360922216349</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11455,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>98.68523142864919</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L46" t="n">
-        <v>96.0752436257761</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M46" t="n">
-        <v>98.00667869640446</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N46" t="n">
-        <v>87.73940407820889</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O46" t="n">
-        <v>101.5598123342492</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P46" t="n">
-        <v>106.1564807491434</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23270,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.7207950543947</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H11" t="n">
-        <v>333.5149838897102</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I11" t="n">
-        <v>188.040552852714</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>113.3136748416693</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S11" t="n">
-        <v>195.7590557621249</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5483964422405</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2990975109773</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23349,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0321504965985</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H12" t="n">
-        <v>109.2282977457949</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I12" t="n">
-        <v>78.67633314568958</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>80.82578795719726</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S12" t="n">
-        <v>165.8996718358445</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T12" t="n">
-        <v>198.9097025254507</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9208974318556</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23428,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.7299400046554</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H13" t="n">
-        <v>159.9062953436239</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I13" t="n">
-        <v>147.6003096328796</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J13" t="n">
-        <v>74.90369780277223</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.30355699821131</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R13" t="n">
-        <v>165.5561127961547</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S13" t="n">
-        <v>219.4673940256893</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T13" t="n">
-        <v>226.8302394620306</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3047908462834</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23507,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.7207950543947</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H14" t="n">
-        <v>333.5149838897102</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I14" t="n">
-        <v>188.040552852714</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>113.3136748416693</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S14" t="n">
-        <v>195.7590557621249</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T14" t="n">
-        <v>220.5483964422405</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2990975109773</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23586,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0321504965985</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H15" t="n">
-        <v>109.2282977457949</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I15" t="n">
-        <v>78.67633314568958</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.82578795719726</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8996718358445</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T15" t="n">
-        <v>198.9097025254507</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9208974318556</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23665,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.7299400046554</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H16" t="n">
-        <v>159.9062953436239</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I16" t="n">
-        <v>147.6003096328796</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J16" t="n">
-        <v>74.90369780277223</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.30355699821131</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R16" t="n">
-        <v>165.5561127961547</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S16" t="n">
-        <v>219.4673940256893</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T16" t="n">
-        <v>226.8302394620306</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3047908462834</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23744,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.7207950543947</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H17" t="n">
-        <v>333.5149838897102</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I17" t="n">
-        <v>188.040552852714</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>113.3136748416693</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S17" t="n">
-        <v>195.7590557621249</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T17" t="n">
-        <v>220.5483964422405</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2990975109773</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23823,13 +23825,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0321504965985</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H18" t="n">
-        <v>109.2282977457949</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I18" t="n">
-        <v>78.67633314568958</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.82578795719726</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S18" t="n">
-        <v>165.8996718358445</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T18" t="n">
-        <v>198.9097025254507</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9208974318556</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23902,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.7299400046554</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H19" t="n">
-        <v>159.9062953436239</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I19" t="n">
-        <v>147.6003096328796</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J19" t="n">
-        <v>74.90369780277223</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.30355699821131</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R19" t="n">
-        <v>165.5561127961547</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S19" t="n">
-        <v>219.4673940256893</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T19" t="n">
-        <v>226.8302394620306</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3047908462834</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23972,7 +23974,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>271.8025015097818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23981,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.7207950543947</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H20" t="n">
-        <v>250.634443778809</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I20" t="n">
-        <v>188.040552852714</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>113.3136748416693</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S20" t="n">
-        <v>112.8785156512237</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T20" t="n">
-        <v>147.5472167125588</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2990975109773</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24060,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>54.15161038569735</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H21" t="n">
-        <v>109.2282977457949</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I21" t="n">
-        <v>78.67633314568958</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.824608227515583</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S21" t="n">
-        <v>83.01913172494338</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T21" t="n">
-        <v>198.9097025254507</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9208974318556</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24114,7 +24116,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>122.8021556664032</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24139,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.7299400046554</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H22" t="n">
-        <v>159.9062953436239</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I22" t="n">
-        <v>147.6003096328796</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J22" t="n">
-        <v>74.90369780277223</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,25 +24171,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.30355699821131</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R22" t="n">
-        <v>165.5561127961547</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S22" t="n">
-        <v>136.5868539147882</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T22" t="n">
-        <v>143.9496993511295</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U22" t="n">
-        <v>203.4242507353823</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>213.5218186069093</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24209,7 +24211,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>271.8025015097818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24218,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.7207950543947</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H23" t="n">
-        <v>333.5149838897102</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I23" t="n">
-        <v>105.1600127418128</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>113.3136748416693</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S23" t="n">
-        <v>195.7590557621249</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T23" t="n">
-        <v>220.5483964422405</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2990975109773</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>266.3604286065118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>313.2367589263719</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24285,25 +24287,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>99.70731925863403</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>64.56452545373762</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>62.18867228248274</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0321504965985</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H24" t="n">
-        <v>109.2282977457949</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I24" t="n">
-        <v>78.67633314568958</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.82578795719726</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S24" t="n">
-        <v>83.01913172494338</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T24" t="n">
-        <v>198.9097025254507</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9208974318556</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>96.95144007103616</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>94.72876027497365</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H25" t="n">
-        <v>159.9062953436239</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I25" t="n">
-        <v>147.6003096328796</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J25" t="n">
-        <v>74.90369780277223</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,25 +24408,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.30355699821131</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R25" t="n">
-        <v>82.67557268525354</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S25" t="n">
-        <v>219.4673940256893</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T25" t="n">
-        <v>226.8302394620306</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3047908462834</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>203.6424582256899</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>299.8533015525794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>292.2717120413258</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,16 +24454,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>323.9955056308103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.7207950543947</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H26" t="n">
-        <v>333.5149838897102</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I26" t="n">
-        <v>188.040552852714</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>30.43313473076819</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S26" t="n">
-        <v>195.7590557621249</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T26" t="n">
-        <v>220.5483964422405</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2990975109773</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24534,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0321504965985</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H27" t="n">
-        <v>109.2282977457949</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,22 +24569,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.82578795719726</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S27" t="n">
-        <v>83.01913172494338</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T27" t="n">
-        <v>198.9097025254507</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9208974318556</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V27" t="n">
-        <v>155.595200454532</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>168.8144430500185</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24613,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.7299400046554</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H28" t="n">
-        <v>159.9062953436239</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I28" t="n">
-        <v>147.6003096328796</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,31 +24645,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.30355699821131</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R28" t="n">
-        <v>165.5561127961547</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S28" t="n">
-        <v>219.4673940256893</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T28" t="n">
-        <v>226.8302394620306</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3047908462834</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>203.6424582256899</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>142.829115278136</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>137.6066313142842</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24683,7 +24685,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>281.6818618910013</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24692,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>331.8402549434936</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H29" t="n">
-        <v>250.634443778809</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I29" t="n">
-        <v>105.1600127418128</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>113.3136748416693</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S29" t="n">
-        <v>195.7590557621249</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5483964422405</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2990975109773</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24771,13 +24773,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0321504965985</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H30" t="n">
-        <v>109.2282977457949</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I30" t="n">
-        <v>78.67633314568958</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,22 +24806,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.82578795719726</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S30" t="n">
-        <v>92.89849210616283</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T30" t="n">
-        <v>198.9097025254507</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U30" t="n">
-        <v>143.0403573209545</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V30" t="n">
-        <v>149.9200470385241</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>168.8144430500185</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24838,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>84.3662809877267</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24850,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.7299400046554</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H31" t="n">
-        <v>159.9062953436239</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I31" t="n">
-        <v>147.6003096328796</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J31" t="n">
-        <v>74.90369780277223</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,31 +24882,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.30355699821131</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R31" t="n">
-        <v>165.5561127961547</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S31" t="n">
-        <v>136.5868539147882</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T31" t="n">
-        <v>226.8302394620306</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3047908462834</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>203.6424582256899</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>145.5834736224131</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24929,13 +24931,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.7207950543947</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H32" t="n">
-        <v>250.634443778809</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I32" t="n">
-        <v>188.040552852714</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>113.3136748416693</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S32" t="n">
-        <v>195.7590557621249</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T32" t="n">
-        <v>220.5483964422405</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U32" t="n">
-        <v>168.4185574000761</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>266.3604286065118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>296.7299209487873</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24999,22 +25001,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>74.44388583495707</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>74.76454034449981</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>62.18867228248274</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0321504965985</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H33" t="n">
-        <v>26.34775763489372</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I33" t="n">
-        <v>78.67633314568958</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>80.82578795719726</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S33" t="n">
-        <v>165.8996718358445</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T33" t="n">
-        <v>198.9097025254507</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9208974318556</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>96.95144007103616</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25084,19 +25086,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>136.7234252914608</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.7299400046554</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H34" t="n">
-        <v>159.9062953436239</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I34" t="n">
-        <v>147.6003096328796</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J34" t="n">
-        <v>74.90369780277223</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,25 +25119,25 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R34" t="n">
-        <v>165.5561127961547</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S34" t="n">
-        <v>219.4673940256893</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T34" t="n">
-        <v>226.8302394620306</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3047908462834</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V34" t="n">
-        <v>169.2571032129269</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>203.6424582256899</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25166,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.7207950543947</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H35" t="n">
-        <v>333.5149838897102</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I35" t="n">
-        <v>105.1600127418128</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>30.43313473076819</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S35" t="n">
-        <v>195.7590557621249</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T35" t="n">
-        <v>147.5472167125588</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2990975109773</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V35" t="n">
-        <v>244.8717183592338</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25245,13 +25247,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0321504965985</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H36" t="n">
-        <v>109.2282977457949</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I36" t="n">
-        <v>78.67633314568958</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S36" t="n">
-        <v>90.84373995245892</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T36" t="n">
-        <v>116.0291624145495</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U36" t="n">
-        <v>143.0403573209545</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>96.95144007103616</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25324,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>94.72876027497365</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H37" t="n">
-        <v>159.9062953436239</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I37" t="n">
-        <v>64.71976952197846</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J37" t="n">
-        <v>74.90369780277223</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>64.30355699821131</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R37" t="n">
-        <v>165.5561127961547</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S37" t="n">
-        <v>219.4673940256893</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T37" t="n">
-        <v>226.8302394620306</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3047908462834</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>135.7041132411937</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25403,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.7207950543947</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H38" t="n">
-        <v>333.5149838897102</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I38" t="n">
-        <v>188.040552852714</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>30.43313473076819</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S38" t="n">
-        <v>112.8785156512237</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T38" t="n">
-        <v>147.5472167125588</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2990975109773</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25457,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>303.3573985451525</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25482,13 +25484,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0321504965985</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H39" t="n">
-        <v>109.2282977457949</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I39" t="n">
-        <v>78.67633314568958</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,19 +25517,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S39" t="n">
-        <v>83.01913172494338</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T39" t="n">
-        <v>198.9097025254507</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U39" t="n">
-        <v>143.0403573209545</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V39" t="n">
-        <v>157.7446552660397</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25546,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>171.1343574504669</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>65.73493290731122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>63.55342253566803</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.7299400046554</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H40" t="n">
-        <v>159.9062953436239</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I40" t="n">
-        <v>64.71976952197846</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J40" t="n">
-        <v>74.90369780277223</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R40" t="n">
-        <v>165.5561127961547</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S40" t="n">
-        <v>219.4673940256893</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T40" t="n">
-        <v>226.8302394620306</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3047908462834</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>299.8533015525794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>281.6818618910012</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25640,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.7207950543947</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H41" t="n">
-        <v>333.5149838897102</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I41" t="n">
-        <v>188.040552852714</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,25 +25675,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>113.3136748416693</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S41" t="n">
-        <v>195.7590557621249</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T41" t="n">
-        <v>220.5483964422405</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2990975109773</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V41" t="n">
-        <v>244.8717183592338</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>286.8505605675679</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25707,25 +25709,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>89.8279588774146</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>84.64390072571923</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0321504965985</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H42" t="n">
-        <v>109.2282977457949</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I42" t="n">
-        <v>78.67633314568958</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>80.82578795719726</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S42" t="n">
-        <v>165.8996718358445</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T42" t="n">
-        <v>198.9097025254507</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9208974318556</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25770,10 +25772,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>122.8924450925763</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>122.8021556664032</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25786,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>84.3662809877267</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25798,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.7299400046554</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H43" t="n">
-        <v>159.9062953436239</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I43" t="n">
-        <v>147.6003096328796</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J43" t="n">
-        <v>74.90369780277223</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,22 +25830,22 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.30355699821131</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R43" t="n">
-        <v>165.5561127961547</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S43" t="n">
-        <v>146.4662142960076</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T43" t="n">
-        <v>143.9496993511295</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3047908462834</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V43" t="n">
-        <v>169.2571032129269</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25877,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.7207950543947</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H44" t="n">
-        <v>333.5149838897102</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I44" t="n">
-        <v>188.040552852714</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>113.3136748416693</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S44" t="n">
-        <v>195.7590557621249</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T44" t="n">
-        <v>220.5483964422405</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2990975109773</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25956,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0321504965985</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H45" t="n">
-        <v>109.2282977457949</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I45" t="n">
-        <v>78.67633314568958</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.82578795719726</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S45" t="n">
-        <v>165.8996718358445</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T45" t="n">
-        <v>198.9097025254507</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9208974318556</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26035,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.7299400046554</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H46" t="n">
-        <v>159.9062953436239</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I46" t="n">
-        <v>147.6003096328796</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J46" t="n">
-        <v>74.90369780277223</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>64.30355699821131</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R46" t="n">
-        <v>165.5561127961547</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S46" t="n">
-        <v>219.4673940256893</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T46" t="n">
-        <v>226.8302394620306</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3047908462834</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>283989.9166772144</v>
+        <v>280263.5648954738</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>283989.9166772144</v>
+        <v>280263.5648954738</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>283989.9166772144</v>
+        <v>280263.5648954738</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>351336.7650462182</v>
+        <v>280263.5648954738</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>351336.7650462182</v>
+        <v>280263.5648954738</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>351336.7650462182</v>
+        <v>280263.5648954738</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>351336.7650462182</v>
+        <v>280263.5648954738</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>351336.7650462182</v>
+        <v>280263.5648954738</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>351336.7650462181</v>
+        <v>280263.5648954738</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>351336.7650462182</v>
+        <v>280263.5648954738</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>351336.7650462181</v>
+        <v>280263.5648954738</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>283989.9166772144</v>
+        <v>280263.5648954738</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>634939.1625057047</v>
       </c>
       <c r="C2" t="n">
+        <v>634939.1625057048</v>
+      </c>
+      <c r="D2" t="n">
         <v>634939.1625057049</v>
       </c>
-      <c r="D2" t="n">
-        <v>634939.1625057047</v>
-      </c>
       <c r="E2" t="n">
-        <v>176096.4605162491</v>
+        <v>177196.8496322885</v>
       </c>
       <c r="F2" t="n">
-        <v>176096.4605162491</v>
+        <v>177196.8496322885</v>
       </c>
       <c r="G2" t="n">
-        <v>176096.4605162491</v>
+        <v>177196.8496322885</v>
       </c>
       <c r="H2" t="n">
-        <v>212490.343343308</v>
+        <v>177196.8496322885</v>
       </c>
       <c r="I2" t="n">
-        <v>212490.343343308</v>
+        <v>177196.8496322885</v>
       </c>
       <c r="J2" t="n">
-        <v>212490.3433433079</v>
+        <v>177196.8496322885</v>
       </c>
       <c r="K2" t="n">
-        <v>212490.3433433079</v>
+        <v>177196.8496322885</v>
       </c>
       <c r="L2" t="n">
-        <v>212490.3433433079</v>
+        <v>177196.8496322885</v>
       </c>
       <c r="M2" t="n">
-        <v>212490.3433433079</v>
+        <v>177196.8496322885</v>
       </c>
       <c r="N2" t="n">
-        <v>212490.3433433079</v>
+        <v>177196.8496322885</v>
       </c>
       <c r="O2" t="n">
-        <v>212490.343343308</v>
+        <v>177196.8496322885</v>
       </c>
       <c r="P2" t="n">
-        <v>176096.4605162491</v>
+        <v>177196.8496322885</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>116299.16179806</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>22361.91564678212</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>441649.2499958206</v>
+        <v>441649.2499958205</v>
       </c>
       <c r="C4" t="n">
-        <v>441649.2499958206</v>
+        <v>441649.2499958205</v>
       </c>
       <c r="D4" t="n">
-        <v>441649.2499958206</v>
+        <v>441649.2499958205</v>
       </c>
       <c r="E4" t="n">
-        <v>62449.20828580427</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="F4" t="n">
-        <v>62449.20828580427</v>
+        <v>57338.49600323977</v>
       </c>
       <c r="G4" t="n">
-        <v>62449.20828580427</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="H4" t="n">
-        <v>84082.07405186119</v>
+        <v>57338.49600323977</v>
       </c>
       <c r="I4" t="n">
-        <v>84082.07405186116</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="J4" t="n">
-        <v>84082.07405186119</v>
+        <v>57338.49600323977</v>
       </c>
       <c r="K4" t="n">
-        <v>84082.07405186119</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="L4" t="n">
-        <v>84082.07405186117</v>
+        <v>57338.49600323977</v>
       </c>
       <c r="M4" t="n">
-        <v>84082.07405186119</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="N4" t="n">
-        <v>84082.07405186117</v>
+        <v>57338.49600323977</v>
       </c>
       <c r="O4" t="n">
-        <v>84082.07405186119</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="P4" t="n">
-        <v>62449.20828580427</v>
+        <v>57338.49600323977</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>3155.728478979676</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="F5" t="n">
-        <v>3155.728478979676</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="G5" t="n">
-        <v>3155.728478979676</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="H5" t="n">
-        <v>8194.865317722466</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="I5" t="n">
-        <v>8194.865317722466</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="J5" t="n">
-        <v>8194.865317722466</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="K5" t="n">
-        <v>8194.865317722466</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="L5" t="n">
-        <v>8194.865317722466</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="M5" t="n">
-        <v>8194.865317722466</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="N5" t="n">
-        <v>8194.865317722466</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="O5" t="n">
-        <v>8194.865317722466</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="P5" t="n">
-        <v>3155.728478979676</v>
+        <v>3611.612105008322</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>159662.3125098841</v>
+        <v>159662.3125098842</v>
       </c>
       <c r="C6" t="n">
+        <v>159662.3125098843</v>
+      </c>
+      <c r="D6" t="n">
         <v>159662.3125098844</v>
       </c>
-      <c r="D6" t="n">
-        <v>159662.3125098841</v>
-      </c>
       <c r="E6" t="n">
-        <v>-5807.638046594853</v>
+        <v>-16853.25847595961</v>
       </c>
       <c r="F6" t="n">
-        <v>110491.5237514652</v>
+        <v>116246.7415240405</v>
       </c>
       <c r="G6" t="n">
-        <v>110491.5237514652</v>
+        <v>116246.7415240405</v>
       </c>
       <c r="H6" t="n">
-        <v>97851.4883269422</v>
+        <v>116246.7415240405</v>
       </c>
       <c r="I6" t="n">
-        <v>120213.4039737243</v>
+        <v>116246.7415240405</v>
       </c>
       <c r="J6" t="n">
-        <v>120213.4039737243</v>
+        <v>116246.7415240405</v>
       </c>
       <c r="K6" t="n">
-        <v>120213.4039737243</v>
+        <v>116246.7415240405</v>
       </c>
       <c r="L6" t="n">
-        <v>120213.4039737243</v>
+        <v>116246.7415240405</v>
       </c>
       <c r="M6" t="n">
-        <v>120213.4039737243</v>
+        <v>116246.7415240405</v>
       </c>
       <c r="N6" t="n">
-        <v>120213.4039737243</v>
+        <v>116246.7415240405</v>
       </c>
       <c r="O6" t="n">
-        <v>120213.4039737243</v>
+        <v>116246.7415240405</v>
       </c>
       <c r="P6" t="n">
-        <v>110491.5237514652</v>
+        <v>116246.7415240405</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="F3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="G3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="H3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="I3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="J3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="K3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="L3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="M3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="N3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="O3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="P3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
     </row>
     <row r="4">
@@ -26805,28 +26807,28 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27027,7 +27029,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H11" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I11" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J11" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K11" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L11" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M11" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N11" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O11" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P11" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q11" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R11" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S11" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T11" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H12" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I12" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J12" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K12" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L12" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M12" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N12" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O12" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P12" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q12" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R12" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S12" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T12" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H13" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I13" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J13" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K13" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L13" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M13" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N13" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O13" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P13" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q13" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R13" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S13" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T13" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H14" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I14" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J14" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K14" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L14" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M14" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N14" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O14" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P14" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q14" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R14" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S14" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T14" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H15" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I15" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J15" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K15" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L15" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M15" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N15" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O15" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P15" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q15" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R15" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S15" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T15" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H16" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I16" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J16" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K16" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L16" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M16" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N16" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O16" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P16" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q16" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R16" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S16" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T16" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H17" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I17" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J17" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K17" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L17" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M17" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N17" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O17" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P17" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q17" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R17" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S17" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T17" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H18" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I18" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J18" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K18" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L18" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M18" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N18" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O18" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P18" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q18" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R18" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S18" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T18" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H19" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I19" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J19" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K19" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L19" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M19" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N19" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O19" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P19" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q19" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R19" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S19" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T19" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H20" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I20" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J20" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K20" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L20" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M20" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N20" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O20" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P20" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q20" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R20" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S20" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T20" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H21" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I21" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J21" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K21" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L21" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M21" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N21" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O21" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P21" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q21" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R21" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S21" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T21" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H22" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I22" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J22" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K22" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L22" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M22" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N22" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O22" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P22" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q22" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R22" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S22" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T22" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H23" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I23" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J23" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K23" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L23" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M23" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N23" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O23" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P23" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q23" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R23" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S23" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T23" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H24" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I24" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J24" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K24" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L24" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M24" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N24" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O24" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P24" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q24" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R24" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S24" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T24" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H25" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I25" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J25" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K25" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L25" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M25" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N25" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O25" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P25" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q25" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R25" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S25" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T25" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H26" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I26" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J26" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K26" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L26" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M26" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N26" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O26" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P26" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q26" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R26" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S26" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T26" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H27" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I27" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J27" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K27" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L27" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M27" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N27" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O27" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P27" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q27" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R27" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S27" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T27" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H28" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I28" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J28" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K28" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L28" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M28" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N28" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O28" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P28" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q28" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R28" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S28" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T28" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H29" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I29" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J29" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K29" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L29" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M29" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N29" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O29" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P29" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q29" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R29" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S29" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T29" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H30" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I30" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J30" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K30" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L30" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M30" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N30" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O30" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P30" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q30" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R30" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S30" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T30" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H31" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I31" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J31" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K31" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L31" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M31" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N31" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O31" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P31" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q31" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R31" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S31" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T31" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H32" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I32" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J32" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K32" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L32" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M32" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N32" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O32" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P32" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q32" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R32" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S32" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T32" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H33" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I33" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J33" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K33" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L33" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M33" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N33" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O33" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P33" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q33" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R33" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S33" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T33" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H34" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I34" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J34" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K34" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L34" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M34" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N34" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O34" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P34" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q34" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R34" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S34" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T34" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H35" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I35" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J35" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K35" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L35" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M35" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N35" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O35" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P35" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q35" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R35" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S35" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T35" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H36" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I36" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J36" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K36" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L36" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M36" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N36" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O36" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P36" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q36" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R36" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S36" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T36" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H37" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I37" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J37" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K37" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L37" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M37" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N37" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O37" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P37" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q37" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R37" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S37" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T37" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H38" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I38" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J38" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K38" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L38" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M38" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N38" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O38" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P38" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q38" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R38" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S38" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T38" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H39" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I39" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J39" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K39" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L39" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M39" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N39" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O39" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P39" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q39" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R39" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S39" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T39" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H40" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I40" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J40" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K40" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L40" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M40" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N40" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O40" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P40" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q40" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R40" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S40" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T40" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H41" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I41" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J41" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K41" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L41" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M41" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N41" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O41" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P41" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q41" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R41" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S41" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T41" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H42" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I42" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J42" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K42" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L42" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M42" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N42" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O42" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P42" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q42" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R42" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S42" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T42" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H43" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I43" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J43" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K43" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L43" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M43" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N43" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O43" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P43" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q43" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R43" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S43" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T43" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H44" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I44" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J44" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K44" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L44" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M44" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N44" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O44" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P44" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q44" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R44" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S44" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T44" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H45" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I45" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J45" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K45" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L45" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M45" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N45" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O45" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P45" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q45" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R45" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S45" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T45" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H46" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I46" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J46" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K46" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L46" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M46" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N46" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O46" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P46" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q46" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R46" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S46" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T46" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -36118,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>37.44234957264788</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>42.08948184690371</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>28.67073045221765</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>50.86110096733393</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36279,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.058534916003332</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>66.39945791577833</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>80.50298221304118</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>61.48185403163331</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>28.85008256489774</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36358,19 +36360,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>79.53183141955158</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36434,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>28.67073045221765</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>50.86110096733393</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36455,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>8.058534916003332</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>66.39945791577833</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>80.50298221304118</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>61.48185403163331</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>28.85008256489774</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36595,16 +36597,16 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>26.67929172682305</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -36613,7 +36615,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>52.85253969272853</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>28.67073045221765</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>50.86110096733396</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36753,22 +36755,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>8.058534916003358</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>66.39945791577833</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>80.50298221304118</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>61.48185403163331</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>28.85008256489769</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>37.44234957264788</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>72.11748226507632</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -36844,13 +36846,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>52.85253969272853</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36920,16 +36922,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>79.53183141955158</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,22 +36992,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>8.058534916003332</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>66.39945791577833</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>80.50298221304118</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>61.48185403163331</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>28.85008256489774</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37069,16 +37071,16 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>26.67929172682305</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -37087,7 +37089,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>52.85253969272853</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>28.67073045221765</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37157,16 +37159,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>50.86110096733393</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,22 +37229,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>8.058534916003332</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>66.39945791577833</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>80.50298221304118</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>61.48185403163331</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>28.85008256489774</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37306,16 +37308,16 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>79.53183141955158</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -37385,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>79.53183141955158</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37464,22 +37466,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>8.058534916003332</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>66.39945791577833</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>80.50298221304118</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>61.48185403163331</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>28.85008256489769</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37546,16 +37548,16 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>79.53183141955158</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37625,7 +37627,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>79.53183141955158</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37634,13 +37636,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>8.058534916003332</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>66.39945791577833</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>80.50298221304118</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>61.48185403163331</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>28.85008256489769</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37780,19 +37782,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>79.53183141955158</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37856,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>28.67073045221765</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>50.86110096733393</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>8.058534916003332</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>66.39945791577833</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>80.50298221304118</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>61.48185403163331</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>28.85008256489769</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1005091.421417109</v>
+        <v>923399.8595413232</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8041589.773721423</v>
+        <v>6765418.657980112</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17785260.94054101</v>
+        <v>16875224.36884906</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5016500.118145468</v>
+        <v>5407693.338191732</v>
       </c>
     </row>
     <row r="11">
@@ -2329,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>73.73075715809459</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2405,19 +2405,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>78.91048553587156</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2520,19 +2520,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>9.727356832651337</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>73.73075715809459</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2648,13 +2648,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>78.91048553587157</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>73.73075715809453</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
     </row>
     <row r="30">
@@ -2870,16 +2870,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>73.73075715809459</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
     </row>
     <row r="32">
@@ -3040,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
     </row>
     <row r="36">
@@ -3404,16 +3404,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>73.73075715809459</v>
       </c>
     </row>
     <row r="37">
@@ -3429,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>76.87928562742994</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3714,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>73.73075715809451</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>83.70885235932624</v>
       </c>
     </row>
     <row r="42">
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>82.05901400520686</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>73.73075715809451</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3982,16 +3982,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>73.73075715809452</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4070,13 +4070,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>76.87928562742991</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4140,13 +4140,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>73.73075715809451</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>81.17222046964973</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>89.56847202447911</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>172.4402358602121</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>172.4402358602121</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>198.7853091397773</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>281.6570729755103</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>170.5734519674083</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>86.01905564485649</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>35.48064500251785</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>35.48064500251785</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>35.48064500251785</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>86.22011793010604</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>169.091881765839</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>251.9636456015721</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>251.9636456015721</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>15.08695199673551</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>81.35001001408398</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>161.6042370215896</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>244.4760008573226</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>305.8446287478054</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>270.1855101186756</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>185.6311137961238</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>44.43608870824591</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>127.3078525439789</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>127.3078525439789</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>127.3078525439789</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>198.7853091397773</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>198.7853091397773</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>281.6570729755103</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>86.01905564485649</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>86.01905564485649</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>35.48064500251785</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>35.48064500251785</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>35.48064500251785</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>118.3524088382509</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>118.3524088382509</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>169.091881765839</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>251.9636456015721</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>81.17222046964967</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>81.17222046964967</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>15.08695199673548</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>81.35001001408396</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>161.6042370215895</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>244.4760008573226</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>305.8446287478054</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>44.43608870824591</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>86.22011793010604</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>169.091881765839</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>251.9636456015721</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>89.56847202447911</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>89.56847202447911</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>172.4402358602121</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>255.3119996959451</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>15.08695199673554</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>81.35001001408402</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>161.6042370215896</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>244.4760008573226</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>305.8446287478054</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>44.43608870824591</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>44.43608870824591</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>127.3078525439789</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>127.3078525439789</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>169.091881765839</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>251.9636456015721</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>260.3598971564015</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>260.3598971564015</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>260.3598971564015</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>260.3598971564015</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>35.48064500251785</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>35.48064500251785</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>118.3524088382509</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>169.091881765839</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>251.9636456015721</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>260.3598971564015</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>260.3598971564015</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>15.08695199673548</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>81.35001001408396</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>161.6042370215895</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>244.4760008573226</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>305.8446287478054</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>44.43608870824591</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>115.9135453040443</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>198.7853091397773</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>198.7853091397773</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>198.7853091397773</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>198.7853091397773</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>281.6570729755103</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>260.3598971564015</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>260.3598971564015</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>260.3598971564015</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>86.22011793010604</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>169.091881765839</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>169.091881765839</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>251.9636456015721</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>81.17222046964973</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>260.3598971564015</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>15.08695199673548</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>81.35001001408402</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>161.6042370215896</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>244.4760008573226</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>305.8446287478054</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>44.43608870824591</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>86.22011793010604</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>86.22011793010604</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>169.091881765839</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>251.9636456015721</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>260.3598971564015</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>84.35255225685715</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>84.35255225685715</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>84.35255225685715</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>84.35255225685715</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>84.35255225685715</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>84.35255225685715</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>84.35255225685715</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>35.48064500251785</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>86.22011793010604</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>86.22011793010604</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>86.22011793010604</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>86.22011793010604</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>169.091881765839</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>251.9636456015721</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>253.4613449019608</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>84.35255225685715</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>84.35255225685715</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>84.35255225685715</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>84.35255225685715</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>84.35255225685715</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>84.35255225685715</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>6.696708188746102</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>15.08695199673548</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>81.35001001408396</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>161.6042370215896</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>244.4760008573226</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>305.8446287478054</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>334.8354094373051</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>91.2511045112979</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>81.17222046964964</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>33.04178146831131</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>115.9135453040443</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>198.7853091397773</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>281.6570729755102</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>250.2810131147532</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>250.2810131147532</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>250.2810131147532</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>165.7266167922014</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>86.01905564485649</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>86.01905564485649</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>86.01905564485649</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>86.01905564485649</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>86.01905564485649</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>86.01905564485649</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>35.48064500251784</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>86.22011793010607</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>169.091881765839</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>253.4613449019606</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>253.4613449019606</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>253.4613449019606</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>253.4613449019606</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>253.4613449019606</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>253.4613449019606</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>253.4613449019606</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>253.4613449019606</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>250.2810131147532</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>165.7266167922014</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>81.17222046964964</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>15.08695199673542</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>81.35001001408389</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>161.6042370215895</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>244.4760008573225</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>305.8446287478053</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>175.8055008338496</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>91.25110451129787</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>44.43608870824591</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>115.9135453040443</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>115.9135453040443</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>115.9135453040443</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>115.9135453040443</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>198.7853091397773</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>281.6570729755102</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>84.35255225685712</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>84.35255225685712</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>86.22011793010607</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>169.091881765839</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>253.4613449019606</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>253.4613449019606</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>253.4613449019606</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>253.4613449019606</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>253.4613449019606</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>253.4613449019606</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>253.4613449019606</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>253.4613449019606</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>250.2810131147532</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>165.7266167922014</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>81.17222046964964</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>81.17222046964964</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>81.17222046964964</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>6.6967081887461</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>15.08695199673548</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>81.35001001408396</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>161.6042370215895</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>244.4760008573225</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>305.8446287478053</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
     </row>
   </sheetData>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>124.5190384721106</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K11" t="n">
-        <v>135.370731907559</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L11" t="n">
-        <v>130.6648563030561</v>
+        <v>142.6704705170102</v>
       </c>
       <c r="M11" t="n">
-        <v>113.4004983079896</v>
+        <v>126.759057355221</v>
       </c>
       <c r="N11" t="n">
-        <v>110.5750244233121</v>
+        <v>124.1497389218713</v>
       </c>
       <c r="O11" t="n">
-        <v>117.8828208804077</v>
+        <v>130.7010388478133</v>
       </c>
       <c r="P11" t="n">
-        <v>135.4597561231036</v>
+        <v>146.3998085983305</v>
       </c>
       <c r="Q11" t="n">
-        <v>150.3839754851235</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>93.17061249236157</v>
+        <v>97.01635169013434</v>
       </c>
       <c r="K12" t="n">
-        <v>80.29914934735042</v>
+        <v>86.87213017667128</v>
       </c>
       <c r="L12" t="n">
-        <v>61.18167021676314</v>
+        <v>70.01985409800083</v>
       </c>
       <c r="M12" t="n">
-        <v>51.84373129681028</v>
+        <v>62.15747501601243</v>
       </c>
       <c r="N12" t="n">
-        <v>38.66169381481656</v>
+        <v>49.24841164076372</v>
       </c>
       <c r="O12" t="n">
-        <v>57.81213424001893</v>
+        <v>67.49691276755155</v>
       </c>
       <c r="P12" t="n">
-        <v>65.92768427608706</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q12" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8850,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>94.30397654773019</v>
+        <v>98.26877259920872</v>
       </c>
       <c r="L13" t="n">
-        <v>90.4687457914608</v>
+        <v>95.54231970584888</v>
       </c>
       <c r="M13" t="n">
-        <v>92.09541281912071</v>
+        <v>97.44478514428849</v>
       </c>
       <c r="N13" t="n">
-        <v>81.96869489115805</v>
+        <v>87.19087109886837</v>
       </c>
       <c r="O13" t="n">
-        <v>96.22962838366004</v>
+        <v>101.0531533451928</v>
       </c>
       <c r="P13" t="n">
-        <v>101.5955875616828</v>
+        <v>105.7229464559606</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>124.5190384721106</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K14" t="n">
-        <v>135.370731907559</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L14" t="n">
-        <v>130.6648563030561</v>
+        <v>142.6704705170102</v>
       </c>
       <c r="M14" t="n">
-        <v>113.4004983079896</v>
+        <v>126.759057355221</v>
       </c>
       <c r="N14" t="n">
-        <v>110.5750244233121</v>
+        <v>124.1497389218713</v>
       </c>
       <c r="O14" t="n">
-        <v>117.8828208804077</v>
+        <v>130.7010388478133</v>
       </c>
       <c r="P14" t="n">
-        <v>135.4597561231036</v>
+        <v>146.3998085983305</v>
       </c>
       <c r="Q14" t="n">
-        <v>150.3839754851235</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>93.17061249236157</v>
+        <v>97.01635169013434</v>
       </c>
       <c r="K15" t="n">
-        <v>80.29914934735042</v>
+        <v>86.87213017667128</v>
       </c>
       <c r="L15" t="n">
-        <v>61.18167021676314</v>
+        <v>70.01985409800083</v>
       </c>
       <c r="M15" t="n">
-        <v>51.84373129681028</v>
+        <v>62.15747501601243</v>
       </c>
       <c r="N15" t="n">
-        <v>38.66169381481656</v>
+        <v>49.24841164076372</v>
       </c>
       <c r="O15" t="n">
-        <v>57.81213424001893</v>
+        <v>67.49691276755155</v>
       </c>
       <c r="P15" t="n">
-        <v>65.92768427608706</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9087,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>94.30397654773019</v>
+        <v>98.26877259920872</v>
       </c>
       <c r="L16" t="n">
-        <v>90.4687457914608</v>
+        <v>95.54231970584888</v>
       </c>
       <c r="M16" t="n">
-        <v>92.09541281912071</v>
+        <v>97.44478514428849</v>
       </c>
       <c r="N16" t="n">
-        <v>81.96869489115805</v>
+        <v>87.19087109886837</v>
       </c>
       <c r="O16" t="n">
-        <v>96.22962838366004</v>
+        <v>101.0531533451928</v>
       </c>
       <c r="P16" t="n">
-        <v>101.5955875616828</v>
+        <v>105.7229464559606</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>124.5190384721106</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K17" t="n">
-        <v>135.370731907559</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L17" t="n">
-        <v>130.6648563030561</v>
+        <v>142.6704705170102</v>
       </c>
       <c r="M17" t="n">
-        <v>113.4004983079896</v>
+        <v>126.759057355221</v>
       </c>
       <c r="N17" t="n">
-        <v>110.5750244233121</v>
+        <v>124.1497389218713</v>
       </c>
       <c r="O17" t="n">
-        <v>117.8828208804077</v>
+        <v>130.7010388478133</v>
       </c>
       <c r="P17" t="n">
-        <v>135.4597561231036</v>
+        <v>146.3998085983305</v>
       </c>
       <c r="Q17" t="n">
-        <v>150.3839754851235</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>93.17061249236157</v>
+        <v>97.01635169013434</v>
       </c>
       <c r="K18" t="n">
-        <v>80.29914934735042</v>
+        <v>86.87213017667128</v>
       </c>
       <c r="L18" t="n">
-        <v>61.18167021676314</v>
+        <v>70.01985409800083</v>
       </c>
       <c r="M18" t="n">
-        <v>51.84373129681028</v>
+        <v>62.15747501601243</v>
       </c>
       <c r="N18" t="n">
-        <v>38.66169381481656</v>
+        <v>49.24841164076372</v>
       </c>
       <c r="O18" t="n">
-        <v>57.81213424001893</v>
+        <v>67.49691276755155</v>
       </c>
       <c r="P18" t="n">
-        <v>65.92768427608706</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9324,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>94.30397654773019</v>
+        <v>98.26877259920872</v>
       </c>
       <c r="L19" t="n">
-        <v>90.4687457914608</v>
+        <v>95.54231970584888</v>
       </c>
       <c r="M19" t="n">
-        <v>92.09541281912071</v>
+        <v>97.44478514428849</v>
       </c>
       <c r="N19" t="n">
-        <v>81.96869489115805</v>
+        <v>87.19087109886837</v>
       </c>
       <c r="O19" t="n">
-        <v>96.22962838366004</v>
+        <v>101.0531533451928</v>
       </c>
       <c r="P19" t="n">
-        <v>101.5955875616828</v>
+        <v>105.7229464559606</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>124.5190384721106</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K20" t="n">
-        <v>135.370731907559</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L20" t="n">
-        <v>130.6648563030561</v>
+        <v>142.6704705170102</v>
       </c>
       <c r="M20" t="n">
-        <v>113.4004983079896</v>
+        <v>126.759057355221</v>
       </c>
       <c r="N20" t="n">
-        <v>110.5750244233121</v>
+        <v>124.1497389218713</v>
       </c>
       <c r="O20" t="n">
-        <v>117.8828208804077</v>
+        <v>130.7010388478133</v>
       </c>
       <c r="P20" t="n">
-        <v>135.4597561231036</v>
+        <v>146.3998085983305</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.3839754851235</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>93.17061249236157</v>
+        <v>97.01635169013434</v>
       </c>
       <c r="K21" t="n">
-        <v>80.29914934735042</v>
+        <v>86.87213017667128</v>
       </c>
       <c r="L21" t="n">
-        <v>61.18167021676314</v>
+        <v>70.01985409800083</v>
       </c>
       <c r="M21" t="n">
-        <v>51.84373129681028</v>
+        <v>62.15747501601243</v>
       </c>
       <c r="N21" t="n">
-        <v>38.66169381481656</v>
+        <v>49.24841164076372</v>
       </c>
       <c r="O21" t="n">
-        <v>57.81213424001893</v>
+        <v>67.49691276755155</v>
       </c>
       <c r="P21" t="n">
-        <v>65.92768427608706</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9561,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>94.30397654773019</v>
+        <v>98.26877259920872</v>
       </c>
       <c r="L22" t="n">
-        <v>90.4687457914608</v>
+        <v>95.54231970584888</v>
       </c>
       <c r="M22" t="n">
-        <v>92.09541281912071</v>
+        <v>97.44478514428849</v>
       </c>
       <c r="N22" t="n">
-        <v>81.96869489115805</v>
+        <v>87.19087109886837</v>
       </c>
       <c r="O22" t="n">
-        <v>96.22962838366004</v>
+        <v>101.0531533451928</v>
       </c>
       <c r="P22" t="n">
-        <v>101.5955875616828</v>
+        <v>105.7229464559606</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>124.5190384721106</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K23" t="n">
-        <v>135.370731907559</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L23" t="n">
-        <v>130.6648563030561</v>
+        <v>226.3793228763365</v>
       </c>
       <c r="M23" t="n">
-        <v>113.4004983079896</v>
+        <v>210.4679097145473</v>
       </c>
       <c r="N23" t="n">
-        <v>110.5750244233121</v>
+        <v>124.1497389218713</v>
       </c>
       <c r="O23" t="n">
-        <v>117.8828208804077</v>
+        <v>157.3122239786873</v>
       </c>
       <c r="P23" t="n">
-        <v>135.4597561231036</v>
+        <v>230.1086609576568</v>
       </c>
       <c r="Q23" t="n">
-        <v>150.3839754851235</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>93.17061249236157</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>80.29914934735042</v>
+        <v>86.87213017667128</v>
       </c>
       <c r="L24" t="n">
-        <v>61.18167021676314</v>
+        <v>70.01985409800083</v>
       </c>
       <c r="M24" t="n">
-        <v>51.84373129681028</v>
+        <v>113.4094678721621</v>
       </c>
       <c r="N24" t="n">
-        <v>38.66169381481656</v>
+        <v>132.95726400009</v>
       </c>
       <c r="O24" t="n">
-        <v>57.81213424001893</v>
+        <v>151.2057651268778</v>
       </c>
       <c r="P24" t="n">
-        <v>65.92768427608706</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q24" t="n">
-        <v>94.49434172313325</v>
+        <v>183.3991642608161</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9798,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>90.4687457914608</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M25" t="n">
-        <v>92.09541281912071</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N25" t="n">
-        <v>81.96869489115805</v>
+        <v>170.8997234581946</v>
       </c>
       <c r="O25" t="n">
-        <v>96.22962838366004</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P25" t="n">
-        <v>101.5955875616828</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>135.370731907559</v>
+        <v>228.7569389494465</v>
       </c>
       <c r="L26" t="n">
-        <v>130.6648563030561</v>
+        <v>142.6704705170102</v>
       </c>
       <c r="M26" t="n">
-        <v>113.4004983079896</v>
+        <v>126.759057355221</v>
       </c>
       <c r="N26" t="n">
-        <v>110.5750244233121</v>
+        <v>196.3491900287383</v>
       </c>
       <c r="O26" t="n">
-        <v>117.8828208804077</v>
+        <v>130.7010388478133</v>
       </c>
       <c r="P26" t="n">
-        <v>135.4597561231036</v>
+        <v>230.1086609576568</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.3839754851235</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>93.17061249236157</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>80.29914934735042</v>
+        <v>86.87213017667128</v>
       </c>
       <c r="L27" t="n">
-        <v>61.18167021676314</v>
+        <v>70.01985409800083</v>
       </c>
       <c r="M27" t="n">
-        <v>51.84373129681028</v>
+        <v>145.8663273753387</v>
       </c>
       <c r="N27" t="n">
-        <v>38.66169381481656</v>
+        <v>49.24841164076372</v>
       </c>
       <c r="O27" t="n">
-        <v>57.81213424001893</v>
+        <v>118.7489056237012</v>
       </c>
       <c r="P27" t="n">
-        <v>65.92768427608706</v>
+        <v>157.4094252289156</v>
       </c>
       <c r="Q27" t="n">
-        <v>94.49434172313325</v>
+        <v>183.3991642608161</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10035,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>90.4687457914608</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>92.09541281912071</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
-        <v>81.96869489115805</v>
+        <v>170.8997234581946</v>
       </c>
       <c r="O28" t="n">
-        <v>96.22962838366004</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
-        <v>101.5955875616828</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>135.370731907559</v>
+        <v>187.2541767132112</v>
       </c>
       <c r="L29" t="n">
-        <v>130.6648563030561</v>
+        <v>226.3793228763365</v>
       </c>
       <c r="M29" t="n">
-        <v>113.4004983079896</v>
+        <v>210.4679097145473</v>
       </c>
       <c r="N29" t="n">
-        <v>110.5750244233121</v>
+        <v>207.8585912811975</v>
       </c>
       <c r="O29" t="n">
-        <v>117.8828208804077</v>
+        <v>130.7010388478133</v>
       </c>
       <c r="P29" t="n">
-        <v>135.4597561231036</v>
+        <v>146.3998085983305</v>
       </c>
       <c r="Q29" t="n">
-        <v>150.3839754851235</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>93.17061249236157</v>
+        <v>97.01635169013434</v>
       </c>
       <c r="K30" t="n">
-        <v>80.29914934735042</v>
+        <v>170.5809825359975</v>
       </c>
       <c r="L30" t="n">
-        <v>61.18167021676314</v>
+        <v>70.01985409800083</v>
       </c>
       <c r="M30" t="n">
-        <v>51.84373129681028</v>
+        <v>145.8663273753387</v>
       </c>
       <c r="N30" t="n">
-        <v>38.66169381481656</v>
+        <v>132.95726400009</v>
       </c>
       <c r="O30" t="n">
-        <v>57.81213424001893</v>
+        <v>147.8235892739758</v>
       </c>
       <c r="P30" t="n">
-        <v>65.92768427608706</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q30" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10272,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446526</v>
       </c>
       <c r="L31" t="n">
-        <v>90.4687457914608</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>92.09541281912071</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N31" t="n">
-        <v>81.96869489115805</v>
+        <v>170.8997234581946</v>
       </c>
       <c r="O31" t="n">
-        <v>96.22962838366004</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>101.5955875616828</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>135.370731907559</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L32" t="n">
-        <v>130.6648563030561</v>
+        <v>226.3793228763365</v>
       </c>
       <c r="M32" t="n">
-        <v>113.4004983079896</v>
+        <v>126.759057355221</v>
       </c>
       <c r="N32" t="n">
-        <v>110.5750244233121</v>
+        <v>166.3558290449623</v>
       </c>
       <c r="O32" t="n">
-        <v>117.8828208804077</v>
+        <v>214.4098912071395</v>
       </c>
       <c r="P32" t="n">
-        <v>135.4597561231036</v>
+        <v>230.1086609576568</v>
       </c>
       <c r="Q32" t="n">
-        <v>150.3839754851235</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>93.17061249236157</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>80.29914934735042</v>
+        <v>86.87213017667128</v>
       </c>
       <c r="L33" t="n">
-        <v>61.18167021676314</v>
+        <v>153.7287064573271</v>
       </c>
       <c r="M33" t="n">
-        <v>51.84373129681028</v>
+        <v>113.4094678721621</v>
       </c>
       <c r="N33" t="n">
-        <v>38.66169381481656</v>
+        <v>132.95726400009</v>
       </c>
       <c r="O33" t="n">
-        <v>57.81213424001893</v>
+        <v>151.2057651268778</v>
       </c>
       <c r="P33" t="n">
-        <v>65.92768427608706</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q33" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10509,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>90.4687457914608</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>92.09541281912071</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N34" t="n">
-        <v>81.96869489115805</v>
+        <v>170.8997234581946</v>
       </c>
       <c r="O34" t="n">
-        <v>96.22962838366004</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
-        <v>101.5955875616828</v>
+        <v>135.0065633140412</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>135.370731907559</v>
+        <v>217.2475376969873</v>
       </c>
       <c r="L35" t="n">
-        <v>130.6648563030561</v>
+        <v>226.3793228763365</v>
       </c>
       <c r="M35" t="n">
-        <v>113.4004983079896</v>
+        <v>126.759057355221</v>
       </c>
       <c r="N35" t="n">
-        <v>110.5750244233121</v>
+        <v>124.1497389218713</v>
       </c>
       <c r="O35" t="n">
-        <v>117.8828208804077</v>
+        <v>130.7010388478133</v>
       </c>
       <c r="P35" t="n">
-        <v>135.4597561231036</v>
+        <v>230.1086609576568</v>
       </c>
       <c r="Q35" t="n">
-        <v>150.3839754851235</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>93.17061249236157</v>
+        <v>97.01635169013434</v>
       </c>
       <c r="K36" t="n">
-        <v>80.29914934735042</v>
+        <v>86.87213017667128</v>
       </c>
       <c r="L36" t="n">
-        <v>61.18167021676314</v>
+        <v>150.346530604425</v>
       </c>
       <c r="M36" t="n">
-        <v>51.84373129681028</v>
+        <v>145.8663273753387</v>
       </c>
       <c r="N36" t="n">
-        <v>38.66169381481656</v>
+        <v>49.24841164076372</v>
       </c>
       <c r="O36" t="n">
-        <v>57.81213424001893</v>
+        <v>151.2057651268778</v>
       </c>
       <c r="P36" t="n">
-        <v>65.92768427608706</v>
+        <v>157.4094252289156</v>
       </c>
       <c r="Q36" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10746,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>90.4687457914608</v>
+        <v>162.4747015415545</v>
       </c>
       <c r="M37" t="n">
-        <v>92.09541281912071</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N37" t="n">
-        <v>81.96869489115805</v>
+        <v>170.8997234581946</v>
       </c>
       <c r="O37" t="n">
-        <v>96.22962838366004</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P37" t="n">
-        <v>101.5955875616828</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>135.370731907559</v>
+        <v>187.2541767132112</v>
       </c>
       <c r="L38" t="n">
-        <v>130.6648563030561</v>
+        <v>142.6704705170102</v>
       </c>
       <c r="M38" t="n">
-        <v>113.4004983079896</v>
+        <v>210.4679097145473</v>
       </c>
       <c r="N38" t="n">
-        <v>110.5750244233121</v>
+        <v>207.8585912811975</v>
       </c>
       <c r="O38" t="n">
-        <v>117.8828208804077</v>
+        <v>214.4098912071395</v>
       </c>
       <c r="P38" t="n">
-        <v>135.4597561231036</v>
+        <v>146.3998085983305</v>
       </c>
       <c r="Q38" t="n">
-        <v>150.3839754851235</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>93.17061249236157</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>80.29914934735042</v>
+        <v>138.124123032821</v>
       </c>
       <c r="L39" t="n">
-        <v>61.18167021676314</v>
+        <v>70.01985409800083</v>
       </c>
       <c r="M39" t="n">
-        <v>51.84373129681028</v>
+        <v>62.15747501601243</v>
       </c>
       <c r="N39" t="n">
-        <v>38.66169381481656</v>
+        <v>49.24841164076372</v>
       </c>
       <c r="O39" t="n">
-        <v>57.81213424001893</v>
+        <v>151.2057651268778</v>
       </c>
       <c r="P39" t="n">
-        <v>65.92768427608706</v>
+        <v>157.4094252289156</v>
       </c>
       <c r="Q39" t="n">
-        <v>94.49434172313325</v>
+        <v>183.3991642608161</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10983,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>90.4687457914608</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
-        <v>92.09541281912071</v>
+        <v>178.5096609094457</v>
       </c>
       <c r="N40" t="n">
-        <v>81.96869489115805</v>
+        <v>170.8997234581946</v>
       </c>
       <c r="O40" t="n">
-        <v>96.22962838366004</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P40" t="n">
-        <v>101.5955875616828</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>124.5190384721106</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K41" t="n">
-        <v>135.370731907559</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L41" t="n">
-        <v>130.6648563030561</v>
+        <v>142.6704705170102</v>
       </c>
       <c r="M41" t="n">
-        <v>113.4004983079896</v>
+        <v>153.370242486095</v>
       </c>
       <c r="N41" t="n">
-        <v>110.5750244233121</v>
+        <v>207.8585912811975</v>
       </c>
       <c r="O41" t="n">
-        <v>117.8828208804077</v>
+        <v>214.4098912071395</v>
       </c>
       <c r="P41" t="n">
-        <v>135.4597561231036</v>
+        <v>230.1086609576568</v>
       </c>
       <c r="Q41" t="n">
-        <v>150.3839754851235</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>93.17061249236157</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>80.29914934735042</v>
+        <v>138.124123032821</v>
       </c>
       <c r="L42" t="n">
-        <v>61.18167021676314</v>
+        <v>153.7287064573271</v>
       </c>
       <c r="M42" t="n">
-        <v>51.84373129681028</v>
+        <v>145.8663273753387</v>
       </c>
       <c r="N42" t="n">
-        <v>38.66169381481656</v>
+        <v>132.95726400009</v>
       </c>
       <c r="O42" t="n">
-        <v>57.81213424001893</v>
+        <v>67.49691276755155</v>
       </c>
       <c r="P42" t="n">
-        <v>65.92768427608706</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q42" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11220,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>90.4687457914608</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M43" t="n">
-        <v>92.09541281912071</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N43" t="n">
-        <v>81.96869489115805</v>
+        <v>170.8997234581946</v>
       </c>
       <c r="O43" t="n">
-        <v>96.22962838366004</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P43" t="n">
-        <v>101.5955875616828</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>135.370731907559</v>
+        <v>217.2475376969873</v>
       </c>
       <c r="L44" t="n">
-        <v>130.6648563030561</v>
+        <v>142.6704705170102</v>
       </c>
       <c r="M44" t="n">
-        <v>113.4004983079896</v>
+        <v>126.759057355221</v>
       </c>
       <c r="N44" t="n">
-        <v>110.5750244233121</v>
+        <v>124.1497389218713</v>
       </c>
       <c r="O44" t="n">
-        <v>117.8828208804077</v>
+        <v>214.4098912071395</v>
       </c>
       <c r="P44" t="n">
-        <v>135.4597561231036</v>
+        <v>230.1086609576568</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.3839754851235</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>93.17061249236157</v>
+        <v>97.01635169013434</v>
       </c>
       <c r="K45" t="n">
-        <v>80.29914934735042</v>
+        <v>86.87213017667128</v>
       </c>
       <c r="L45" t="n">
-        <v>61.18167021676314</v>
+        <v>70.01985409800083</v>
       </c>
       <c r="M45" t="n">
-        <v>51.84373129681028</v>
+        <v>62.15747501601243</v>
       </c>
       <c r="N45" t="n">
-        <v>38.66169381481656</v>
+        <v>129.5750881471879</v>
       </c>
       <c r="O45" t="n">
-        <v>57.81213424001893</v>
+        <v>151.2057651268778</v>
       </c>
       <c r="P45" t="n">
-        <v>65.92768427608706</v>
+        <v>157.4094252289155</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.49434172313325</v>
+        <v>183.3991642608161</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11457,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>90.4687457914608</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M46" t="n">
-        <v>92.09541281912071</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>81.96869489115805</v>
+        <v>170.8997234581946</v>
       </c>
       <c r="O46" t="n">
-        <v>96.22962838366004</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
-        <v>101.5955875616828</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23272,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.6367263390697</v>
+        <v>414.7128039286263</v>
       </c>
       <c r="H11" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I11" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>108.0327934026353</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S11" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T11" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2923720137513</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23351,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H12" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I12" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>78.03303713061706</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S12" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T12" t="n">
-        <v>198.728398625364</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9179381734211</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.6922296731294</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H13" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I13" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J13" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R13" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S13" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T13" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3027339191093</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23509,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.6367263390697</v>
+        <v>414.7128039286263</v>
       </c>
       <c r="H14" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I14" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>108.0327934026353</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S14" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T14" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2923720137513</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23588,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H15" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I15" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>78.03303713061706</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S15" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T15" t="n">
-        <v>198.728398625364</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9179381734211</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.6922296731294</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H16" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I16" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J16" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R16" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S16" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T16" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3027339191093</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23746,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.6367263390697</v>
+        <v>414.7128039286263</v>
       </c>
       <c r="H17" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I17" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>108.0327934026353</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S17" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T17" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2923720137513</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23825,13 +23825,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H18" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I18" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>78.03303713061706</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S18" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T18" t="n">
-        <v>198.728398625364</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9179381734211</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23904,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.6922296731294</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H19" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I19" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J19" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R19" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S19" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T19" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3027339191093</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23983,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.6367263390697</v>
+        <v>414.7128039286263</v>
       </c>
       <c r="H20" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I20" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>108.0327934026353</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S20" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T20" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2923720137513</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24062,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H21" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I21" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>78.03303713061706</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S21" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T21" t="n">
-        <v>198.728398625364</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9179381734211</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24141,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.6922296731294</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H22" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I22" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J22" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R22" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S22" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T22" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3027339191093</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24217,16 +24217,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>323.1671933823852</v>
       </c>
       <c r="G23" t="n">
-        <v>414.6367263390697</v>
+        <v>331.0039515693001</v>
       </c>
       <c r="H23" t="n">
-        <v>332.654015158888</v>
+        <v>249.7242924136083</v>
       </c>
       <c r="I23" t="n">
-        <v>184.7994937051469</v>
+        <v>114.0017178184334</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>108.0327934026353</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S23" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T23" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2923720137513</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24293,19 +24293,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>73.93622809607467</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.9871697683942</v>
+        <v>58.11738933150095</v>
       </c>
       <c r="H24" t="n">
-        <v>108.7938786076111</v>
+        <v>25.47815180947026</v>
       </c>
       <c r="I24" t="n">
-        <v>77.12765456497084</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>78.03303713061706</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S24" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T24" t="n">
-        <v>198.728398625364</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9179381734211</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24378,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6922296731294</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H25" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I25" t="n">
-        <v>146.4662571175369</v>
+        <v>63.78366026198924</v>
       </c>
       <c r="J25" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>61.14583096471014</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>163.8605191622716</v>
+        <v>81.68608630768816</v>
       </c>
       <c r="S25" t="n">
-        <v>218.8102057935515</v>
+        <v>209.6775683686219</v>
       </c>
       <c r="T25" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3027339191093</v>
+        <v>202.5957429663799</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24448,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>280.9522844625884</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24457,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.6367263390697</v>
+        <v>414.7128039286263</v>
       </c>
       <c r="H26" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I26" t="n">
-        <v>184.7994937051469</v>
+        <v>104.0236226172017</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>108.0327934026353</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S26" t="n">
-        <v>193.8433399116564</v>
+        <v>111.8681056243513</v>
       </c>
       <c r="T26" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2923720137513</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>244.0434061108086</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24527,7 +24527,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>63.73621320531248</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24536,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.9871697683942</v>
+        <v>58.11738933150093</v>
       </c>
       <c r="H27" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I27" t="n">
-        <v>77.12765456497084</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>78.03303713061706</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S27" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T27" t="n">
-        <v>198.728398625364</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9179381734211</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24587,7 +24587,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>122.0641328441512</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24609,22 +24609,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>62.7251102872429</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.6922296731294</v>
+        <v>93.99559830264546</v>
       </c>
       <c r="H28" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I28" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J28" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R28" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S28" t="n">
-        <v>218.8102057935515</v>
+        <v>135.696072841947</v>
       </c>
       <c r="T28" t="n">
-        <v>226.6691135000563</v>
+        <v>143.1060713241568</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3027339191093</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24694,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.6367263390697</v>
+        <v>414.7128039286263</v>
       </c>
       <c r="H29" t="n">
-        <v>332.654015158888</v>
+        <v>249.7242924136083</v>
       </c>
       <c r="I29" t="n">
-        <v>184.7994937051469</v>
+        <v>104.0236226172017</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>108.0327934026353</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S29" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T29" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2923720137513</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24745,10 +24745,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>286.0222483191428</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>312.507181497959</v>
       </c>
     </row>
     <row r="30">
@@ -24758,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>82.82433129054107</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>73.71430840654416</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>73.93622809607467</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H30" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I30" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>78.03303713061706</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S30" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T30" t="n">
-        <v>198.728398625364</v>
+        <v>115.1836163799021</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9179381734211</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24852,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.6922296731294</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H31" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I31" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J31" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,31 +24882,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R31" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S31" t="n">
-        <v>218.8102057935515</v>
+        <v>135.696072841947</v>
       </c>
       <c r="T31" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3027339191093</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>178.4068861657334</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>142.0008030297109</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>134.8758009927685</v>
       </c>
     </row>
     <row r="32">
@@ -24928,16 +24928,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>323.1671933823852</v>
       </c>
       <c r="G32" t="n">
-        <v>414.6367263390697</v>
+        <v>331.0039515693001</v>
       </c>
       <c r="H32" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I32" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,19 +24964,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>108.0327934026353</v>
+        <v>39.08094512952584</v>
       </c>
       <c r="S32" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T32" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2923720137513</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>244.0434061108086</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -25010,13 +25010,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H33" t="n">
-        <v>108.7938786076111</v>
+        <v>25.47815180947026</v>
       </c>
       <c r="I33" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>78.03303713061706</v>
+        <v>6.829566731896307</v>
       </c>
       <c r="S33" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T33" t="n">
-        <v>198.728398625364</v>
+        <v>115.1836163799021</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9179381734211</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25061,7 +25061,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>122.0641328441512</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25089,16 +25089,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.6922296731294</v>
+        <v>84.01750310141372</v>
       </c>
       <c r="H34" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I34" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J34" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,31 +25119,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R34" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S34" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T34" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3027339191093</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>168.4287909645017</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>151.9788982309426</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>134.8758009927685</v>
       </c>
     </row>
     <row r="35">
@@ -25165,16 +25165,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>323.1671933823852</v>
       </c>
       <c r="G35" t="n">
-        <v>414.6367263390697</v>
+        <v>414.7128039286263</v>
       </c>
       <c r="H35" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I35" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>108.0327934026353</v>
+        <v>39.08094512952584</v>
       </c>
       <c r="S35" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T35" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2923720137513</v>
+        <v>167.5896058615895</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>302.5290862967273</v>
       </c>
     </row>
     <row r="36">
@@ -25247,13 +25247,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H36" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I36" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>78.03303713061706</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S36" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T36" t="n">
-        <v>198.728398625364</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9179381734211</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>149.091734790099</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>167.9861308015933</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>122.0641328441512</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>131.9519386192098</v>
       </c>
     </row>
     <row r="37">
@@ -25317,25 +25317,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>74.88471586011778</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>62.7251102872429</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>61.71219566360497</v>
       </c>
       <c r="G37" t="n">
-        <v>167.6922296731294</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H37" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I37" t="n">
-        <v>146.4662571175369</v>
+        <v>63.78366026198924</v>
       </c>
       <c r="J37" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R37" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S37" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T37" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3027339191093</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25399,19 +25399,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>298.2215177129355</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.6367263390697</v>
+        <v>414.7128039286263</v>
       </c>
       <c r="H38" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I38" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>108.0327934026353</v>
+        <v>39.08094512952584</v>
       </c>
       <c r="S38" t="n">
-        <v>193.8433399116564</v>
+        <v>111.8681056243513</v>
       </c>
       <c r="T38" t="n">
-        <v>220.1803856409053</v>
+        <v>136.8045629298631</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2923720137513</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25484,13 +25484,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H39" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I39" t="n">
-        <v>77.12765456497084</v>
+        <v>1.649838354119353</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>78.03303713061706</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>165.0641745378389</v>
+        <v>82.11140153892154</v>
       </c>
       <c r="T39" t="n">
-        <v>198.728398625364</v>
+        <v>115.1836163799021</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9179381734211</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>83.53796873930156</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,16 +25563,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.6922296731294</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H40" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I40" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J40" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,28 +25593,28 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R40" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S40" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T40" t="n">
-        <v>226.6691135000563</v>
+        <v>143.1060713241568</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3027339191093</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>178.4068861657334</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>142.0008030297109</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>299.0249893041544</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>291.5421346129131</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25642,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.6367263390697</v>
+        <v>414.7128039286263</v>
       </c>
       <c r="H41" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I41" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>108.0327934026353</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S41" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T41" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2923720137513</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>244.0434061108087</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>302.5290862967273</v>
       </c>
     </row>
     <row r="42">
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>82.8243312905411</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>90.64948498310888</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25721,13 +25721,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H42" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I42" t="n">
-        <v>77.12765456497084</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>78.03303713061706</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T42" t="n">
-        <v>198.728398625364</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9179381734211</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25794,22 +25794,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>62.72511028724293</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>61.712195663605</v>
       </c>
       <c r="G43" t="n">
-        <v>167.6922296731294</v>
+        <v>84.01750310141375</v>
       </c>
       <c r="H43" t="n">
-        <v>159.571016214239</v>
+        <v>86.14366833144543</v>
       </c>
       <c r="I43" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J43" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R43" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S43" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T43" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3027339191093</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25870,22 +25870,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>280.9522844625884</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>298.2215177129356</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>323.1671933823852</v>
       </c>
       <c r="G44" t="n">
-        <v>414.6367263390697</v>
+        <v>331.0039515693001</v>
       </c>
       <c r="H44" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I44" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>108.0327934026353</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S44" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T44" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2923720137513</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>82.8243312905411</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25958,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.9871697683942</v>
+        <v>53.31902250804626</v>
       </c>
       <c r="H45" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I45" t="n">
-        <v>77.12765456497084</v>
+        <v>1.649838354119382</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>78.03303713061706</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T45" t="n">
-        <v>198.728398625364</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9179381734211</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26028,25 +26028,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>64.90662065888611</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>62.72511028724293</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>61.712195663605</v>
       </c>
       <c r="G46" t="n">
-        <v>167.6922296731294</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H46" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I46" t="n">
-        <v>146.4662571175369</v>
+        <v>73.76175546322101</v>
       </c>
       <c r="J46" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R46" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S46" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T46" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3027339191093</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>280263.5648954738</v>
+        <v>283635.7094595824</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>280263.5648954738</v>
+        <v>283635.7094595824</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>280263.5648954738</v>
+        <v>283635.7094595824</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>280263.5648954738</v>
+        <v>283635.7094595824</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>280263.5648954738</v>
+        <v>351655.625587583</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>280263.5648954738</v>
+        <v>351655.6255875828</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>280263.5648954738</v>
+        <v>351655.6255875829</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>280263.5648954738</v>
+        <v>351655.6255875828</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>280263.5648954738</v>
+        <v>351655.6255875828</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>280263.5648954738</v>
+        <v>351655.6255875829</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>280263.5648954738</v>
+        <v>351655.6255875831</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>280263.5648954738</v>
+        <v>351655.6255875829</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>634939.1625057049</v>
+      </c>
+      <c r="C2" t="n">
+        <v>634939.1625057044</v>
+      </c>
+      <c r="D2" t="n">
         <v>634939.1625057047</v>
       </c>
-      <c r="C2" t="n">
-        <v>634939.1625057048</v>
-      </c>
-      <c r="D2" t="n">
-        <v>634939.1625057049</v>
-      </c>
       <c r="E2" t="n">
-        <v>177196.8496322885</v>
+        <v>176201.0576637902</v>
       </c>
       <c r="F2" t="n">
-        <v>177196.8496322885</v>
+        <v>176201.0576637902</v>
       </c>
       <c r="G2" t="n">
-        <v>177196.8496322885</v>
+        <v>176201.0576637902</v>
       </c>
       <c r="H2" t="n">
-        <v>177196.8496322885</v>
+        <v>176201.0576637902</v>
       </c>
       <c r="I2" t="n">
-        <v>177196.8496322885</v>
+        <v>212958.6627696018</v>
       </c>
       <c r="J2" t="n">
-        <v>177196.8496322885</v>
+        <v>212958.6627696018</v>
       </c>
       <c r="K2" t="n">
-        <v>177196.8496322885</v>
+        <v>212958.6627696018</v>
       </c>
       <c r="L2" t="n">
-        <v>177196.8496322885</v>
+        <v>212958.6627696018</v>
       </c>
       <c r="M2" t="n">
-        <v>177196.8496322885</v>
+        <v>212958.6627696018</v>
       </c>
       <c r="N2" t="n">
-        <v>177196.8496322885</v>
+        <v>212958.6627696018</v>
       </c>
       <c r="O2" t="n">
-        <v>177196.8496322885</v>
+        <v>212958.6627696019</v>
       </c>
       <c r="P2" t="n">
-        <v>177196.8496322885</v>
+        <v>212958.6627696019</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>117896.1602839667</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>22259.94172824437</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>441649.2499958205</v>
       </c>
       <c r="E4" t="n">
-        <v>57338.49600323976</v>
+        <v>61963.41110836239</v>
       </c>
       <c r="F4" t="n">
-        <v>57338.49600323977</v>
+        <v>61963.41110836239</v>
       </c>
       <c r="G4" t="n">
-        <v>57338.49600323976</v>
+        <v>61963.41110836239</v>
       </c>
       <c r="H4" t="n">
-        <v>57338.49600323977</v>
+        <v>61963.41110836239</v>
       </c>
       <c r="I4" t="n">
-        <v>57338.49600323976</v>
+        <v>83812.47681301266</v>
       </c>
       <c r="J4" t="n">
-        <v>57338.49600323977</v>
+        <v>83812.47681301265</v>
       </c>
       <c r="K4" t="n">
-        <v>57338.49600323976</v>
+        <v>83812.47681301266</v>
       </c>
       <c r="L4" t="n">
-        <v>57338.49600323977</v>
+        <v>83812.47681301265</v>
       </c>
       <c r="M4" t="n">
-        <v>57338.49600323976</v>
+        <v>83812.47681301265</v>
       </c>
       <c r="N4" t="n">
-        <v>57338.49600323977</v>
+        <v>83812.47681301266</v>
       </c>
       <c r="O4" t="n">
-        <v>57338.49600323976</v>
+        <v>83812.47681301265</v>
       </c>
       <c r="P4" t="n">
-        <v>57338.49600323977</v>
+        <v>83812.47681301265</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>3611.612105008322</v>
+        <v>3199.062356240237</v>
       </c>
       <c r="F5" t="n">
-        <v>3611.612105008322</v>
+        <v>3199.062356240237</v>
       </c>
       <c r="G5" t="n">
-        <v>3611.612105008322</v>
+        <v>3199.062356240237</v>
       </c>
       <c r="H5" t="n">
-        <v>3611.612105008322</v>
+        <v>3199.062356240237</v>
       </c>
       <c r="I5" t="n">
-        <v>3611.612105008322</v>
+        <v>8288.560579687273</v>
       </c>
       <c r="J5" t="n">
-        <v>3611.612105008322</v>
+        <v>8288.560579687273</v>
       </c>
       <c r="K5" t="n">
-        <v>3611.612105008322</v>
+        <v>8288.560579687273</v>
       </c>
       <c r="L5" t="n">
-        <v>3611.612105008322</v>
+        <v>8288.560579687273</v>
       </c>
       <c r="M5" t="n">
-        <v>3611.612105008322</v>
+        <v>8288.560579687273</v>
       </c>
       <c r="N5" t="n">
-        <v>3611.612105008322</v>
+        <v>8288.560579687273</v>
       </c>
       <c r="O5" t="n">
-        <v>3611.612105008322</v>
+        <v>8288.560579687271</v>
       </c>
       <c r="P5" t="n">
-        <v>3611.612105008322</v>
+        <v>8288.560579687271</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>159662.3125098842</v>
+        <v>159618.1767312033</v>
       </c>
       <c r="C6" t="n">
-        <v>159662.3125098843</v>
+        <v>159618.1767312028</v>
       </c>
       <c r="D6" t="n">
-        <v>159662.3125098844</v>
+        <v>159618.1767312031</v>
       </c>
       <c r="E6" t="n">
-        <v>-16853.25847595961</v>
+        <v>-21699.71524545755</v>
       </c>
       <c r="F6" t="n">
-        <v>116246.7415240405</v>
+        <v>96196.44503850918</v>
       </c>
       <c r="G6" t="n">
-        <v>116246.7415240405</v>
+        <v>96196.44503850918</v>
       </c>
       <c r="H6" t="n">
-        <v>116246.7415240405</v>
+        <v>96196.44503850918</v>
       </c>
       <c r="I6" t="n">
-        <v>116246.7415240405</v>
+        <v>84941.27368494084</v>
       </c>
       <c r="J6" t="n">
-        <v>116246.7415240405</v>
+        <v>107201.2154131852</v>
       </c>
       <c r="K6" t="n">
-        <v>116246.7415240405</v>
+        <v>107201.2154131852</v>
       </c>
       <c r="L6" t="n">
-        <v>116246.7415240405</v>
+        <v>107201.2154131852</v>
       </c>
       <c r="M6" t="n">
-        <v>116246.7415240405</v>
+        <v>107201.2154131852</v>
       </c>
       <c r="N6" t="n">
-        <v>116246.7415240405</v>
+        <v>107201.2154131852</v>
       </c>
       <c r="O6" t="n">
-        <v>116246.7415240405</v>
+        <v>107201.2154131852</v>
       </c>
       <c r="P6" t="n">
-        <v>116246.7415240405</v>
+        <v>107201.2154131852</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="F3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="G3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="H3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="I3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="J3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="K3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="L3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="M3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="N3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="O3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="P3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
     </row>
     <row r="4">
@@ -26810,28 +26810,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>83.70885235932624</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>83.70885235932616</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H11" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I11" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J11" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K11" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L11" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M11" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N11" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O11" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P11" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q11" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R11" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S11" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T11" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U11" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H12" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I12" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J12" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K12" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L12" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M12" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N12" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O12" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P12" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q12" t="n">
-        <v>45.48743236288827</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R12" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S12" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T12" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H13" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I13" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J13" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K13" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L13" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M13" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N13" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O13" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P13" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q13" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R13" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S13" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T13" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H14" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I14" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J14" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K14" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L14" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M14" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N14" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O14" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P14" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q14" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R14" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S14" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T14" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U14" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H15" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I15" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J15" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K15" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L15" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M15" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N15" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O15" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P15" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q15" t="n">
-        <v>45.48743236288827</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R15" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S15" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T15" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H16" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I16" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J16" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K16" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L16" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M16" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N16" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O16" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P16" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q16" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R16" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S16" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T16" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H17" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I17" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J17" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K17" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L17" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M17" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N17" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O17" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P17" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q17" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R17" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S17" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T17" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U17" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H18" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I18" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J18" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K18" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L18" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M18" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N18" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O18" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P18" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q18" t="n">
-        <v>45.48743236288827</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R18" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S18" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T18" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H19" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I19" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J19" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K19" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L19" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M19" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N19" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O19" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P19" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q19" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R19" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S19" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T19" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H20" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I20" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J20" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K20" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L20" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M20" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N20" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O20" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P20" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q20" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R20" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S20" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T20" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U20" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H21" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I21" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J21" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K21" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L21" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M21" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N21" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O21" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P21" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q21" t="n">
-        <v>45.48743236288827</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R21" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S21" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T21" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H22" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I22" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J22" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K22" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L22" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M22" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N22" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O22" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P22" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q22" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R22" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S22" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T22" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H23" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I23" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J23" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K23" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L23" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M23" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N23" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O23" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P23" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q23" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R23" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S23" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T23" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U23" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H24" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I24" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J24" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K24" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L24" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M24" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N24" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O24" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P24" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q24" t="n">
-        <v>45.48743236288827</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R24" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S24" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T24" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H25" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I25" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J25" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K25" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L25" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M25" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N25" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O25" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P25" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q25" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R25" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S25" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T25" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H26" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I26" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J26" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K26" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L26" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M26" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N26" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O26" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P26" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q26" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R26" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S26" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T26" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U26" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H27" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I27" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J27" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K27" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L27" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M27" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N27" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O27" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P27" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q27" t="n">
-        <v>45.48743236288827</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R27" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S27" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T27" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H28" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I28" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J28" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K28" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L28" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M28" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N28" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O28" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P28" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q28" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R28" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S28" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T28" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H29" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I29" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J29" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K29" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L29" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M29" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N29" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O29" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P29" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q29" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R29" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S29" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T29" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U29" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H30" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I30" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J30" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K30" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L30" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M30" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N30" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O30" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P30" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q30" t="n">
-        <v>45.48743236288827</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R30" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S30" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T30" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H31" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I31" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J31" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K31" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L31" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M31" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N31" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O31" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P31" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q31" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R31" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S31" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T31" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H32" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I32" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J32" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K32" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L32" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M32" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N32" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O32" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P32" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q32" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R32" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S32" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T32" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U32" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H33" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I33" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J33" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K33" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L33" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M33" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N33" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O33" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P33" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q33" t="n">
-        <v>45.48743236288827</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R33" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S33" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T33" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H34" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I34" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J34" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K34" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L34" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M34" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N34" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O34" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P34" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q34" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R34" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S34" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T34" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H35" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I35" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J35" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K35" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L35" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M35" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N35" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O35" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P35" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q35" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R35" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S35" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T35" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U35" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H36" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I36" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J36" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K36" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L36" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M36" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N36" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O36" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P36" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q36" t="n">
-        <v>45.48743236288827</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R36" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S36" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T36" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H37" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I37" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J37" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K37" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L37" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M37" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N37" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O37" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P37" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q37" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R37" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S37" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T37" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H38" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I38" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J38" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K38" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L38" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M38" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N38" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O38" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P38" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q38" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R38" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S38" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T38" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U38" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H39" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I39" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J39" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K39" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L39" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M39" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N39" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O39" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P39" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q39" t="n">
-        <v>45.48743236288827</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R39" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S39" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T39" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H40" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I40" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J40" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K40" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L40" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M40" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N40" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O40" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P40" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q40" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R40" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S40" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T40" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H41" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I41" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J41" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K41" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L41" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M41" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N41" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O41" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P41" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q41" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R41" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S41" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T41" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U41" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H42" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I42" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J42" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K42" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L42" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M42" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N42" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O42" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P42" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q42" t="n">
-        <v>45.48743236288827</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R42" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S42" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T42" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H43" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I43" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J43" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K43" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L43" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M43" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N43" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O43" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P43" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q43" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R43" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S43" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T43" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H44" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I44" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J44" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K44" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L44" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M44" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N44" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O44" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P44" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q44" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R44" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S44" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T44" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U44" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H45" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I45" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J45" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K45" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L45" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M45" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N45" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O45" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P45" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q45" t="n">
-        <v>45.48743236288827</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R45" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S45" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T45" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H46" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I46" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J46" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K46" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L46" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M46" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N46" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O46" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P46" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q46" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R46" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S46" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T46" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -36363,22 +36363,22 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>26.61118513087395</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>53.71549137555022</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>29.07468365027449</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>51.25199285614969</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>8.474993745443818</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>66.93238183570554</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>81.06487576515715</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>61.9885130206897</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>29.28361685808049</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>38.12058638333314</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -36606,16 +36606,16 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>72.19945110686707</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>53.71549137555022</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>29.07468365027449</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36682,19 +36682,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>51.25199285614969</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,22 +36755,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>8.474993745443818</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>66.93238183570554</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>81.06487576515715</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>61.9885130206897</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>29.28361685808049</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>38.12058638333314</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>42.20609012309104</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -36913,19 +36913,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>80.32667650642419</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36992,22 +36992,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>8.474993745443873</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>66.93238183570554</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>81.06487576515715</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>61.9885130206897</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>29.28361685808049</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,25 +37068,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>38.12058638333314</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>42.20609012309104</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>29.07468365027449</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>51.25199285614969</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37229,22 +37229,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>8.474993745443818</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>66.93238183570554</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>81.06487576515715</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>61.9885130206897</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>29.28361685808053</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>38.12058638333314</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>72.19945110686707</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -37323,10 +37323,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>53.71549137555022</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>80.32667650642418</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37466,22 +37466,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>8.474993745443818</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>66.9323818357056</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>81.06487576515715</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>61.9885130206897</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>29.28361685808049</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>38.12058638333314</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>42.20609012309104</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>29.07468365027449</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>51.25199285614969</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37636,13 +37636,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>8.474993745443818</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>66.93238183570554</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>81.06487576515721</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>83.70885235932627</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>61.9885130206897</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>29.28361685808049</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37788,19 +37788,19 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>26.61118513087395</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>53.71549137555022</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>29.07468365027449</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>51.25199285614973</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>8.474993745443818</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>66.93238183570554</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>81.06487576515715</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>61.9885130206897</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>29.28361685808049</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>38.12058638333314</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>72.19945110686704</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -38031,13 +38031,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>53.71549137555022</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38107,16 +38107,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>80.32667650642421</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>8.474993745443818</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>66.93238183570554</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>81.06487576515715</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>83.70885235932624</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>61.9885130206897</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>29.28361685808048</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
